--- a/cori_timings.xlsx
+++ b/cori_timings.xlsx
@@ -5,16 +5,17 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wkliao/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wkliao/Fermi/Github/pandana_read_case/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39D6D23A-CB9B-5146-8B3D-D12BD8F078FA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25C27F5F-EC3C-5648-BC0B-CADF88427F4D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="27640" windowHeight="17540" xr2:uid="{F0CFE945-D4D9-0245-8556-DBF4C0781B9C}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="27640" windowHeight="17540" activeTab="2" xr2:uid="{F0CFE945-D4D9-0245-8556-DBF4C0781B9C}"/>
   </bookViews>
   <sheets>
     <sheet name="dset.txt" sheetId="2" r:id="rId1"/>
     <sheet name="1536 MB" sheetId="1" r:id="rId2"/>
+    <sheet name="parallelism" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="64">
   <si>
     <t>evt.seq</t>
   </si>
@@ -197,12 +198,42 @@
   <si>
     <t>&lt;--- linearly reduced</t>
   </si>
+  <si>
+    <t>Group parallelism</t>
+  </si>
+  <si>
+    <t>Divide processes into groups, all processes in one group real datasets in parallel</t>
+  </si>
+  <si>
+    <t>open</t>
+  </si>
+  <si>
+    <t xml:space="preserve">parallelism </t>
+  </si>
+  <si>
+    <t>data</t>
+  </si>
+  <si>
+    <t>group</t>
+  </si>
+  <si>
+    <t>seq_opt = 3</t>
+  </si>
+  <si>
+    <t>dset_opt = 2</t>
+  </si>
+  <si>
+    <t>1536 MiB   (45 groups 638 datasets)</t>
+  </si>
+  <si>
+    <t>dset.txt   (15 groups 123 datasets)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -229,6 +260,14 @@
       <b/>
       <sz val="12"/>
       <color rgb="FF0432FF"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -340,7 +379,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="73">
+  <cellXfs count="78">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -407,14 +446,28 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="4" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="4" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="4" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="3" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -443,6 +496,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -452,19 +511,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
@@ -473,23 +523,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="4" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="4" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="4" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="4" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="4" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="4" fontId="3" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -510,6 +556,2031 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1920" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Execution Times in Seconds</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1920" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>data parallelism</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>parallelism!$L$9:$L$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>256</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>512</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>parallelism!$R$9:$R$14</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0.00</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>19.940000000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>15.3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>13.78</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>14.54</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>15.23</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>17.75</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-7937-AA4F-B20D-0C6F858F4D1E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>group parallelism</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>parallelism!$L$9:$L$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>256</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>512</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>parallelism!$R$15:$R$20</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0.00</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>12.47</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8.67</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6.46</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.92</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.76</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.93</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-7937-AA4F-B20D-0C6F858F4D1E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="1023661759"/>
+        <c:axId val="1023690927"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1023661759"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1023690927"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1023690927"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="25"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="#,##0" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1023661759"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr sz="1600"/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1920" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Execution Times in Seconds</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1920" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>data parallelism</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>parallelism!$C$9:$C$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>256</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>512</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>parallelism!$I$9:$I$14</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>7.41</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.39</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6.75</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6.34</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6.33</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>8.6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-2296-3747-A53D-DC02B7F75821}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>group parallelism</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>parallelism!$C$9:$C$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>256</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>512</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>parallelism!$I$15:$I$20</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>6.24</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.7699999999999996</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.06</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.13</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.71</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.9</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-2296-3747-A53D-DC02B7F75821}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="1023661759"/>
+        <c:axId val="1023690927"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1023661759"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1023690927"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1023690927"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="10"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="#,##0" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1023661759"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr sz="1600"/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>196850</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>50800</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CC9D000A-7C99-5A4E-848C-1171103032B1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D14F3AD1-0022-E44E-BA39-F6C9A839B671}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -811,7 +2882,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4879E79B-B30B-AE49-BD61-A3FC5BE1E80A}">
   <dimension ref="A1:P95"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -831,23 +2902,23 @@
       <c r="B1" t="s">
         <v>10</v>
       </c>
-      <c r="C1" s="43" t="s">
+      <c r="C1" s="53" t="s">
         <v>11</v>
       </c>
-      <c r="D1" s="43"/>
+      <c r="D1" s="53"/>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="43" t="s">
+      <c r="C2" s="53" t="s">
         <v>13</v>
       </c>
-      <c r="D2" s="43"/>
-      <c r="E2" s="43" t="s">
+      <c r="D2" s="53"/>
+      <c r="E2" s="53" t="s">
         <v>14</v>
       </c>
-      <c r="F2" s="43"/>
+      <c r="F2" s="53"/>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
@@ -884,14 +2955,14 @@
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="B6" s="50" t="s">
+      <c r="B6" s="60" t="s">
         <v>16</v>
       </c>
-      <c r="C6" s="51"/>
-      <c r="D6" s="51"/>
-      <c r="E6" s="51"/>
-      <c r="F6" s="51"/>
-      <c r="G6" s="51"/>
+      <c r="C6" s="61"/>
+      <c r="D6" s="61"/>
+      <c r="E6" s="61"/>
+      <c r="F6" s="61"/>
+      <c r="G6" s="61"/>
       <c r="H6" s="15">
         <v>2035.05</v>
       </c>
@@ -900,14 +2971,14 @@
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="B7" s="50" t="s">
+      <c r="B7" s="60" t="s">
         <v>17</v>
       </c>
-      <c r="C7" s="51"/>
-      <c r="D7" s="51"/>
-      <c r="E7" s="51"/>
-      <c r="F7" s="51"/>
-      <c r="G7" s="51"/>
+      <c r="C7" s="61"/>
+      <c r="D7" s="61"/>
+      <c r="E7" s="61"/>
+      <c r="F7" s="61"/>
+      <c r="G7" s="61"/>
       <c r="H7" s="15">
         <v>7264.16</v>
       </c>
@@ -916,14 +2987,14 @@
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="B8" s="48" t="s">
+      <c r="B8" s="58" t="s">
         <v>18</v>
       </c>
-      <c r="C8" s="49"/>
-      <c r="D8" s="49"/>
-      <c r="E8" s="49"/>
-      <c r="F8" s="49"/>
-      <c r="G8" s="49"/>
+      <c r="C8" s="59"/>
+      <c r="D8" s="59"/>
+      <c r="E8" s="59"/>
+      <c r="F8" s="59"/>
+      <c r="G8" s="59"/>
       <c r="H8" s="17">
         <v>9299.2099999999991</v>
       </c>
@@ -939,53 +3010,53 @@
       <c r="H9" s="1"/>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="B10" s="46" t="s">
+      <c r="B10" s="56" t="s">
         <v>27</v>
       </c>
-      <c r="C10" s="47"/>
-      <c r="D10" s="47"/>
-      <c r="E10" s="47"/>
-      <c r="F10" s="47"/>
-      <c r="G10" s="47"/>
+      <c r="C10" s="57"/>
+      <c r="D10" s="57"/>
+      <c r="E10" s="57"/>
+      <c r="F10" s="57"/>
+      <c r="G10" s="57"/>
       <c r="H10" s="8">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="B11" s="50" t="s">
+      <c r="B11" s="60" t="s">
         <v>28</v>
       </c>
-      <c r="C11" s="51"/>
-      <c r="D11" s="51"/>
-      <c r="E11" s="51"/>
-      <c r="F11" s="51"/>
-      <c r="G11" s="51"/>
+      <c r="C11" s="61"/>
+      <c r="D11" s="61"/>
+      <c r="E11" s="61"/>
+      <c r="F11" s="61"/>
+      <c r="G11" s="61"/>
       <c r="H11" s="10">
         <v>123</v>
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="B12" s="50" t="s">
+      <c r="B12" s="60" t="s">
         <v>22</v>
       </c>
-      <c r="C12" s="51"/>
-      <c r="D12" s="51"/>
-      <c r="E12" s="51"/>
-      <c r="F12" s="51"/>
-      <c r="G12" s="51"/>
+      <c r="C12" s="61"/>
+      <c r="D12" s="61"/>
+      <c r="E12" s="61"/>
+      <c r="F12" s="61"/>
+      <c r="G12" s="61"/>
       <c r="H12" s="10">
         <v>4413034</v>
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="B13" s="48" t="s">
+      <c r="B13" s="58" t="s">
         <v>23</v>
       </c>
-      <c r="C13" s="49"/>
-      <c r="D13" s="49"/>
-      <c r="E13" s="49"/>
-      <c r="F13" s="49"/>
-      <c r="G13" s="49"/>
+      <c r="C13" s="59"/>
+      <c r="D13" s="59"/>
+      <c r="E13" s="59"/>
+      <c r="F13" s="59"/>
+      <c r="G13" s="59"/>
       <c r="H13" s="12">
         <v>9389</v>
       </c>
@@ -998,15 +3069,15 @@
       <c r="H14" s="4"/>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="B15" s="46" t="s">
+      <c r="B15" s="56" t="s">
         <v>30</v>
       </c>
-      <c r="C15" s="47"/>
-      <c r="D15" s="47"/>
-      <c r="E15" s="47"/>
-      <c r="F15" s="47"/>
-      <c r="G15" s="47"/>
-      <c r="H15" s="70">
+      <c r="C15" s="57"/>
+      <c r="D15" s="57"/>
+      <c r="E15" s="57"/>
+      <c r="F15" s="57"/>
+      <c r="G15" s="57"/>
+      <c r="H15" s="46">
         <v>32</v>
       </c>
       <c r="I15" s="7">
@@ -1023,14 +3094,14 @@
       </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="B16" s="50" t="s">
+      <c r="B16" s="60" t="s">
         <v>52</v>
       </c>
-      <c r="C16" s="51"/>
-      <c r="D16" s="51"/>
-      <c r="E16" s="51"/>
-      <c r="F16" s="51"/>
-      <c r="G16" s="51"/>
+      <c r="C16" s="61"/>
+      <c r="D16" s="61"/>
+      <c r="E16" s="61"/>
+      <c r="F16" s="61"/>
+      <c r="G16" s="61"/>
       <c r="H16" s="9">
         <f>$H$13/H15</f>
         <v>293.40625</v>
@@ -1051,21 +3122,21 @@
         <f t="shared" si="0"/>
         <v>18.337890625</v>
       </c>
-      <c r="M16" s="63" t="s">
+      <c r="M16" s="62" t="s">
         <v>53</v>
       </c>
-      <c r="N16" s="42"/>
-      <c r="O16" s="42"/>
+      <c r="N16" s="63"/>
+      <c r="O16" s="63"/>
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="B17" s="50" t="s">
+      <c r="B17" s="60" t="s">
         <v>21</v>
       </c>
-      <c r="C17" s="51"/>
-      <c r="D17" s="51"/>
-      <c r="E17" s="51"/>
-      <c r="F17" s="51"/>
-      <c r="G17" s="51"/>
+      <c r="C17" s="61"/>
+      <c r="D17" s="61"/>
+      <c r="E17" s="61"/>
+      <c r="F17" s="61"/>
+      <c r="G17" s="61"/>
       <c r="H17" s="25">
         <v>12737</v>
       </c>
@@ -1083,15 +3154,15 @@
       </c>
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="B18" s="50" t="s">
+      <c r="B18" s="60" t="s">
         <v>24</v>
       </c>
-      <c r="C18" s="51"/>
-      <c r="D18" s="51"/>
-      <c r="E18" s="51"/>
-      <c r="F18" s="51"/>
-      <c r="G18" s="51"/>
-      <c r="H18" s="72">
+      <c r="C18" s="61"/>
+      <c r="D18" s="61"/>
+      <c r="E18" s="61"/>
+      <c r="F18" s="61"/>
+      <c r="G18" s="61"/>
+      <c r="H18" s="48">
         <v>398.03</v>
       </c>
       <c r="I18" s="24">
@@ -1106,22 +3177,22 @@
       <c r="L18" s="29">
         <v>126.13</v>
       </c>
-      <c r="M18" s="41" t="s">
+      <c r="M18" s="71" t="s">
         <v>36</v>
       </c>
-      <c r="N18" s="42"/>
-      <c r="O18" s="42"/>
-      <c r="P18" s="42"/>
+      <c r="N18" s="63"/>
+      <c r="O18" s="63"/>
+      <c r="P18" s="63"/>
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="B19" s="50" t="s">
+      <c r="B19" s="60" t="s">
         <v>25</v>
       </c>
-      <c r="C19" s="51"/>
-      <c r="D19" s="51"/>
-      <c r="E19" s="51"/>
-      <c r="F19" s="51"/>
-      <c r="G19" s="51"/>
+      <c r="C19" s="61"/>
+      <c r="D19" s="61"/>
+      <c r="E19" s="61"/>
+      <c r="F19" s="61"/>
+      <c r="G19" s="61"/>
       <c r="H19" s="25">
         <v>3289</v>
       </c>
@@ -1139,15 +3210,15 @@
       </c>
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="B20" s="48" t="s">
+      <c r="B20" s="58" t="s">
         <v>26</v>
       </c>
-      <c r="C20" s="49"/>
-      <c r="D20" s="49"/>
-      <c r="E20" s="49"/>
-      <c r="F20" s="49"/>
-      <c r="G20" s="49"/>
-      <c r="H20" s="71">
+      <c r="C20" s="59"/>
+      <c r="D20" s="59"/>
+      <c r="E20" s="59"/>
+      <c r="F20" s="59"/>
+      <c r="G20" s="59"/>
+      <c r="H20" s="47">
         <v>3</v>
       </c>
       <c r="I20" s="11">
@@ -1176,78 +3247,78 @@
       <c r="K21" s="25"/>
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="B22" s="54" t="s">
+      <c r="B22" s="66" t="s">
         <v>42</v>
       </c>
-      <c r="C22" s="55"/>
+      <c r="C22" s="52"/>
       <c r="D22" s="13">
         <v>0</v>
       </c>
-      <c r="E22" s="44" t="s">
+      <c r="E22" s="54" t="s">
         <v>43</v>
       </c>
-      <c r="F22" s="44"/>
-      <c r="G22" s="44"/>
-      <c r="H22" s="44"/>
-      <c r="I22" s="44"/>
-      <c r="J22" s="44"/>
-      <c r="K22" s="44"/>
-      <c r="L22" s="45"/>
+      <c r="F22" s="54"/>
+      <c r="G22" s="54"/>
+      <c r="H22" s="54"/>
+      <c r="I22" s="54"/>
+      <c r="J22" s="54"/>
+      <c r="K22" s="54"/>
+      <c r="L22" s="55"/>
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="B23" s="56"/>
-      <c r="C23" s="57"/>
+      <c r="B23" s="67"/>
+      <c r="C23" s="50"/>
       <c r="D23" s="21">
         <v>1</v>
       </c>
-      <c r="E23" s="60" t="s">
+      <c r="E23" s="69" t="s">
         <v>46</v>
       </c>
-      <c r="F23" s="60"/>
-      <c r="G23" s="60"/>
-      <c r="H23" s="60"/>
-      <c r="I23" s="60"/>
-      <c r="J23" s="60"/>
-      <c r="K23" s="60"/>
-      <c r="L23" s="61"/>
+      <c r="F23" s="69"/>
+      <c r="G23" s="69"/>
+      <c r="H23" s="69"/>
+      <c r="I23" s="69"/>
+      <c r="J23" s="69"/>
+      <c r="K23" s="69"/>
+      <c r="L23" s="70"/>
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="B24" s="56"/>
-      <c r="C24" s="57"/>
+      <c r="B24" s="67"/>
+      <c r="C24" s="50"/>
       <c r="D24" s="21">
         <v>2</v>
       </c>
-      <c r="E24" s="60" t="s">
+      <c r="E24" s="69" t="s">
         <v>47</v>
       </c>
-      <c r="F24" s="60"/>
-      <c r="G24" s="60"/>
-      <c r="H24" s="60"/>
-      <c r="I24" s="60"/>
-      <c r="J24" s="60"/>
-      <c r="K24" s="60"/>
-      <c r="L24" s="61"/>
+      <c r="F24" s="69"/>
+      <c r="G24" s="69"/>
+      <c r="H24" s="69"/>
+      <c r="I24" s="69"/>
+      <c r="J24" s="69"/>
+      <c r="K24" s="69"/>
+      <c r="L24" s="70"/>
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="B25" s="56"/>
-      <c r="C25" s="57"/>
+      <c r="B25" s="67"/>
+      <c r="C25" s="50"/>
       <c r="D25" s="21">
         <v>3</v>
       </c>
-      <c r="E25" s="60" t="s">
+      <c r="E25" s="69" t="s">
         <v>48</v>
       </c>
-      <c r="F25" s="60"/>
-      <c r="G25" s="60"/>
-      <c r="H25" s="60"/>
-      <c r="I25" s="60"/>
-      <c r="J25" s="60"/>
-      <c r="K25" s="60"/>
-      <c r="L25" s="61"/>
+      <c r="F25" s="69"/>
+      <c r="G25" s="69"/>
+      <c r="H25" s="69"/>
+      <c r="I25" s="69"/>
+      <c r="J25" s="69"/>
+      <c r="K25" s="69"/>
+      <c r="L25" s="70"/>
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="B26" s="58"/>
-      <c r="C26" s="59"/>
+      <c r="B26" s="68"/>
+      <c r="C26" s="51"/>
       <c r="D26" s="22">
         <v>4</v>
       </c>
@@ -1263,57 +3334,57 @@
       <c r="L26" s="38"/>
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="B27" s="54" t="s">
+      <c r="B27" s="66" t="s">
         <v>50</v>
       </c>
-      <c r="C27" s="55"/>
+      <c r="C27" s="52"/>
       <c r="D27" s="13">
         <v>0</v>
       </c>
-      <c r="E27" s="44" t="s">
+      <c r="E27" s="54" t="s">
         <v>44</v>
       </c>
-      <c r="F27" s="44"/>
-      <c r="G27" s="44"/>
-      <c r="H27" s="44"/>
-      <c r="I27" s="44"/>
-      <c r="J27" s="44"/>
-      <c r="K27" s="44"/>
-      <c r="L27" s="45"/>
+      <c r="F27" s="54"/>
+      <c r="G27" s="54"/>
+      <c r="H27" s="54"/>
+      <c r="I27" s="54"/>
+      <c r="J27" s="54"/>
+      <c r="K27" s="54"/>
+      <c r="L27" s="55"/>
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="B28" s="56"/>
-      <c r="C28" s="57"/>
+      <c r="B28" s="67"/>
+      <c r="C28" s="50"/>
       <c r="D28" s="21">
         <v>1</v>
       </c>
-      <c r="E28" s="60" t="s">
+      <c r="E28" s="69" t="s">
         <v>45</v>
       </c>
-      <c r="F28" s="60"/>
-      <c r="G28" s="60"/>
-      <c r="H28" s="60"/>
-      <c r="I28" s="60"/>
-      <c r="J28" s="60"/>
-      <c r="K28" s="60"/>
-      <c r="L28" s="61"/>
+      <c r="F28" s="69"/>
+      <c r="G28" s="69"/>
+      <c r="H28" s="69"/>
+      <c r="I28" s="69"/>
+      <c r="J28" s="69"/>
+      <c r="K28" s="69"/>
+      <c r="L28" s="70"/>
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="B29" s="58"/>
-      <c r="C29" s="59"/>
+      <c r="B29" s="68"/>
+      <c r="C29" s="51"/>
       <c r="D29" s="22">
         <v>2</v>
       </c>
-      <c r="E29" s="52" t="s">
+      <c r="E29" s="64" t="s">
         <v>51</v>
       </c>
-      <c r="F29" s="52"/>
-      <c r="G29" s="52"/>
-      <c r="H29" s="52"/>
-      <c r="I29" s="52"/>
-      <c r="J29" s="52"/>
-      <c r="K29" s="52"/>
-      <c r="L29" s="53"/>
+      <c r="F29" s="64"/>
+      <c r="G29" s="64"/>
+      <c r="H29" s="64"/>
+      <c r="I29" s="64"/>
+      <c r="J29" s="64"/>
+      <c r="K29" s="64"/>
+      <c r="L29" s="65"/>
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B30" s="19"/>
@@ -1359,10 +3430,10 @@
       <c r="J31" s="2"/>
     </row>
     <row r="32" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A32" s="40">
+      <c r="A32" s="49">
         <v>32</v>
       </c>
-      <c r="B32" s="57">
+      <c r="B32" s="50">
         <v>0</v>
       </c>
       <c r="C32" s="21">
@@ -1381,14 +3452,14 @@
         <v>0</v>
       </c>
       <c r="H32" s="15"/>
-      <c r="I32" s="64">
+      <c r="I32" s="40">
         <v>18.68</v>
       </c>
       <c r="J32" s="2"/>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A33" s="40"/>
-      <c r="B33" s="57"/>
+      <c r="A33" s="49"/>
+      <c r="B33" s="50"/>
       <c r="C33" s="21">
         <v>1</v>
       </c>
@@ -1407,14 +3478,14 @@
       <c r="H33" s="15">
         <v>1.05</v>
       </c>
-      <c r="I33" s="64">
+      <c r="I33" s="40">
         <v>16.14</v>
       </c>
       <c r="J33" s="2"/>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A34" s="40"/>
-      <c r="B34" s="59"/>
+      <c r="A34" s="49"/>
+      <c r="B34" s="51"/>
       <c r="C34" s="22">
         <v>2</v>
       </c>
@@ -1433,40 +3504,40 @@
       <c r="H34" s="17">
         <v>1.03</v>
       </c>
-      <c r="I34" s="65">
+      <c r="I34" s="41">
         <v>13.92</v>
       </c>
       <c r="J34" s="2"/>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A35" s="40"/>
-      <c r="B35" s="55">
+      <c r="A35" s="49"/>
+      <c r="B35" s="52">
         <v>2</v>
       </c>
       <c r="C35" s="13">
         <v>0</v>
       </c>
-      <c r="D35" s="66">
+      <c r="D35" s="42">
         <v>0.03</v>
       </c>
-      <c r="E35" s="66">
+      <c r="E35" s="42">
         <v>6.51</v>
       </c>
-      <c r="F35" s="66">
+      <c r="F35" s="42">
         <v>7.4</v>
       </c>
-      <c r="G35" s="66">
-        <v>0</v>
-      </c>
-      <c r="H35" s="66"/>
-      <c r="I35" s="67">
+      <c r="G35" s="42">
+        <v>0</v>
+      </c>
+      <c r="H35" s="42"/>
+      <c r="I35" s="43">
         <v>13.94</v>
       </c>
       <c r="J35" s="2"/>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A36" s="40"/>
-      <c r="B36" s="57"/>
+      <c r="A36" s="49"/>
+      <c r="B36" s="50"/>
       <c r="C36" s="21">
         <v>1</v>
       </c>
@@ -1485,14 +3556,14 @@
       <c r="H36" s="15">
         <v>1.05</v>
       </c>
-      <c r="I36" s="64">
+      <c r="I36" s="40">
         <v>12.67</v>
       </c>
       <c r="J36" s="2"/>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A37" s="40"/>
-      <c r="B37" s="59"/>
+      <c r="A37" s="49"/>
+      <c r="B37" s="51"/>
       <c r="C37" s="22">
         <v>2</v>
       </c>
@@ -1511,42 +3582,42 @@
       <c r="H37" s="17">
         <v>1.03</v>
       </c>
-      <c r="I37" s="65">
+      <c r="I37" s="41">
         <v>11.95</v>
       </c>
       <c r="J37" s="2"/>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A38" s="40"/>
-      <c r="B38" s="55">
+      <c r="A38" s="49"/>
+      <c r="B38" s="52">
         <v>3</v>
       </c>
       <c r="C38" s="13">
         <v>0</v>
       </c>
-      <c r="D38" s="66">
+      <c r="D38" s="42">
         <v>0.02</v>
       </c>
-      <c r="E38" s="66">
+      <c r="E38" s="42">
         <v>1.06</v>
       </c>
-      <c r="F38" s="66">
+      <c r="F38" s="42">
         <v>8.4499999999999993</v>
       </c>
-      <c r="G38" s="66">
-        <v>0</v>
-      </c>
-      <c r="H38" s="66">
+      <c r="G38" s="42">
+        <v>0</v>
+      </c>
+      <c r="H38" s="42">
         <v>0.32</v>
       </c>
-      <c r="I38" s="67">
+      <c r="I38" s="43">
         <v>9.5299999999999994</v>
       </c>
       <c r="J38" s="2"/>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A39" s="40"/>
-      <c r="B39" s="57"/>
+      <c r="A39" s="49"/>
+      <c r="B39" s="50"/>
       <c r="C39" s="21">
         <v>1</v>
       </c>
@@ -1565,68 +3636,68 @@
       <c r="H39" s="15">
         <v>1.31</v>
       </c>
-      <c r="I39" s="64">
+      <c r="I39" s="40">
         <v>7.02</v>
       </c>
       <c r="J39" s="2"/>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A40" s="40"/>
-      <c r="B40" s="59"/>
-      <c r="C40" s="68">
+      <c r="A40" s="49"/>
+      <c r="B40" s="51"/>
+      <c r="C40" s="44">
         <v>2</v>
       </c>
-      <c r="D40" s="69">
+      <c r="D40" s="45">
         <v>0.05</v>
       </c>
-      <c r="E40" s="69">
+      <c r="E40" s="45">
         <v>0.97</v>
       </c>
-      <c r="F40" s="69">
+      <c r="F40" s="45">
         <v>4.63</v>
       </c>
-      <c r="G40" s="69">
-        <v>0</v>
-      </c>
-      <c r="H40" s="69">
+      <c r="G40" s="45">
+        <v>0</v>
+      </c>
+      <c r="H40" s="45">
         <v>1.29</v>
       </c>
-      <c r="I40" s="69">
+      <c r="I40" s="45">
         <v>5.65</v>
       </c>
       <c r="J40" s="2"/>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A41" s="40"/>
-      <c r="B41" s="55">
+      <c r="A41" s="49"/>
+      <c r="B41" s="52">
         <v>4</v>
       </c>
       <c r="C41" s="13">
         <v>0</v>
       </c>
-      <c r="D41" s="66">
+      <c r="D41" s="42">
         <v>0.03</v>
       </c>
-      <c r="E41" s="66">
+      <c r="E41" s="42">
         <v>6.16</v>
       </c>
-      <c r="F41" s="66">
+      <c r="F41" s="42">
         <v>10.65</v>
       </c>
-      <c r="G41" s="66">
-        <v>0</v>
-      </c>
-      <c r="H41" s="66">
+      <c r="G41" s="42">
+        <v>0</v>
+      </c>
+      <c r="H41" s="42">
         <v>3.36</v>
       </c>
-      <c r="I41" s="67">
+      <c r="I41" s="43">
         <v>16.84</v>
       </c>
       <c r="J41" s="2"/>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A42" s="40"/>
-      <c r="B42" s="57"/>
+      <c r="A42" s="49"/>
+      <c r="B42" s="50"/>
       <c r="C42" s="21">
         <v>1</v>
       </c>
@@ -1645,14 +3716,14 @@
       <c r="H42" s="15">
         <v>4.21</v>
       </c>
-      <c r="I42" s="64">
+      <c r="I42" s="40">
         <v>13.28</v>
       </c>
       <c r="J42" s="2"/>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A43" s="40"/>
-      <c r="B43" s="59"/>
+      <c r="A43" s="49"/>
+      <c r="B43" s="51"/>
       <c r="C43" s="22">
         <v>2</v>
       </c>
@@ -1671,7 +3742,7 @@
       <c r="H43" s="17">
         <v>4.25</v>
       </c>
-      <c r="I43" s="65">
+      <c r="I43" s="41">
         <v>12.09</v>
       </c>
       <c r="J43" s="2"/>
@@ -1689,10 +3760,10 @@
       <c r="J44" s="2"/>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A45" s="40">
+      <c r="A45" s="49">
         <v>64</v>
       </c>
-      <c r="B45" s="57">
+      <c r="B45" s="50">
         <v>0</v>
       </c>
       <c r="C45" s="21">
@@ -1711,13 +3782,13 @@
         <v>0</v>
       </c>
       <c r="H45" s="15"/>
-      <c r="I45" s="64">
+      <c r="I45" s="40">
         <v>16.559999999999999</v>
       </c>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A46" s="40"/>
-      <c r="B46" s="57"/>
+      <c r="A46" s="49"/>
+      <c r="B46" s="50"/>
       <c r="C46" s="21">
         <v>1</v>
       </c>
@@ -1736,13 +3807,13 @@
       <c r="H46" s="15">
         <v>0.78</v>
       </c>
-      <c r="I46" s="64">
+      <c r="I46" s="40">
         <v>16.22</v>
       </c>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A47" s="40"/>
-      <c r="B47" s="59"/>
+      <c r="A47" s="49"/>
+      <c r="B47" s="51"/>
       <c r="C47" s="22">
         <v>2</v>
       </c>
@@ -1761,38 +3832,38 @@
       <c r="H47" s="17">
         <v>0.76</v>
       </c>
-      <c r="I47" s="65">
+      <c r="I47" s="41">
         <v>14.5</v>
       </c>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A48" s="40"/>
-      <c r="B48" s="55">
+      <c r="A48" s="49"/>
+      <c r="B48" s="52">
         <v>2</v>
       </c>
       <c r="C48" s="13">
         <v>0</v>
       </c>
-      <c r="D48" s="66">
+      <c r="D48" s="42">
         <v>0.04</v>
       </c>
-      <c r="E48" s="66">
+      <c r="E48" s="42">
         <v>7.85</v>
       </c>
-      <c r="F48" s="66">
+      <c r="F48" s="42">
         <v>7.14</v>
       </c>
-      <c r="G48" s="66">
-        <v>0</v>
-      </c>
-      <c r="H48" s="66"/>
-      <c r="I48" s="67">
+      <c r="G48" s="42">
+        <v>0</v>
+      </c>
+      <c r="H48" s="42"/>
+      <c r="I48" s="43">
         <v>15.03</v>
       </c>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A49" s="40"/>
-      <c r="B49" s="57"/>
+      <c r="A49" s="49"/>
+      <c r="B49" s="50"/>
       <c r="C49" s="21">
         <v>1</v>
       </c>
@@ -1811,13 +3882,13 @@
       <c r="H49" s="15">
         <v>0.77</v>
       </c>
-      <c r="I49" s="64">
+      <c r="I49" s="40">
         <v>14.34</v>
       </c>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A50" s="40"/>
-      <c r="B50" s="59"/>
+      <c r="A50" s="49"/>
+      <c r="B50" s="51"/>
       <c r="C50" s="22">
         <v>2</v>
       </c>
@@ -1836,40 +3907,40 @@
       <c r="H50" s="17">
         <v>0.76</v>
       </c>
-      <c r="I50" s="65">
+      <c r="I50" s="41">
         <v>11.85</v>
       </c>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A51" s="40"/>
-      <c r="B51" s="55">
+      <c r="A51" s="49"/>
+      <c r="B51" s="52">
         <v>3</v>
       </c>
       <c r="C51" s="13">
         <v>0</v>
       </c>
-      <c r="D51" s="66">
+      <c r="D51" s="42">
         <v>0.02</v>
       </c>
-      <c r="E51" s="66">
+      <c r="E51" s="42">
         <v>1.1499999999999999</v>
       </c>
-      <c r="F51" s="66">
+      <c r="F51" s="42">
         <v>6.7</v>
       </c>
-      <c r="G51" s="66">
-        <v>0</v>
-      </c>
-      <c r="H51" s="66">
+      <c r="G51" s="42">
+        <v>0</v>
+      </c>
+      <c r="H51" s="42">
         <v>0.32</v>
       </c>
-      <c r="I51" s="67">
+      <c r="I51" s="43">
         <v>7.88</v>
       </c>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A52" s="40"/>
-      <c r="B52" s="57"/>
+      <c r="A52" s="49"/>
+      <c r="B52" s="50"/>
       <c r="C52" s="21">
         <v>1</v>
       </c>
@@ -1888,65 +3959,65 @@
       <c r="H52" s="15">
         <v>1.08</v>
       </c>
-      <c r="I52" s="64">
+      <c r="I52" s="40">
         <v>7.2</v>
       </c>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A53" s="40"/>
-      <c r="B53" s="59"/>
-      <c r="C53" s="68">
+      <c r="A53" s="49"/>
+      <c r="B53" s="51"/>
+      <c r="C53" s="44">
         <v>2</v>
       </c>
-      <c r="D53" s="69">
+      <c r="D53" s="45">
         <v>0.06</v>
       </c>
-      <c r="E53" s="69">
+      <c r="E53" s="45">
         <v>1.01</v>
       </c>
-      <c r="F53" s="69">
+      <c r="F53" s="45">
         <v>5.15</v>
       </c>
-      <c r="G53" s="69">
-        <v>0</v>
-      </c>
-      <c r="H53" s="69">
+      <c r="G53" s="45">
+        <v>0</v>
+      </c>
+      <c r="H53" s="45">
         <v>1.07</v>
       </c>
-      <c r="I53" s="69">
+      <c r="I53" s="45">
         <v>6.22</v>
       </c>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A54" s="40"/>
-      <c r="B54" s="55">
+      <c r="A54" s="49"/>
+      <c r="B54" s="52">
         <v>4</v>
       </c>
       <c r="C54" s="13">
         <v>0</v>
       </c>
-      <c r="D54" s="66">
+      <c r="D54" s="42">
         <v>0.03</v>
       </c>
-      <c r="E54" s="66">
+      <c r="E54" s="42">
         <v>6.03</v>
       </c>
-      <c r="F54" s="66">
+      <c r="F54" s="42">
         <v>7.07</v>
       </c>
-      <c r="G54" s="66">
-        <v>0</v>
-      </c>
-      <c r="H54" s="66">
+      <c r="G54" s="42">
+        <v>0</v>
+      </c>
+      <c r="H54" s="42">
         <v>3.23</v>
       </c>
-      <c r="I54" s="67">
+      <c r="I54" s="43">
         <v>13.12</v>
       </c>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A55" s="40"/>
-      <c r="B55" s="57"/>
+      <c r="A55" s="49"/>
+      <c r="B55" s="50"/>
       <c r="C55" s="21">
         <v>1</v>
       </c>
@@ -1965,13 +4036,13 @@
       <c r="H55" s="15">
         <v>3.75</v>
       </c>
-      <c r="I55" s="64">
+      <c r="I55" s="40">
         <v>12.45</v>
       </c>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A56" s="40"/>
-      <c r="B56" s="59"/>
+      <c r="A56" s="49"/>
+      <c r="B56" s="51"/>
       <c r="C56" s="22">
         <v>2</v>
       </c>
@@ -1990,7 +4061,7 @@
       <c r="H56" s="17">
         <v>3.75</v>
       </c>
-      <c r="I56" s="65">
+      <c r="I56" s="41">
         <v>11.38</v>
       </c>
     </row>
@@ -2003,10 +4074,10 @@
       <c r="I57" s="23"/>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A58" s="40">
+      <c r="A58" s="49">
         <v>128</v>
       </c>
-      <c r="B58" s="57">
+      <c r="B58" s="50">
         <v>0</v>
       </c>
       <c r="C58" s="21">
@@ -2025,13 +4096,13 @@
         <v>0</v>
       </c>
       <c r="H58" s="15"/>
-      <c r="I58" s="64">
+      <c r="I58" s="40">
         <v>16.52</v>
       </c>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A59" s="40"/>
-      <c r="B59" s="57"/>
+      <c r="A59" s="49"/>
+      <c r="B59" s="50"/>
       <c r="C59" s="21">
         <v>1</v>
       </c>
@@ -2050,13 +4121,13 @@
       <c r="H59" s="15">
         <v>0.55000000000000004</v>
       </c>
-      <c r="I59" s="64">
+      <c r="I59" s="40">
         <v>16.87</v>
       </c>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A60" s="40"/>
-      <c r="B60" s="59"/>
+      <c r="A60" s="49"/>
+      <c r="B60" s="51"/>
       <c r="C60" s="22">
         <v>2</v>
       </c>
@@ -2075,38 +4146,38 @@
       <c r="H60" s="17">
         <v>0.54</v>
       </c>
-      <c r="I60" s="65">
+      <c r="I60" s="41">
         <v>15.29</v>
       </c>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A61" s="40"/>
-      <c r="B61" s="55">
+      <c r="A61" s="49"/>
+      <c r="B61" s="52">
         <v>2</v>
       </c>
       <c r="C61" s="13">
         <v>0</v>
       </c>
-      <c r="D61" s="66">
+      <c r="D61" s="42">
         <v>0.04</v>
       </c>
-      <c r="E61" s="66">
+      <c r="E61" s="42">
         <v>7.19</v>
       </c>
-      <c r="F61" s="66">
+      <c r="F61" s="42">
         <v>6.44</v>
       </c>
-      <c r="G61" s="66">
-        <v>0</v>
-      </c>
-      <c r="H61" s="66"/>
-      <c r="I61" s="67">
+      <c r="G61" s="42">
+        <v>0</v>
+      </c>
+      <c r="H61" s="42"/>
+      <c r="I61" s="43">
         <v>13.67</v>
       </c>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A62" s="40"/>
-      <c r="B62" s="57"/>
+      <c r="A62" s="49"/>
+      <c r="B62" s="50"/>
       <c r="C62" s="21">
         <v>1</v>
       </c>
@@ -2125,13 +4196,13 @@
       <c r="H62" s="15">
         <v>0.55000000000000004</v>
       </c>
-      <c r="I62" s="64">
+      <c r="I62" s="40">
         <v>13.71</v>
       </c>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A63" s="40"/>
-      <c r="B63" s="59"/>
+      <c r="A63" s="49"/>
+      <c r="B63" s="51"/>
       <c r="C63" s="22">
         <v>2</v>
       </c>
@@ -2150,40 +4221,40 @@
       <c r="H63" s="17">
         <v>0.54</v>
       </c>
-      <c r="I63" s="65">
+      <c r="I63" s="41">
         <v>13.02</v>
       </c>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A64" s="40"/>
-      <c r="B64" s="55">
+      <c r="A64" s="49"/>
+      <c r="B64" s="52">
         <v>3</v>
       </c>
       <c r="C64" s="13">
         <v>0</v>
       </c>
-      <c r="D64" s="66">
+      <c r="D64" s="42">
         <v>0.08</v>
       </c>
-      <c r="E64" s="66">
+      <c r="E64" s="42">
         <v>1.1100000000000001</v>
       </c>
-      <c r="F64" s="66">
+      <c r="F64" s="42">
         <v>6.53</v>
       </c>
-      <c r="G64" s="66">
-        <v>0</v>
-      </c>
-      <c r="H64" s="66">
+      <c r="G64" s="42">
+        <v>0</v>
+      </c>
+      <c r="H64" s="42">
         <v>0.33</v>
       </c>
-      <c r="I64" s="67">
+      <c r="I64" s="43">
         <v>7.72</v>
       </c>
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A65" s="40"/>
-      <c r="B65" s="57"/>
+      <c r="A65" s="49"/>
+      <c r="B65" s="50"/>
       <c r="C65" s="21">
         <v>1</v>
       </c>
@@ -2202,65 +4273,65 @@
       <c r="H65" s="15">
         <v>0.85</v>
       </c>
-      <c r="I65" s="64">
+      <c r="I65" s="40">
         <v>7.17</v>
       </c>
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A66" s="40"/>
-      <c r="B66" s="59"/>
-      <c r="C66" s="68">
+      <c r="A66" s="49"/>
+      <c r="B66" s="51"/>
+      <c r="C66" s="44">
         <v>2</v>
       </c>
-      <c r="D66" s="69">
+      <c r="D66" s="45">
         <v>0.04</v>
       </c>
-      <c r="E66" s="69">
+      <c r="E66" s="45">
         <v>1.04</v>
       </c>
-      <c r="F66" s="69">
+      <c r="F66" s="45">
         <v>4.8600000000000003</v>
       </c>
-      <c r="G66" s="69">
-        <v>0</v>
-      </c>
-      <c r="H66" s="69">
+      <c r="G66" s="45">
+        <v>0</v>
+      </c>
+      <c r="H66" s="45">
         <v>0.84</v>
       </c>
-      <c r="I66" s="69">
+      <c r="I66" s="45">
         <v>5.94</v>
       </c>
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A67" s="40"/>
-      <c r="B67" s="55">
+      <c r="A67" s="49"/>
+      <c r="B67" s="52">
         <v>4</v>
       </c>
       <c r="C67" s="13">
         <v>0</v>
       </c>
-      <c r="D67" s="66">
+      <c r="D67" s="42">
         <v>0.04</v>
       </c>
-      <c r="E67" s="66">
+      <c r="E67" s="42">
         <v>6.19</v>
       </c>
-      <c r="F67" s="66">
+      <c r="F67" s="42">
         <v>6.82</v>
       </c>
-      <c r="G67" s="66">
-        <v>0</v>
-      </c>
-      <c r="H67" s="66">
+      <c r="G67" s="42">
+        <v>0</v>
+      </c>
+      <c r="H67" s="42">
         <v>3.51</v>
       </c>
-      <c r="I67" s="67">
+      <c r="I67" s="43">
         <v>13.05</v>
       </c>
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A68" s="40"/>
-      <c r="B68" s="57"/>
+      <c r="A68" s="49"/>
+      <c r="B68" s="50"/>
       <c r="C68" s="21">
         <v>1</v>
       </c>
@@ -2279,13 +4350,13 @@
       <c r="H68" s="15">
         <v>3.8</v>
       </c>
-      <c r="I68" s="64">
+      <c r="I68" s="40">
         <v>12.75</v>
       </c>
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A69" s="40"/>
-      <c r="B69" s="59"/>
+      <c r="A69" s="49"/>
+      <c r="B69" s="51"/>
       <c r="C69" s="22">
         <v>2</v>
       </c>
@@ -2304,7 +4375,7 @@
       <c r="H69" s="17">
         <v>3.81</v>
       </c>
-      <c r="I69" s="65">
+      <c r="I69" s="41">
         <v>11.85</v>
       </c>
     </row>
@@ -2317,10 +4388,10 @@
       <c r="I70" s="23"/>
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A71" s="40">
+      <c r="A71" s="49">
         <v>256</v>
       </c>
-      <c r="B71" s="57">
+      <c r="B71" s="50">
         <v>0</v>
       </c>
       <c r="C71" s="21">
@@ -2339,13 +4410,13 @@
         <v>0</v>
       </c>
       <c r="H71" s="15"/>
-      <c r="I71" s="64">
+      <c r="I71" s="40">
         <v>18.47</v>
       </c>
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A72" s="40"/>
-      <c r="B72" s="57"/>
+      <c r="A72" s="49"/>
+      <c r="B72" s="50"/>
       <c r="C72" s="21">
         <v>1</v>
       </c>
@@ -2364,13 +4435,13 @@
       <c r="H72" s="15">
         <v>0.52</v>
       </c>
-      <c r="I72" s="64">
+      <c r="I72" s="40">
         <v>16.850000000000001</v>
       </c>
     </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A73" s="40"/>
-      <c r="B73" s="59"/>
+      <c r="A73" s="49"/>
+      <c r="B73" s="51"/>
       <c r="C73" s="22">
         <v>2</v>
       </c>
@@ -2389,38 +4460,38 @@
       <c r="H73" s="17">
         <v>0.5</v>
       </c>
-      <c r="I73" s="65">
+      <c r="I73" s="41">
         <v>15.89</v>
       </c>
     </row>
     <row r="74" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A74" s="40"/>
-      <c r="B74" s="55">
+      <c r="A74" s="49"/>
+      <c r="B74" s="52">
         <v>2</v>
       </c>
       <c r="C74" s="13">
         <v>0</v>
       </c>
-      <c r="D74" s="66">
+      <c r="D74" s="42">
         <v>0.03</v>
       </c>
-      <c r="E74" s="66">
+      <c r="E74" s="42">
         <v>6.66</v>
       </c>
-      <c r="F74" s="66">
+      <c r="F74" s="42">
         <v>5.97</v>
       </c>
-      <c r="G74" s="66">
-        <v>0</v>
-      </c>
-      <c r="H74" s="66"/>
-      <c r="I74" s="67">
+      <c r="G74" s="42">
+        <v>0</v>
+      </c>
+      <c r="H74" s="42"/>
+      <c r="I74" s="43">
         <v>12.66</v>
       </c>
     </row>
     <row r="75" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A75" s="40"/>
-      <c r="B75" s="57"/>
+      <c r="A75" s="49"/>
+      <c r="B75" s="50"/>
       <c r="C75" s="21">
         <v>1</v>
       </c>
@@ -2439,13 +4510,13 @@
       <c r="H75" s="15">
         <v>0.52</v>
       </c>
-      <c r="I75" s="64">
+      <c r="I75" s="40">
         <v>14.49</v>
       </c>
     </row>
     <row r="76" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A76" s="40"/>
-      <c r="B76" s="59"/>
+      <c r="A76" s="49"/>
+      <c r="B76" s="51"/>
       <c r="C76" s="22">
         <v>2</v>
       </c>
@@ -2464,40 +4535,40 @@
       <c r="H76" s="17">
         <v>0.5</v>
       </c>
-      <c r="I76" s="65">
+      <c r="I76" s="41">
         <v>12.3</v>
       </c>
     </row>
     <row r="77" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A77" s="40"/>
-      <c r="B77" s="55">
+      <c r="A77" s="49"/>
+      <c r="B77" s="52">
         <v>3</v>
       </c>
       <c r="C77" s="13">
         <v>0</v>
       </c>
-      <c r="D77" s="66">
+      <c r="D77" s="42">
         <v>0.03</v>
       </c>
-      <c r="E77" s="66">
+      <c r="E77" s="42">
         <v>1.21</v>
       </c>
-      <c r="F77" s="66">
+      <c r="F77" s="42">
         <v>7.14</v>
       </c>
-      <c r="G77" s="66">
-        <v>0</v>
-      </c>
-      <c r="H77" s="66">
+      <c r="G77" s="42">
+        <v>0</v>
+      </c>
+      <c r="H77" s="42">
         <v>0.33</v>
       </c>
-      <c r="I77" s="67">
+      <c r="I77" s="43">
         <v>8.3800000000000008</v>
       </c>
     </row>
     <row r="78" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A78" s="40"/>
-      <c r="B78" s="57"/>
+      <c r="A78" s="49"/>
+      <c r="B78" s="50"/>
       <c r="C78" s="21">
         <v>1</v>
       </c>
@@ -2516,65 +4587,65 @@
       <c r="H78" s="15">
         <v>0.76</v>
       </c>
-      <c r="I78" s="64">
+      <c r="I78" s="40">
         <v>8.2100000000000009</v>
       </c>
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A79" s="40"/>
-      <c r="B79" s="59"/>
-      <c r="C79" s="68">
+      <c r="A79" s="49"/>
+      <c r="B79" s="51"/>
+      <c r="C79" s="44">
         <v>2</v>
       </c>
-      <c r="D79" s="69">
+      <c r="D79" s="45">
         <v>0.04</v>
       </c>
-      <c r="E79" s="69">
+      <c r="E79" s="45">
         <v>0.94</v>
       </c>
-      <c r="F79" s="69">
+      <c r="F79" s="45">
         <v>5.39</v>
       </c>
-      <c r="G79" s="69">
-        <v>0</v>
-      </c>
-      <c r="H79" s="69">
+      <c r="G79" s="45">
+        <v>0</v>
+      </c>
+      <c r="H79" s="45">
         <v>0.74</v>
       </c>
-      <c r="I79" s="69">
+      <c r="I79" s="45">
         <v>6.37</v>
       </c>
     </row>
     <row r="80" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A80" s="40"/>
-      <c r="B80" s="55">
+      <c r="A80" s="49"/>
+      <c r="B80" s="52">
         <v>4</v>
       </c>
       <c r="C80" s="13">
         <v>0</v>
       </c>
-      <c r="D80" s="66">
+      <c r="D80" s="42">
         <v>0.03</v>
       </c>
-      <c r="E80" s="66">
+      <c r="E80" s="42">
         <v>6.34</v>
       </c>
-      <c r="F80" s="66">
+      <c r="F80" s="42">
         <v>5.98</v>
       </c>
-      <c r="G80" s="66">
-        <v>0</v>
-      </c>
-      <c r="H80" s="66">
+      <c r="G80" s="42">
+        <v>0</v>
+      </c>
+      <c r="H80" s="42">
         <v>3.28</v>
       </c>
-      <c r="I80" s="67">
+      <c r="I80" s="43">
         <v>12.35</v>
       </c>
     </row>
     <row r="81" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A81" s="40"/>
-      <c r="B81" s="57"/>
+      <c r="A81" s="49"/>
+      <c r="B81" s="50"/>
       <c r="C81" s="21">
         <v>1</v>
       </c>
@@ -2593,13 +4664,13 @@
       <c r="H81" s="15">
         <v>3.56</v>
       </c>
-      <c r="I81" s="64">
+      <c r="I81" s="40">
         <v>12.96</v>
       </c>
     </row>
     <row r="82" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A82" s="40"/>
-      <c r="B82" s="59"/>
+      <c r="A82" s="49"/>
+      <c r="B82" s="51"/>
       <c r="C82" s="22">
         <v>2</v>
       </c>
@@ -2618,7 +4689,7 @@
       <c r="H82" s="17">
         <v>3.54</v>
       </c>
-      <c r="I82" s="65">
+      <c r="I82" s="41">
         <v>13.96</v>
       </c>
     </row>
@@ -2631,10 +4702,10 @@
       <c r="I83" s="5"/>
     </row>
     <row r="84" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A84" s="40">
+      <c r="A84" s="49">
         <v>512</v>
       </c>
-      <c r="B84" s="57">
+      <c r="B84" s="50">
         <v>0</v>
       </c>
       <c r="C84" s="21">
@@ -2653,13 +4724,13 @@
         <v>0</v>
       </c>
       <c r="H84" s="15"/>
-      <c r="I84" s="64">
+      <c r="I84" s="40">
         <v>17.41</v>
       </c>
     </row>
     <row r="85" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A85" s="40"/>
-      <c r="B85" s="57"/>
+      <c r="A85" s="49"/>
+      <c r="B85" s="50"/>
       <c r="C85" s="21">
         <v>1</v>
       </c>
@@ -2678,13 +4749,13 @@
       <c r="H85" s="15">
         <v>0.51</v>
       </c>
-      <c r="I85" s="64">
+      <c r="I85" s="40">
         <v>20.03</v>
       </c>
     </row>
     <row r="86" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A86" s="40"/>
-      <c r="B86" s="59"/>
+      <c r="A86" s="49"/>
+      <c r="B86" s="51"/>
       <c r="C86" s="22">
         <v>2</v>
       </c>
@@ -2703,38 +4774,38 @@
       <c r="H86" s="17">
         <v>0.49</v>
       </c>
-      <c r="I86" s="65">
+      <c r="I86" s="41">
         <v>17.510000000000002</v>
       </c>
     </row>
     <row r="87" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A87" s="40"/>
-      <c r="B87" s="55">
+      <c r="A87" s="49"/>
+      <c r="B87" s="52">
         <v>2</v>
       </c>
       <c r="C87" s="13">
         <v>0</v>
       </c>
-      <c r="D87" s="66">
+      <c r="D87" s="42">
         <v>0.03</v>
       </c>
-      <c r="E87" s="66">
+      <c r="E87" s="42">
         <v>6.51</v>
       </c>
-      <c r="F87" s="66">
+      <c r="F87" s="42">
         <v>5.85</v>
       </c>
-      <c r="G87" s="66">
+      <c r="G87" s="42">
         <v>0.01</v>
       </c>
-      <c r="H87" s="66"/>
-      <c r="I87" s="67">
+      <c r="H87" s="42"/>
+      <c r="I87" s="43">
         <v>12.4</v>
       </c>
     </row>
     <row r="88" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A88" s="40"/>
-      <c r="B88" s="57"/>
+      <c r="A88" s="49"/>
+      <c r="B88" s="50"/>
       <c r="C88" s="21">
         <v>1</v>
       </c>
@@ -2753,13 +4824,13 @@
       <c r="H88" s="15">
         <v>0.52</v>
       </c>
-      <c r="I88" s="64">
+      <c r="I88" s="40">
         <v>13.99</v>
       </c>
     </row>
     <row r="89" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A89" s="40"/>
-      <c r="B89" s="59"/>
+      <c r="A89" s="49"/>
+      <c r="B89" s="51"/>
       <c r="C89" s="22">
         <v>2</v>
       </c>
@@ -2778,40 +4849,40 @@
       <c r="H89" s="17">
         <v>0.49</v>
       </c>
-      <c r="I89" s="65">
+      <c r="I89" s="41">
         <v>12.57</v>
       </c>
     </row>
     <row r="90" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A90" s="40"/>
-      <c r="B90" s="55">
+      <c r="A90" s="49"/>
+      <c r="B90" s="52">
         <v>3</v>
       </c>
       <c r="C90" s="13">
         <v>0</v>
       </c>
-      <c r="D90" s="66">
+      <c r="D90" s="42">
         <v>0.04</v>
       </c>
-      <c r="E90" s="66">
+      <c r="E90" s="42">
         <v>0.91</v>
       </c>
-      <c r="F90" s="66">
+      <c r="F90" s="42">
         <v>6.66</v>
       </c>
-      <c r="G90" s="66">
-        <v>0</v>
-      </c>
-      <c r="H90" s="66">
+      <c r="G90" s="42">
+        <v>0</v>
+      </c>
+      <c r="H90" s="42">
         <v>0.32</v>
       </c>
-      <c r="I90" s="67">
+      <c r="I90" s="43">
         <v>7.6</v>
       </c>
     </row>
     <row r="91" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A91" s="40"/>
-      <c r="B91" s="57"/>
+      <c r="A91" s="49"/>
+      <c r="B91" s="50"/>
       <c r="C91" s="21">
         <v>1</v>
       </c>
@@ -2830,65 +4901,65 @@
       <c r="H91" s="15">
         <v>0.68</v>
       </c>
-      <c r="I91" s="64">
+      <c r="I91" s="40">
         <v>7.64</v>
       </c>
     </row>
     <row r="92" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A92" s="40"/>
-      <c r="B92" s="59"/>
-      <c r="C92" s="68">
+      <c r="A92" s="49"/>
+      <c r="B92" s="51"/>
+      <c r="C92" s="44">
         <v>2</v>
       </c>
-      <c r="D92" s="69">
+      <c r="D92" s="45">
         <v>0.04</v>
       </c>
-      <c r="E92" s="69">
+      <c r="E92" s="45">
         <v>1.1499999999999999</v>
       </c>
-      <c r="F92" s="69">
+      <c r="F92" s="45">
         <v>6.34</v>
       </c>
-      <c r="G92" s="69">
-        <v>0</v>
-      </c>
-      <c r="H92" s="69">
+      <c r="G92" s="45">
+        <v>0</v>
+      </c>
+      <c r="H92" s="45">
         <v>0.65</v>
       </c>
-      <c r="I92" s="69">
+      <c r="I92" s="45">
         <v>7.54</v>
       </c>
     </row>
     <row r="93" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A93" s="40"/>
-      <c r="B93" s="55">
+      <c r="A93" s="49"/>
+      <c r="B93" s="52">
         <v>4</v>
       </c>
       <c r="C93" s="13">
         <v>0</v>
       </c>
-      <c r="D93" s="66">
+      <c r="D93" s="42">
         <v>0.04</v>
       </c>
-      <c r="E93" s="66">
+      <c r="E93" s="42">
         <v>6.02</v>
       </c>
-      <c r="F93" s="66">
+      <c r="F93" s="42">
         <v>6.19</v>
       </c>
-      <c r="G93" s="66">
-        <v>0</v>
-      </c>
-      <c r="H93" s="66">
+      <c r="G93" s="42">
+        <v>0</v>
+      </c>
+      <c r="H93" s="42">
         <v>3.3</v>
       </c>
-      <c r="I93" s="67">
+      <c r="I93" s="43">
         <v>12.25</v>
       </c>
     </row>
     <row r="94" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A94" s="40"/>
-      <c r="B94" s="57"/>
+      <c r="A94" s="49"/>
+      <c r="B94" s="50"/>
       <c r="C94" s="21">
         <v>1</v>
       </c>
@@ -2907,13 +4978,13 @@
       <c r="H94" s="15">
         <v>3.57</v>
       </c>
-      <c r="I94" s="64">
+      <c r="I94" s="40">
         <v>13.54</v>
       </c>
     </row>
     <row r="95" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A95" s="40"/>
-      <c r="B95" s="59"/>
+      <c r="A95" s="49"/>
+      <c r="B95" s="51"/>
       <c r="C95" s="22">
         <v>2</v>
       </c>
@@ -2932,7 +5003,7 @@
       <c r="H95" s="17">
         <v>3.56</v>
       </c>
-      <c r="I95" s="65">
+      <c r="I95" s="41">
         <v>12.22</v>
       </c>
     </row>
@@ -2953,6 +5024,7 @@
     <mergeCell ref="E25:L25"/>
     <mergeCell ref="E27:L27"/>
     <mergeCell ref="E28:L28"/>
+    <mergeCell ref="M18:P18"/>
     <mergeCell ref="C2:D2"/>
     <mergeCell ref="E2:F2"/>
     <mergeCell ref="C1:D1"/>
@@ -2969,7 +5041,6 @@
     <mergeCell ref="B12:G12"/>
     <mergeCell ref="B11:G11"/>
     <mergeCell ref="B15:G15"/>
-    <mergeCell ref="M18:P18"/>
     <mergeCell ref="A84:A95"/>
     <mergeCell ref="B84:B86"/>
     <mergeCell ref="B87:B89"/>
@@ -2999,7 +5070,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EEB59053-13F2-094D-82C0-890629C295AC}">
   <dimension ref="A1:Y96"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A97" sqref="A97"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -3019,23 +5092,23 @@
       <c r="B1" t="s">
         <v>10</v>
       </c>
-      <c r="C1" s="43" t="s">
+      <c r="C1" s="53" t="s">
         <v>11</v>
       </c>
-      <c r="D1" s="43"/>
+      <c r="D1" s="53"/>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="43" t="s">
+      <c r="C2" s="53" t="s">
         <v>13</v>
       </c>
-      <c r="D2" s="43"/>
-      <c r="E2" s="43" t="s">
+      <c r="D2" s="53"/>
+      <c r="E2" s="53" t="s">
         <v>14</v>
       </c>
-      <c r="F2" s="43"/>
+      <c r="F2" s="53"/>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
@@ -3052,13 +5125,13 @@
       <c r="C4" s="39" t="s">
         <v>32</v>
       </c>
-      <c r="D4" s="62" t="s">
+      <c r="D4" s="72" t="s">
         <v>35</v>
       </c>
-      <c r="E4" s="62"/>
-      <c r="F4" s="62"/>
-      <c r="G4" s="62"/>
-      <c r="H4" s="62"/>
+      <c r="E4" s="72"/>
+      <c r="F4" s="72"/>
+      <c r="G4" s="72"/>
+      <c r="H4" s="72"/>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B5" s="33"/>
@@ -3077,14 +5150,14 @@
       <c r="K5" s="31"/>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="B6" s="50" t="s">
+      <c r="B6" s="60" t="s">
         <v>16</v>
       </c>
-      <c r="C6" s="51"/>
-      <c r="D6" s="51"/>
-      <c r="E6" s="51"/>
-      <c r="F6" s="51"/>
-      <c r="G6" s="51"/>
+      <c r="C6" s="61"/>
+      <c r="D6" s="61"/>
+      <c r="E6" s="61"/>
+      <c r="F6" s="61"/>
+      <c r="G6" s="61"/>
       <c r="H6" s="15">
         <v>5625.48</v>
       </c>
@@ -3095,14 +5168,14 @@
       <c r="K6" s="31"/>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="B7" s="50" t="s">
+      <c r="B7" s="60" t="s">
         <v>17</v>
       </c>
-      <c r="C7" s="51"/>
-      <c r="D7" s="51"/>
-      <c r="E7" s="51"/>
-      <c r="F7" s="51"/>
-      <c r="G7" s="51"/>
+      <c r="C7" s="61"/>
+      <c r="D7" s="61"/>
+      <c r="E7" s="61"/>
+      <c r="F7" s="61"/>
+      <c r="G7" s="61"/>
       <c r="H7" s="15">
         <v>29141.61</v>
       </c>
@@ -3113,14 +5186,14 @@
       <c r="K7" s="31"/>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="B8" s="48" t="s">
+      <c r="B8" s="58" t="s">
         <v>18</v>
       </c>
-      <c r="C8" s="49"/>
-      <c r="D8" s="49"/>
-      <c r="E8" s="49"/>
-      <c r="F8" s="49"/>
-      <c r="G8" s="49"/>
+      <c r="C8" s="59"/>
+      <c r="D8" s="59"/>
+      <c r="E8" s="59"/>
+      <c r="F8" s="59"/>
+      <c r="G8" s="59"/>
       <c r="H8" s="17">
         <v>34767.089999999997</v>
       </c>
@@ -3143,14 +5216,14 @@
       <c r="K9" s="31"/>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="B10" s="46" t="s">
+      <c r="B10" s="56" t="s">
         <v>27</v>
       </c>
-      <c r="C10" s="47"/>
-      <c r="D10" s="47"/>
-      <c r="E10" s="47"/>
-      <c r="F10" s="47"/>
-      <c r="G10" s="47"/>
+      <c r="C10" s="57"/>
+      <c r="D10" s="57"/>
+      <c r="E10" s="57"/>
+      <c r="F10" s="57"/>
+      <c r="G10" s="57"/>
       <c r="H10" s="8">
         <v>45</v>
       </c>
@@ -3159,14 +5232,14 @@
       <c r="K10" s="31"/>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="B11" s="50" t="s">
+      <c r="B11" s="60" t="s">
         <v>28</v>
       </c>
-      <c r="C11" s="51"/>
-      <c r="D11" s="51"/>
-      <c r="E11" s="51"/>
-      <c r="F11" s="51"/>
-      <c r="G11" s="51"/>
+      <c r="C11" s="61"/>
+      <c r="D11" s="61"/>
+      <c r="E11" s="61"/>
+      <c r="F11" s="61"/>
+      <c r="G11" s="61"/>
       <c r="H11" s="10">
         <v>638</v>
       </c>
@@ -3175,14 +5248,14 @@
       <c r="K11" s="31"/>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="B12" s="50" t="s">
+      <c r="B12" s="60" t="s">
         <v>22</v>
       </c>
-      <c r="C12" s="51"/>
-      <c r="D12" s="51"/>
-      <c r="E12" s="51"/>
-      <c r="F12" s="51"/>
-      <c r="G12" s="51"/>
+      <c r="C12" s="61"/>
+      <c r="D12" s="61"/>
+      <c r="E12" s="61"/>
+      <c r="F12" s="61"/>
+      <c r="G12" s="61"/>
       <c r="H12" s="10">
         <v>4413034</v>
       </c>
@@ -3191,14 +5264,14 @@
       <c r="K12" s="31"/>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="B13" s="48" t="s">
+      <c r="B13" s="58" t="s">
         <v>23</v>
       </c>
-      <c r="C13" s="49"/>
-      <c r="D13" s="49"/>
-      <c r="E13" s="49"/>
-      <c r="F13" s="49"/>
-      <c r="G13" s="49"/>
+      <c r="C13" s="59"/>
+      <c r="D13" s="59"/>
+      <c r="E13" s="59"/>
+      <c r="F13" s="59"/>
+      <c r="G13" s="59"/>
       <c r="H13" s="12">
         <v>35209</v>
       </c>
@@ -3219,15 +5292,15 @@
       <c r="K14" s="31"/>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="B15" s="46" t="s">
+      <c r="B15" s="56" t="s">
         <v>30</v>
       </c>
-      <c r="C15" s="47"/>
-      <c r="D15" s="47"/>
-      <c r="E15" s="47"/>
-      <c r="F15" s="47"/>
-      <c r="G15" s="47"/>
-      <c r="H15" s="70">
+      <c r="C15" s="57"/>
+      <c r="D15" s="57"/>
+      <c r="E15" s="57"/>
+      <c r="F15" s="57"/>
+      <c r="G15" s="57"/>
+      <c r="H15" s="46">
         <v>32</v>
       </c>
       <c r="I15" s="7">
@@ -3244,14 +5317,14 @@
       </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="B16" s="50" t="s">
+      <c r="B16" s="60" t="s">
         <v>52</v>
       </c>
-      <c r="C16" s="51"/>
-      <c r="D16" s="51"/>
-      <c r="E16" s="51"/>
-      <c r="F16" s="51"/>
-      <c r="G16" s="51"/>
+      <c r="C16" s="61"/>
+      <c r="D16" s="61"/>
+      <c r="E16" s="61"/>
+      <c r="F16" s="61"/>
+      <c r="G16" s="61"/>
       <c r="H16" s="9">
         <f>$H$13/H15</f>
         <v>1100.28125</v>
@@ -3272,21 +5345,21 @@
         <f t="shared" si="0"/>
         <v>68.767578125</v>
       </c>
-      <c r="M16" s="63" t="s">
+      <c r="M16" s="62" t="s">
         <v>53</v>
       </c>
-      <c r="N16" s="42"/>
-      <c r="O16" s="42"/>
+      <c r="N16" s="63"/>
+      <c r="O16" s="63"/>
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="B17" s="50" t="s">
+      <c r="B17" s="60" t="s">
         <v>21</v>
       </c>
-      <c r="C17" s="51"/>
-      <c r="D17" s="51"/>
-      <c r="E17" s="51"/>
-      <c r="F17" s="51"/>
-      <c r="G17" s="51"/>
+      <c r="C17" s="61"/>
+      <c r="D17" s="61"/>
+      <c r="E17" s="61"/>
+      <c r="F17" s="61"/>
+      <c r="G17" s="61"/>
       <c r="H17" s="25">
         <v>53592</v>
       </c>
@@ -3304,15 +5377,15 @@
       </c>
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="B18" s="50" t="s">
+      <c r="B18" s="60" t="s">
         <v>24</v>
       </c>
-      <c r="C18" s="51"/>
-      <c r="D18" s="51"/>
-      <c r="E18" s="51"/>
-      <c r="F18" s="51"/>
-      <c r="G18" s="51"/>
-      <c r="H18" s="72">
+      <c r="C18" s="61"/>
+      <c r="D18" s="61"/>
+      <c r="E18" s="61"/>
+      <c r="F18" s="61"/>
+      <c r="G18" s="61"/>
+      <c r="H18" s="48">
         <v>1674.75</v>
       </c>
       <c r="I18" s="24">
@@ -3327,22 +5400,22 @@
       <c r="L18" s="29">
         <v>660.61</v>
       </c>
-      <c r="M18" s="41" t="s">
+      <c r="M18" s="71" t="s">
         <v>37</v>
       </c>
-      <c r="N18" s="42"/>
-      <c r="O18" s="42"/>
-      <c r="P18" s="42"/>
+      <c r="N18" s="63"/>
+      <c r="O18" s="63"/>
+      <c r="P18" s="63"/>
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="B19" s="50" t="s">
+      <c r="B19" s="60" t="s">
         <v>25</v>
       </c>
-      <c r="C19" s="51"/>
-      <c r="D19" s="51"/>
-      <c r="E19" s="51"/>
-      <c r="F19" s="51"/>
-      <c r="G19" s="51"/>
+      <c r="C19" s="61"/>
+      <c r="D19" s="61"/>
+      <c r="E19" s="61"/>
+      <c r="F19" s="61"/>
+      <c r="G19" s="61"/>
       <c r="H19" s="25">
         <v>14477</v>
       </c>
@@ -3360,15 +5433,15 @@
       </c>
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="B20" s="48" t="s">
+      <c r="B20" s="58" t="s">
         <v>26</v>
       </c>
-      <c r="C20" s="49"/>
-      <c r="D20" s="49"/>
-      <c r="E20" s="49"/>
-      <c r="F20" s="49"/>
-      <c r="G20" s="49"/>
-      <c r="H20" s="71">
+      <c r="C20" s="59"/>
+      <c r="D20" s="59"/>
+      <c r="E20" s="59"/>
+      <c r="F20" s="59"/>
+      <c r="G20" s="59"/>
+      <c r="H20" s="47">
         <v>11</v>
       </c>
       <c r="I20" s="11">
@@ -3397,78 +5470,78 @@
       <c r="K21" s="25"/>
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="B22" s="54" t="s">
+      <c r="B22" s="66" t="s">
         <v>42</v>
       </c>
-      <c r="C22" s="55"/>
+      <c r="C22" s="52"/>
       <c r="D22" s="13">
         <v>0</v>
       </c>
-      <c r="E22" s="44" t="s">
+      <c r="E22" s="54" t="s">
         <v>43</v>
       </c>
-      <c r="F22" s="44"/>
-      <c r="G22" s="44"/>
-      <c r="H22" s="44"/>
-      <c r="I22" s="44"/>
-      <c r="J22" s="44"/>
-      <c r="K22" s="44"/>
-      <c r="L22" s="45"/>
+      <c r="F22" s="54"/>
+      <c r="G22" s="54"/>
+      <c r="H22" s="54"/>
+      <c r="I22" s="54"/>
+      <c r="J22" s="54"/>
+      <c r="K22" s="54"/>
+      <c r="L22" s="55"/>
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="B23" s="56"/>
-      <c r="C23" s="57"/>
+      <c r="B23" s="67"/>
+      <c r="C23" s="50"/>
       <c r="D23" s="21">
         <v>1</v>
       </c>
-      <c r="E23" s="60" t="s">
+      <c r="E23" s="69" t="s">
         <v>46</v>
       </c>
-      <c r="F23" s="60"/>
-      <c r="G23" s="60"/>
-      <c r="H23" s="60"/>
-      <c r="I23" s="60"/>
-      <c r="J23" s="60"/>
-      <c r="K23" s="60"/>
-      <c r="L23" s="61"/>
+      <c r="F23" s="69"/>
+      <c r="G23" s="69"/>
+      <c r="H23" s="69"/>
+      <c r="I23" s="69"/>
+      <c r="J23" s="69"/>
+      <c r="K23" s="69"/>
+      <c r="L23" s="70"/>
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="B24" s="56"/>
-      <c r="C24" s="57"/>
+      <c r="B24" s="67"/>
+      <c r="C24" s="50"/>
       <c r="D24" s="21">
         <v>2</v>
       </c>
-      <c r="E24" s="60" t="s">
+      <c r="E24" s="69" t="s">
         <v>47</v>
       </c>
-      <c r="F24" s="60"/>
-      <c r="G24" s="60"/>
-      <c r="H24" s="60"/>
-      <c r="I24" s="60"/>
-      <c r="J24" s="60"/>
-      <c r="K24" s="60"/>
-      <c r="L24" s="61"/>
+      <c r="F24" s="69"/>
+      <c r="G24" s="69"/>
+      <c r="H24" s="69"/>
+      <c r="I24" s="69"/>
+      <c r="J24" s="69"/>
+      <c r="K24" s="69"/>
+      <c r="L24" s="70"/>
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="B25" s="56"/>
-      <c r="C25" s="57"/>
+      <c r="B25" s="67"/>
+      <c r="C25" s="50"/>
       <c r="D25" s="21">
         <v>3</v>
       </c>
-      <c r="E25" s="60" t="s">
+      <c r="E25" s="69" t="s">
         <v>48</v>
       </c>
-      <c r="F25" s="60"/>
-      <c r="G25" s="60"/>
-      <c r="H25" s="60"/>
-      <c r="I25" s="60"/>
-      <c r="J25" s="60"/>
-      <c r="K25" s="60"/>
-      <c r="L25" s="61"/>
+      <c r="F25" s="69"/>
+      <c r="G25" s="69"/>
+      <c r="H25" s="69"/>
+      <c r="I25" s="69"/>
+      <c r="J25" s="69"/>
+      <c r="K25" s="69"/>
+      <c r="L25" s="70"/>
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="B26" s="58"/>
-      <c r="C26" s="59"/>
+      <c r="B26" s="68"/>
+      <c r="C26" s="51"/>
       <c r="D26" s="22">
         <v>4</v>
       </c>
@@ -3484,57 +5557,57 @@
       <c r="L26" s="38"/>
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="B27" s="54" t="s">
+      <c r="B27" s="66" t="s">
         <v>50</v>
       </c>
-      <c r="C27" s="55"/>
+      <c r="C27" s="52"/>
       <c r="D27" s="13">
         <v>0</v>
       </c>
-      <c r="E27" s="44" t="s">
+      <c r="E27" s="54" t="s">
         <v>44</v>
       </c>
-      <c r="F27" s="44"/>
-      <c r="G27" s="44"/>
-      <c r="H27" s="44"/>
-      <c r="I27" s="44"/>
-      <c r="J27" s="44"/>
-      <c r="K27" s="44"/>
-      <c r="L27" s="45"/>
+      <c r="F27" s="54"/>
+      <c r="G27" s="54"/>
+      <c r="H27" s="54"/>
+      <c r="I27" s="54"/>
+      <c r="J27" s="54"/>
+      <c r="K27" s="54"/>
+      <c r="L27" s="55"/>
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="B28" s="56"/>
-      <c r="C28" s="57"/>
+      <c r="B28" s="67"/>
+      <c r="C28" s="50"/>
       <c r="D28" s="21">
         <v>1</v>
       </c>
-      <c r="E28" s="60" t="s">
+      <c r="E28" s="69" t="s">
         <v>45</v>
       </c>
-      <c r="F28" s="60"/>
-      <c r="G28" s="60"/>
-      <c r="H28" s="60"/>
-      <c r="I28" s="60"/>
-      <c r="J28" s="60"/>
-      <c r="K28" s="60"/>
-      <c r="L28" s="61"/>
+      <c r="F28" s="69"/>
+      <c r="G28" s="69"/>
+      <c r="H28" s="69"/>
+      <c r="I28" s="69"/>
+      <c r="J28" s="69"/>
+      <c r="K28" s="69"/>
+      <c r="L28" s="70"/>
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="B29" s="58"/>
-      <c r="C29" s="59"/>
+      <c r="B29" s="68"/>
+      <c r="C29" s="51"/>
       <c r="D29" s="22">
         <v>2</v>
       </c>
-      <c r="E29" s="52" t="s">
+      <c r="E29" s="64" t="s">
         <v>51</v>
       </c>
-      <c r="F29" s="52"/>
-      <c r="G29" s="52"/>
-      <c r="H29" s="52"/>
-      <c r="I29" s="52"/>
-      <c r="J29" s="52"/>
-      <c r="K29" s="52"/>
-      <c r="L29" s="53"/>
+      <c r="F29" s="64"/>
+      <c r="G29" s="64"/>
+      <c r="H29" s="64"/>
+      <c r="I29" s="64"/>
+      <c r="J29" s="64"/>
+      <c r="K29" s="64"/>
+      <c r="L29" s="65"/>
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B30" s="19"/>
@@ -3592,10 +5665,10 @@
       </c>
     </row>
     <row r="33" spans="1:25" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="40">
+      <c r="A33" s="49">
         <v>32</v>
       </c>
-      <c r="B33" s="57">
+      <c r="B33" s="50">
         <v>0</v>
       </c>
       <c r="C33" s="21">
@@ -3614,13 +5687,13 @@
         <v>0</v>
       </c>
       <c r="H33" s="15"/>
-      <c r="I33" s="64">
+      <c r="I33" s="40">
         <v>44.86</v>
       </c>
     </row>
     <row r="34" spans="1:25" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="40"/>
-      <c r="B34" s="57"/>
+      <c r="A34" s="49"/>
+      <c r="B34" s="50"/>
       <c r="C34" s="21">
         <v>1</v>
       </c>
@@ -3639,13 +5712,13 @@
       <c r="H34" s="15">
         <v>4.5599999999999996</v>
       </c>
-      <c r="I34" s="64">
+      <c r="I34" s="40">
         <v>39.270000000000003</v>
       </c>
     </row>
     <row r="35" spans="1:25" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="40"/>
-      <c r="B35" s="59"/>
+      <c r="A35" s="49"/>
+      <c r="B35" s="51"/>
       <c r="C35" s="22">
         <v>2</v>
       </c>
@@ -3664,38 +5737,38 @@
       <c r="H35" s="17">
         <v>4.49</v>
       </c>
-      <c r="I35" s="65">
+      <c r="I35" s="41">
         <v>33.14</v>
       </c>
     </row>
     <row r="36" spans="1:25" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="40"/>
-      <c r="B36" s="55">
+      <c r="A36" s="49"/>
+      <c r="B36" s="52">
         <v>2</v>
       </c>
       <c r="C36" s="13">
         <v>0</v>
       </c>
-      <c r="D36" s="66">
+      <c r="D36" s="42">
         <v>0.02</v>
       </c>
-      <c r="E36" s="66">
+      <c r="E36" s="42">
         <v>17.21</v>
       </c>
-      <c r="F36" s="66">
+      <c r="F36" s="42">
         <v>22.94</v>
       </c>
-      <c r="G36" s="66">
-        <v>0</v>
-      </c>
-      <c r="H36" s="66"/>
-      <c r="I36" s="67">
+      <c r="G36" s="42">
+        <v>0</v>
+      </c>
+      <c r="H36" s="42"/>
+      <c r="I36" s="43">
         <v>40.17</v>
       </c>
     </row>
     <row r="37" spans="1:25" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="40"/>
-      <c r="B37" s="57"/>
+      <c r="A37" s="49"/>
+      <c r="B37" s="50"/>
       <c r="C37" s="21">
         <v>1</v>
       </c>
@@ -3714,13 +5787,13 @@
       <c r="H37" s="15">
         <v>4.57</v>
       </c>
-      <c r="I37" s="64">
+      <c r="I37" s="40">
         <v>37.299999999999997</v>
       </c>
     </row>
     <row r="38" spans="1:25" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="40"/>
-      <c r="B38" s="59"/>
+      <c r="A38" s="49"/>
+      <c r="B38" s="51"/>
       <c r="C38" s="22">
         <v>2</v>
       </c>
@@ -3739,40 +5812,40 @@
       <c r="H38" s="17">
         <v>4.47</v>
       </c>
-      <c r="I38" s="65">
+      <c r="I38" s="41">
         <v>30.1</v>
       </c>
     </row>
     <row r="39" spans="1:25" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="40"/>
-      <c r="B39" s="55">
+      <c r="A39" s="49"/>
+      <c r="B39" s="52">
         <v>3</v>
       </c>
       <c r="C39" s="13">
         <v>0</v>
       </c>
-      <c r="D39" s="66">
+      <c r="D39" s="42">
         <v>0.06</v>
       </c>
-      <c r="E39" s="66">
+      <c r="E39" s="42">
         <v>1.76</v>
       </c>
-      <c r="F39" s="66">
+      <c r="F39" s="42">
         <v>24.76</v>
       </c>
-      <c r="G39" s="66">
-        <v>0</v>
-      </c>
-      <c r="H39" s="66">
+      <c r="G39" s="42">
+        <v>0</v>
+      </c>
+      <c r="H39" s="42">
         <v>0.53</v>
       </c>
-      <c r="I39" s="67">
+      <c r="I39" s="43">
         <v>26.59</v>
       </c>
     </row>
     <row r="40" spans="1:25" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="40"/>
-      <c r="B40" s="57"/>
+      <c r="A40" s="49"/>
+      <c r="B40" s="50"/>
       <c r="C40" s="21">
         <v>1</v>
       </c>
@@ -3791,65 +5864,65 @@
       <c r="H40" s="15">
         <v>5</v>
       </c>
-      <c r="I40" s="64">
+      <c r="I40" s="40">
         <v>20.8</v>
       </c>
     </row>
     <row r="41" spans="1:25" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="40"/>
-      <c r="B41" s="59"/>
-      <c r="C41" s="68">
+      <c r="A41" s="49"/>
+      <c r="B41" s="51"/>
+      <c r="C41" s="44">
         <v>2</v>
       </c>
-      <c r="D41" s="69">
+      <c r="D41" s="45">
         <v>0.03</v>
       </c>
-      <c r="E41" s="69">
+      <c r="E41" s="45">
         <v>1.9</v>
       </c>
-      <c r="F41" s="69">
+      <c r="F41" s="45">
         <v>12.9</v>
       </c>
-      <c r="G41" s="69">
-        <v>0</v>
-      </c>
-      <c r="H41" s="69">
+      <c r="G41" s="45">
+        <v>0</v>
+      </c>
+      <c r="H41" s="45">
         <v>4.9400000000000004</v>
       </c>
-      <c r="I41" s="69">
+      <c r="I41" s="45">
         <v>14.83</v>
       </c>
     </row>
     <row r="42" spans="1:25" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="40"/>
-      <c r="B42" s="55">
+      <c r="A42" s="49"/>
+      <c r="B42" s="52">
         <v>4</v>
       </c>
       <c r="C42" s="13">
         <v>0</v>
       </c>
-      <c r="D42" s="66">
+      <c r="D42" s="42">
         <v>0.02</v>
       </c>
-      <c r="E42" s="66">
+      <c r="E42" s="42">
         <v>15.75</v>
       </c>
-      <c r="F42" s="66">
+      <c r="F42" s="42">
         <v>24.88</v>
       </c>
-      <c r="G42" s="66">
-        <v>0</v>
-      </c>
-      <c r="H42" s="66">
+      <c r="G42" s="42">
+        <v>0</v>
+      </c>
+      <c r="H42" s="42">
         <v>9.27</v>
       </c>
-      <c r="I42" s="67">
+      <c r="I42" s="43">
         <v>40.659999999999997</v>
       </c>
     </row>
     <row r="43" spans="1:25" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="40"/>
-      <c r="B43" s="57"/>
+      <c r="A43" s="49"/>
+      <c r="B43" s="50"/>
       <c r="C43" s="21">
         <v>1</v>
       </c>
@@ -3868,13 +5941,13 @@
       <c r="H43" s="15">
         <v>12.76</v>
       </c>
-      <c r="I43" s="64">
+      <c r="I43" s="40">
         <v>34.72</v>
       </c>
     </row>
     <row r="44" spans="1:25" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="40"/>
-      <c r="B44" s="59"/>
+      <c r="A44" s="49"/>
+      <c r="B44" s="51"/>
       <c r="C44" s="22">
         <v>2</v>
       </c>
@@ -3893,7 +5966,7 @@
       <c r="H44" s="17">
         <v>12.71</v>
       </c>
-      <c r="I44" s="65">
+      <c r="I44" s="41">
         <v>27.47</v>
       </c>
     </row>
@@ -3915,10 +5988,10 @@
       <c r="Y45"/>
     </row>
     <row r="46" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A46" s="40">
+      <c r="A46" s="49">
         <v>64</v>
       </c>
-      <c r="B46" s="57">
+      <c r="B46" s="50">
         <v>0</v>
       </c>
       <c r="C46" s="21">
@@ -3939,13 +6012,13 @@
       <c r="H46" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="I46" s="64">
+      <c r="I46" s="40">
         <v>47.57</v>
       </c>
     </row>
     <row r="47" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A47" s="40"/>
-      <c r="B47" s="57"/>
+      <c r="A47" s="49"/>
+      <c r="B47" s="50"/>
       <c r="C47" s="21">
         <v>1</v>
       </c>
@@ -3964,13 +6037,13 @@
       <c r="H47" s="15">
         <v>3.55</v>
       </c>
-      <c r="I47" s="64">
+      <c r="I47" s="40">
         <v>42.74</v>
       </c>
     </row>
     <row r="48" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A48" s="40"/>
-      <c r="B48" s="59"/>
+      <c r="A48" s="49"/>
+      <c r="B48" s="51"/>
       <c r="C48" s="22">
         <v>2</v>
       </c>
@@ -3989,40 +6062,40 @@
       <c r="H48" s="17">
         <v>3.4</v>
       </c>
-      <c r="I48" s="65">
+      <c r="I48" s="41">
         <v>34.96</v>
       </c>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A49" s="40"/>
-      <c r="B49" s="55">
+      <c r="A49" s="49"/>
+      <c r="B49" s="52">
         <v>2</v>
       </c>
       <c r="C49" s="13">
         <v>0</v>
       </c>
-      <c r="D49" s="66">
+      <c r="D49" s="42">
         <v>0.03</v>
       </c>
-      <c r="E49" s="66">
+      <c r="E49" s="42">
         <v>17.73</v>
       </c>
-      <c r="F49" s="66">
+      <c r="F49" s="42">
         <v>23.95</v>
       </c>
-      <c r="G49" s="66">
-        <v>0</v>
-      </c>
-      <c r="H49" s="66" t="s">
+      <c r="G49" s="42">
+        <v>0</v>
+      </c>
+      <c r="H49" s="42" t="s">
         <v>8</v>
       </c>
-      <c r="I49" s="67">
+      <c r="I49" s="43">
         <v>41.71</v>
       </c>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A50" s="40"/>
-      <c r="B50" s="57"/>
+      <c r="A50" s="49"/>
+      <c r="B50" s="50"/>
       <c r="C50" s="21">
         <v>1</v>
       </c>
@@ -4041,13 +6114,13 @@
       <c r="H50" s="15">
         <v>3.56</v>
       </c>
-      <c r="I50" s="64">
+      <c r="I50" s="40">
         <v>38.380000000000003</v>
       </c>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A51" s="40"/>
-      <c r="B51" s="59"/>
+      <c r="A51" s="49"/>
+      <c r="B51" s="51"/>
       <c r="C51" s="22">
         <v>2</v>
       </c>
@@ -4066,40 +6139,40 @@
       <c r="H51" s="17">
         <v>3.41</v>
       </c>
-      <c r="I51" s="65">
+      <c r="I51" s="41">
         <v>30.93</v>
       </c>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A52" s="40"/>
-      <c r="B52" s="55">
+      <c r="A52" s="49"/>
+      <c r="B52" s="52">
         <v>3</v>
       </c>
       <c r="C52" s="13">
         <v>0</v>
       </c>
-      <c r="D52" s="66">
+      <c r="D52" s="42">
         <v>0.03</v>
       </c>
-      <c r="E52" s="66">
+      <c r="E52" s="42">
         <v>1.54</v>
       </c>
-      <c r="F52" s="66">
+      <c r="F52" s="42">
         <v>23.56</v>
       </c>
-      <c r="G52" s="66">
-        <v>0</v>
-      </c>
-      <c r="H52" s="66">
+      <c r="G52" s="42">
+        <v>0</v>
+      </c>
+      <c r="H52" s="42">
         <v>0.33</v>
       </c>
-      <c r="I52" s="67">
+      <c r="I52" s="43">
         <v>25.13</v>
       </c>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A53" s="40"/>
-      <c r="B53" s="57"/>
+      <c r="A53" s="49"/>
+      <c r="B53" s="50"/>
       <c r="C53" s="21">
         <v>1</v>
       </c>
@@ -4118,65 +6191,65 @@
       <c r="H53" s="15">
         <v>3.71</v>
       </c>
-      <c r="I53" s="64">
+      <c r="I53" s="40">
         <v>21.36</v>
       </c>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A54" s="40"/>
-      <c r="B54" s="59"/>
-      <c r="C54" s="68">
+      <c r="A54" s="49"/>
+      <c r="B54" s="51"/>
+      <c r="C54" s="44">
         <v>2</v>
       </c>
-      <c r="D54" s="69">
+      <c r="D54" s="45">
         <v>0.06</v>
       </c>
-      <c r="E54" s="69">
+      <c r="E54" s="45">
         <v>1.47</v>
       </c>
-      <c r="F54" s="69">
+      <c r="F54" s="45">
         <v>12.91</v>
       </c>
-      <c r="G54" s="69">
-        <v>0</v>
-      </c>
-      <c r="H54" s="69">
+      <c r="G54" s="45">
+        <v>0</v>
+      </c>
+      <c r="H54" s="45">
         <v>3.64</v>
       </c>
-      <c r="I54" s="69">
+      <c r="I54" s="45">
         <v>14.44</v>
       </c>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A55" s="40"/>
-      <c r="B55" s="55">
+      <c r="A55" s="49"/>
+      <c r="B55" s="52">
         <v>4</v>
       </c>
       <c r="C55" s="13">
         <v>0</v>
       </c>
-      <c r="D55" s="66">
+      <c r="D55" s="42">
         <v>0.03</v>
       </c>
-      <c r="E55" s="66">
+      <c r="E55" s="42">
         <v>16.45</v>
       </c>
-      <c r="F55" s="66">
+      <c r="F55" s="42">
         <v>23.5</v>
       </c>
-      <c r="G55" s="66">
-        <v>0</v>
-      </c>
-      <c r="H55" s="66">
+      <c r="G55" s="42">
+        <v>0</v>
+      </c>
+      <c r="H55" s="42">
         <v>8.91</v>
       </c>
-      <c r="I55" s="67">
+      <c r="I55" s="43">
         <v>39.99</v>
       </c>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A56" s="40"/>
-      <c r="B56" s="57"/>
+      <c r="A56" s="49"/>
+      <c r="B56" s="50"/>
       <c r="C56" s="21">
         <v>1</v>
       </c>
@@ -4195,13 +6268,13 @@
       <c r="H56" s="15">
         <v>11.23</v>
       </c>
-      <c r="I56" s="64">
+      <c r="I56" s="40">
         <v>36.72</v>
       </c>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A57" s="40"/>
-      <c r="B57" s="59"/>
+      <c r="A57" s="49"/>
+      <c r="B57" s="51"/>
       <c r="C57" s="22">
         <v>2</v>
       </c>
@@ -4220,7 +6293,7 @@
       <c r="H57" s="17">
         <v>11.24</v>
       </c>
-      <c r="I57" s="65">
+      <c r="I57" s="41">
         <v>27.1</v>
       </c>
     </row>
@@ -4233,10 +6306,10 @@
       <c r="I58" s="23"/>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A59" s="40">
+      <c r="A59" s="49">
         <v>128</v>
       </c>
-      <c r="B59" s="57">
+      <c r="B59" s="50">
         <v>0</v>
       </c>
       <c r="C59" s="21">
@@ -4255,13 +6328,13 @@
         <v>0</v>
       </c>
       <c r="H59" s="15"/>
-      <c r="I59" s="64">
+      <c r="I59" s="40">
         <v>50.8</v>
       </c>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A60" s="40"/>
-      <c r="B60" s="57"/>
+      <c r="A60" s="49"/>
+      <c r="B60" s="50"/>
       <c r="C60" s="21">
         <v>1</v>
       </c>
@@ -4280,13 +6353,13 @@
       <c r="H60" s="15">
         <v>2.78</v>
       </c>
-      <c r="I60" s="64">
+      <c r="I60" s="40">
         <v>46.21</v>
       </c>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A61" s="40"/>
-      <c r="B61" s="59"/>
+      <c r="A61" s="49"/>
+      <c r="B61" s="51"/>
       <c r="C61" s="22">
         <v>2</v>
       </c>
@@ -4305,38 +6378,38 @@
       <c r="H61" s="17">
         <v>2.7</v>
       </c>
-      <c r="I61" s="65">
+      <c r="I61" s="41">
         <v>39.35</v>
       </c>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A62" s="40"/>
-      <c r="B62" s="55">
+      <c r="A62" s="49"/>
+      <c r="B62" s="52">
         <v>2</v>
       </c>
       <c r="C62" s="13">
         <v>0</v>
       </c>
-      <c r="D62" s="66">
+      <c r="D62" s="42">
         <v>0.03</v>
       </c>
-      <c r="E62" s="66">
+      <c r="E62" s="42">
         <v>16.84</v>
       </c>
-      <c r="F62" s="66">
+      <c r="F62" s="42">
         <v>21.84</v>
       </c>
-      <c r="G62" s="66">
+      <c r="G62" s="42">
         <v>0.01</v>
       </c>
-      <c r="H62" s="66"/>
-      <c r="I62" s="67">
+      <c r="H62" s="42"/>
+      <c r="I62" s="43">
         <v>38.72</v>
       </c>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A63" s="40"/>
-      <c r="B63" s="57"/>
+      <c r="A63" s="49"/>
+      <c r="B63" s="50"/>
       <c r="C63" s="21">
         <v>1</v>
       </c>
@@ -4355,13 +6428,13 @@
       <c r="H63" s="15">
         <v>2.79</v>
       </c>
-      <c r="I63" s="64">
+      <c r="I63" s="40">
         <v>39.08</v>
       </c>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A64" s="40"/>
-      <c r="B64" s="59"/>
+      <c r="A64" s="49"/>
+      <c r="B64" s="51"/>
       <c r="C64" s="22">
         <v>2</v>
       </c>
@@ -4380,40 +6453,40 @@
       <c r="H64" s="17">
         <v>2.7</v>
       </c>
-      <c r="I64" s="65">
+      <c r="I64" s="41">
         <v>30.75</v>
       </c>
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A65" s="40"/>
-      <c r="B65" s="55">
+      <c r="A65" s="49"/>
+      <c r="B65" s="52">
         <v>3</v>
       </c>
       <c r="C65" s="13">
         <v>0</v>
       </c>
-      <c r="D65" s="66">
+      <c r="D65" s="42">
         <v>0.04</v>
       </c>
-      <c r="E65" s="66">
+      <c r="E65" s="42">
         <v>1.3</v>
       </c>
-      <c r="F65" s="66">
+      <c r="F65" s="42">
         <v>23.25</v>
       </c>
-      <c r="G65" s="66">
-        <v>0</v>
-      </c>
-      <c r="H65" s="66">
+      <c r="G65" s="42">
+        <v>0</v>
+      </c>
+      <c r="H65" s="42">
         <v>0.33</v>
       </c>
-      <c r="I65" s="67">
+      <c r="I65" s="43">
         <v>24.59</v>
       </c>
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A66" s="40"/>
-      <c r="B66" s="57"/>
+      <c r="A66" s="49"/>
+      <c r="B66" s="50"/>
       <c r="C66" s="21">
         <v>1</v>
       </c>
@@ -4432,65 +6505,65 @@
       <c r="H66" s="15">
         <v>3.09</v>
       </c>
-      <c r="I66" s="64">
+      <c r="I66" s="40">
         <v>20.18</v>
       </c>
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A67" s="40"/>
-      <c r="B67" s="59"/>
-      <c r="C67" s="68">
+      <c r="A67" s="49"/>
+      <c r="B67" s="51"/>
+      <c r="C67" s="44">
         <v>2</v>
       </c>
-      <c r="D67" s="69">
+      <c r="D67" s="45">
         <v>0.03</v>
       </c>
-      <c r="E67" s="69">
+      <c r="E67" s="45">
         <v>1.51</v>
       </c>
-      <c r="F67" s="69">
+      <c r="F67" s="45">
         <v>12.12</v>
       </c>
-      <c r="G67" s="69">
-        <v>0</v>
-      </c>
-      <c r="H67" s="69">
+      <c r="G67" s="45">
+        <v>0</v>
+      </c>
+      <c r="H67" s="45">
         <v>3.02</v>
       </c>
-      <c r="I67" s="69">
+      <c r="I67" s="45">
         <v>13.66</v>
       </c>
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A68" s="40"/>
-      <c r="B68" s="55">
+      <c r="A68" s="49"/>
+      <c r="B68" s="52">
         <v>4</v>
       </c>
       <c r="C68" s="13">
         <v>0</v>
       </c>
-      <c r="D68" s="66">
+      <c r="D68" s="42">
         <v>0.03</v>
       </c>
-      <c r="E68" s="66">
+      <c r="E68" s="42">
         <v>18.14</v>
       </c>
-      <c r="F68" s="66">
+      <c r="F68" s="42">
         <v>28.85</v>
       </c>
-      <c r="G68" s="66">
-        <v>0</v>
-      </c>
-      <c r="H68" s="66">
+      <c r="G68" s="42">
+        <v>0</v>
+      </c>
+      <c r="H68" s="42">
         <v>9.07</v>
       </c>
-      <c r="I68" s="67">
+      <c r="I68" s="43">
         <v>47.01</v>
       </c>
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A69" s="40"/>
-      <c r="B69" s="57"/>
+      <c r="A69" s="49"/>
+      <c r="B69" s="50"/>
       <c r="C69" s="21">
         <v>1</v>
       </c>
@@ -4509,13 +6582,13 @@
       <c r="H69" s="15">
         <v>10.55</v>
       </c>
-      <c r="I69" s="64">
+      <c r="I69" s="40">
         <v>35.24</v>
       </c>
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A70" s="40"/>
-      <c r="B70" s="59"/>
+      <c r="A70" s="49"/>
+      <c r="B70" s="51"/>
       <c r="C70" s="22">
         <v>2</v>
       </c>
@@ -4534,7 +6607,7 @@
       <c r="H70" s="17">
         <v>10.55</v>
       </c>
-      <c r="I70" s="65">
+      <c r="I70" s="41">
         <v>27.11</v>
       </c>
     </row>
@@ -4547,10 +6620,10 @@
       <c r="I71" s="23"/>
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A72" s="40">
+      <c r="A72" s="49">
         <v>256</v>
       </c>
-      <c r="B72" s="57">
+      <c r="B72" s="50">
         <v>0</v>
       </c>
       <c r="C72" s="21">
@@ -4569,13 +6642,13 @@
         <v>0</v>
       </c>
       <c r="H72" s="15"/>
-      <c r="I72" s="64">
+      <c r="I72" s="40">
         <v>45.32</v>
       </c>
     </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A73" s="40"/>
-      <c r="B73" s="57"/>
+      <c r="A73" s="49"/>
+      <c r="B73" s="50"/>
       <c r="C73" s="21">
         <v>1</v>
       </c>
@@ -4594,13 +6667,13 @@
       <c r="H73" s="15">
         <v>2.4900000000000002</v>
       </c>
-      <c r="I73" s="64">
+      <c r="I73" s="40">
         <v>47.45</v>
       </c>
     </row>
     <row r="74" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A74" s="40"/>
-      <c r="B74" s="59"/>
+      <c r="A74" s="49"/>
+      <c r="B74" s="51"/>
       <c r="C74" s="22">
         <v>2</v>
       </c>
@@ -4619,38 +6692,38 @@
       <c r="H74" s="17">
         <v>2.37</v>
       </c>
-      <c r="I74" s="65">
+      <c r="I74" s="41">
         <v>38.479999999999997</v>
       </c>
     </row>
     <row r="75" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A75" s="40"/>
-      <c r="B75" s="55">
+      <c r="A75" s="49"/>
+      <c r="B75" s="52">
         <v>2</v>
       </c>
       <c r="C75" s="13">
         <v>0</v>
       </c>
-      <c r="D75" s="66">
+      <c r="D75" s="42">
         <v>0.02</v>
       </c>
-      <c r="E75" s="66">
+      <c r="E75" s="42">
         <v>16.88</v>
       </c>
-      <c r="F75" s="66">
+      <c r="F75" s="42">
         <v>20.88</v>
       </c>
-      <c r="G75" s="66">
-        <v>0</v>
-      </c>
-      <c r="H75" s="66"/>
-      <c r="I75" s="67">
+      <c r="G75" s="42">
+        <v>0</v>
+      </c>
+      <c r="H75" s="42"/>
+      <c r="I75" s="43">
         <v>37.799999999999997</v>
       </c>
     </row>
     <row r="76" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A76" s="40"/>
-      <c r="B76" s="57"/>
+      <c r="A76" s="49"/>
+      <c r="B76" s="50"/>
       <c r="C76" s="21">
         <v>1</v>
       </c>
@@ -4669,13 +6742,13 @@
       <c r="H76" s="15">
         <v>2.5</v>
       </c>
-      <c r="I76" s="64">
+      <c r="I76" s="40">
         <v>36.799999999999997</v>
       </c>
     </row>
     <row r="77" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A77" s="40"/>
-      <c r="B77" s="59"/>
+      <c r="A77" s="49"/>
+      <c r="B77" s="51"/>
       <c r="C77" s="22">
         <v>2</v>
       </c>
@@ -4694,40 +6767,40 @@
       <c r="H77" s="17">
         <v>2.37</v>
       </c>
-      <c r="I77" s="65">
+      <c r="I77" s="41">
         <v>30.98</v>
       </c>
     </row>
     <row r="78" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A78" s="40"/>
-      <c r="B78" s="55">
+      <c r="A78" s="49"/>
+      <c r="B78" s="52">
         <v>3</v>
       </c>
       <c r="C78" s="13">
         <v>0</v>
       </c>
-      <c r="D78" s="66">
+      <c r="D78" s="42">
         <v>0.03</v>
       </c>
-      <c r="E78" s="66">
+      <c r="E78" s="42">
         <v>1.33</v>
       </c>
-      <c r="F78" s="66">
+      <c r="F78" s="42">
         <v>22.19</v>
       </c>
-      <c r="G78" s="66">
-        <v>0</v>
-      </c>
-      <c r="H78" s="66">
+      <c r="G78" s="42">
+        <v>0</v>
+      </c>
+      <c r="H78" s="42">
         <v>0.32</v>
       </c>
-      <c r="I78" s="67">
+      <c r="I78" s="43">
         <v>23.54</v>
       </c>
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A79" s="40"/>
-      <c r="B79" s="57"/>
+      <c r="A79" s="49"/>
+      <c r="B79" s="50"/>
       <c r="C79" s="21">
         <v>1</v>
       </c>
@@ -4746,65 +6819,65 @@
       <c r="H79" s="15">
         <v>2.59</v>
       </c>
-      <c r="I79" s="64">
+      <c r="I79" s="40">
         <v>24.18</v>
       </c>
     </row>
     <row r="80" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A80" s="40"/>
-      <c r="B80" s="59"/>
-      <c r="C80" s="68">
+      <c r="A80" s="49"/>
+      <c r="B80" s="51"/>
+      <c r="C80" s="44">
         <v>2</v>
       </c>
-      <c r="D80" s="69">
+      <c r="D80" s="45">
         <v>0.03</v>
       </c>
-      <c r="E80" s="69">
+      <c r="E80" s="45">
         <v>1.25</v>
       </c>
-      <c r="F80" s="69">
+      <c r="F80" s="45">
         <v>13.24</v>
       </c>
-      <c r="G80" s="69">
-        <v>0</v>
-      </c>
-      <c r="H80" s="69">
+      <c r="G80" s="45">
+        <v>0</v>
+      </c>
+      <c r="H80" s="45">
         <v>2.54</v>
       </c>
-      <c r="I80" s="69">
+      <c r="I80" s="45">
         <v>14.54</v>
       </c>
     </row>
     <row r="81" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A81" s="40"/>
-      <c r="B81" s="55">
+      <c r="A81" s="49"/>
+      <c r="B81" s="52">
         <v>4</v>
       </c>
       <c r="C81" s="13">
         <v>0</v>
       </c>
-      <c r="D81" s="66">
+      <c r="D81" s="42">
         <v>0.02</v>
       </c>
-      <c r="E81" s="66">
+      <c r="E81" s="42">
         <v>16.940000000000001</v>
       </c>
-      <c r="F81" s="66">
+      <c r="F81" s="42">
         <v>29.83</v>
       </c>
-      <c r="G81" s="66">
-        <v>0</v>
-      </c>
-      <c r="H81" s="66">
+      <c r="G81" s="42">
+        <v>0</v>
+      </c>
+      <c r="H81" s="42">
         <v>8.8800000000000008</v>
       </c>
-      <c r="I81" s="67">
+      <c r="I81" s="43">
         <v>46.8</v>
       </c>
     </row>
     <row r="82" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A82" s="40"/>
-      <c r="B82" s="57"/>
+      <c r="A82" s="49"/>
+      <c r="B82" s="50"/>
       <c r="C82" s="21">
         <v>1</v>
       </c>
@@ -4823,13 +6896,13 @@
       <c r="H82" s="15">
         <v>10.32</v>
       </c>
-      <c r="I82" s="64">
+      <c r="I82" s="40">
         <v>36.200000000000003</v>
       </c>
     </row>
     <row r="83" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A83" s="40"/>
-      <c r="B83" s="59"/>
+      <c r="A83" s="49"/>
+      <c r="B83" s="51"/>
       <c r="C83" s="22">
         <v>2</v>
       </c>
@@ -4848,7 +6921,7 @@
       <c r="H83" s="17">
         <v>10.32</v>
       </c>
-      <c r="I83" s="65">
+      <c r="I83" s="41">
         <v>28.43</v>
       </c>
     </row>
@@ -4861,10 +6934,10 @@
       <c r="I84" s="23"/>
     </row>
     <row r="85" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A85" s="40">
-        <v>256</v>
-      </c>
-      <c r="B85" s="57">
+      <c r="A85" s="49">
+        <v>512</v>
+      </c>
+      <c r="B85" s="50">
         <v>0</v>
       </c>
       <c r="C85" s="21">
@@ -4883,13 +6956,13 @@
         <v>0</v>
       </c>
       <c r="H85" s="15"/>
-      <c r="I85" s="64">
+      <c r="I85" s="40">
         <v>50.86</v>
       </c>
     </row>
     <row r="86" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A86" s="40"/>
-      <c r="B86" s="57"/>
+      <c r="A86" s="49"/>
+      <c r="B86" s="50"/>
       <c r="C86" s="21">
         <v>1</v>
       </c>
@@ -4908,13 +6981,13 @@
       <c r="H86" s="15">
         <v>2.4900000000000002</v>
       </c>
-      <c r="I86" s="64">
+      <c r="I86" s="40">
         <v>49.31</v>
       </c>
     </row>
     <row r="87" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A87" s="40"/>
-      <c r="B87" s="59"/>
+      <c r="A87" s="49"/>
+      <c r="B87" s="51"/>
       <c r="C87" s="22">
         <v>2</v>
       </c>
@@ -4933,38 +7006,38 @@
       <c r="H87" s="17">
         <v>2.37</v>
       </c>
-      <c r="I87" s="65">
+      <c r="I87" s="41">
         <v>43.86</v>
       </c>
     </row>
     <row r="88" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A88" s="40"/>
-      <c r="B88" s="55">
+      <c r="A88" s="49"/>
+      <c r="B88" s="52">
         <v>2</v>
       </c>
       <c r="C88" s="13">
         <v>0</v>
       </c>
-      <c r="D88" s="66">
+      <c r="D88" s="42">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="E88" s="66">
+      <c r="E88" s="42">
         <v>17.16</v>
       </c>
-      <c r="F88" s="66">
+      <c r="F88" s="42">
         <v>21.37</v>
       </c>
-      <c r="G88" s="66">
-        <v>0</v>
-      </c>
-      <c r="H88" s="66"/>
-      <c r="I88" s="67">
+      <c r="G88" s="42">
+        <v>0</v>
+      </c>
+      <c r="H88" s="42"/>
+      <c r="I88" s="43">
         <v>38.6</v>
       </c>
     </row>
     <row r="89" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A89" s="40"/>
-      <c r="B89" s="57"/>
+      <c r="A89" s="49"/>
+      <c r="B89" s="50"/>
       <c r="C89" s="21">
         <v>1</v>
       </c>
@@ -4983,13 +7056,13 @@
       <c r="H89" s="15">
         <v>2.4900000000000002</v>
       </c>
-      <c r="I89" s="64">
+      <c r="I89" s="40">
         <v>40.9</v>
       </c>
     </row>
     <row r="90" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A90" s="40"/>
-      <c r="B90" s="59"/>
+      <c r="A90" s="49"/>
+      <c r="B90" s="51"/>
       <c r="C90" s="22">
         <v>2</v>
       </c>
@@ -5008,40 +7081,40 @@
       <c r="H90" s="17">
         <v>2.37</v>
       </c>
-      <c r="I90" s="65">
+      <c r="I90" s="41">
         <v>35.39</v>
       </c>
     </row>
     <row r="91" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A91" s="40"/>
-      <c r="B91" s="55">
+      <c r="A91" s="49"/>
+      <c r="B91" s="52">
         <v>3</v>
       </c>
       <c r="C91" s="13">
         <v>0</v>
       </c>
-      <c r="D91" s="66">
+      <c r="D91" s="42">
         <v>0.04</v>
       </c>
-      <c r="E91" s="66">
+      <c r="E91" s="42">
         <v>1.21</v>
       </c>
-      <c r="F91" s="66">
+      <c r="F91" s="42">
         <v>21.91</v>
       </c>
-      <c r="G91" s="66">
-        <v>0</v>
-      </c>
-      <c r="H91" s="66">
+      <c r="G91" s="42">
+        <v>0</v>
+      </c>
+      <c r="H91" s="42">
         <v>0.32</v>
       </c>
-      <c r="I91" s="67">
+      <c r="I91" s="43">
         <v>23.16</v>
       </c>
     </row>
     <row r="92" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A92" s="40"/>
-      <c r="B92" s="57"/>
+      <c r="A92" s="49"/>
+      <c r="B92" s="50"/>
       <c r="C92" s="21">
         <v>1</v>
       </c>
@@ -5060,65 +7133,65 @@
       <c r="H92" s="15">
         <v>2.54</v>
       </c>
-      <c r="I92" s="64">
+      <c r="I92" s="40">
         <v>22.92</v>
       </c>
     </row>
     <row r="93" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A93" s="40"/>
-      <c r="B93" s="59"/>
-      <c r="C93" s="68">
+      <c r="A93" s="49"/>
+      <c r="B93" s="51"/>
+      <c r="C93" s="44">
         <v>2</v>
       </c>
-      <c r="D93" s="69">
+      <c r="D93" s="45">
         <v>0.04</v>
       </c>
-      <c r="E93" s="69">
+      <c r="E93" s="45">
         <v>1.2</v>
       </c>
-      <c r="F93" s="69">
+      <c r="F93" s="45">
         <v>17.690000000000001</v>
       </c>
-      <c r="G93" s="69">
-        <v>0</v>
-      </c>
-      <c r="H93" s="69">
+      <c r="G93" s="45">
+        <v>0</v>
+      </c>
+      <c r="H93" s="45">
         <v>2.4500000000000002</v>
       </c>
-      <c r="I93" s="69">
+      <c r="I93" s="45">
         <v>18.93</v>
       </c>
     </row>
     <row r="94" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A94" s="40"/>
-      <c r="B94" s="55">
+      <c r="A94" s="49"/>
+      <c r="B94" s="52">
         <v>4</v>
       </c>
       <c r="C94" s="13">
         <v>0</v>
       </c>
-      <c r="D94" s="66">
+      <c r="D94" s="42">
         <v>0.03</v>
       </c>
-      <c r="E94" s="66">
+      <c r="E94" s="42">
         <v>15.59</v>
       </c>
-      <c r="F94" s="66">
+      <c r="F94" s="42">
         <v>24.5</v>
       </c>
-      <c r="G94" s="66">
-        <v>0</v>
-      </c>
-      <c r="H94" s="66">
+      <c r="G94" s="42">
+        <v>0</v>
+      </c>
+      <c r="H94" s="42">
         <v>8.8800000000000008</v>
       </c>
-      <c r="I94" s="67">
+      <c r="I94" s="43">
         <v>40.130000000000003</v>
       </c>
     </row>
     <row r="95" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A95" s="40"/>
-      <c r="B95" s="57"/>
+      <c r="A95" s="49"/>
+      <c r="B95" s="50"/>
       <c r="C95" s="21">
         <v>1</v>
       </c>
@@ -5137,13 +7210,13 @@
       <c r="H95" s="15">
         <v>10.28</v>
       </c>
-      <c r="I95" s="64">
+      <c r="I95" s="40">
         <v>37.04</v>
       </c>
     </row>
     <row r="96" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A96" s="40"/>
-      <c r="B96" s="59"/>
+      <c r="A96" s="49"/>
+      <c r="B96" s="51"/>
       <c r="C96" s="22">
         <v>2</v>
       </c>
@@ -5162,22 +7235,20 @@
       <c r="H96" s="17">
         <v>10.29</v>
       </c>
-      <c r="I96" s="65">
+      <c r="I96" s="41">
         <v>32.14</v>
       </c>
     </row>
   </sheetData>
   <dataConsolidate/>
   <mergeCells count="53">
-    <mergeCell ref="E24:L24"/>
-    <mergeCell ref="E25:L25"/>
-    <mergeCell ref="B16:G16"/>
     <mergeCell ref="M16:O16"/>
     <mergeCell ref="A33:A44"/>
     <mergeCell ref="B33:B35"/>
     <mergeCell ref="B36:B38"/>
     <mergeCell ref="B39:B41"/>
     <mergeCell ref="B42:B44"/>
+    <mergeCell ref="M18:P18"/>
     <mergeCell ref="C1:D1"/>
     <mergeCell ref="C2:D2"/>
     <mergeCell ref="E2:F2"/>
@@ -5189,7 +7260,6 @@
     <mergeCell ref="B88:B90"/>
     <mergeCell ref="B91:B93"/>
     <mergeCell ref="B94:B96"/>
-    <mergeCell ref="M18:P18"/>
     <mergeCell ref="B8:G8"/>
     <mergeCell ref="B11:G11"/>
     <mergeCell ref="B10:G10"/>
@@ -5200,6 +7270,9 @@
     <mergeCell ref="B62:B64"/>
     <mergeCell ref="B65:B67"/>
     <mergeCell ref="B68:B70"/>
+    <mergeCell ref="E24:L24"/>
+    <mergeCell ref="E25:L25"/>
+    <mergeCell ref="B16:G16"/>
     <mergeCell ref="A59:A70"/>
     <mergeCell ref="A72:A83"/>
     <mergeCell ref="B72:B74"/>
@@ -5225,4 +7298,698 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{522BF9F7-F0C9-DC4D-83C2-D01FE72552A7}">
+  <dimension ref="B2:R20"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="10.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.1640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.1640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="5.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="6.5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="5.33203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.83203125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="6.5" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="5.1640625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="7" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="8.1640625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="5.33203125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="6.5" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="5.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="3" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="4" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B4" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="5" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B5" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="7" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B7" s="77" t="s">
+        <v>63</v>
+      </c>
+      <c r="C7" s="77"/>
+      <c r="D7" s="77"/>
+      <c r="E7" s="77"/>
+      <c r="F7" s="77"/>
+      <c r="G7" s="77"/>
+      <c r="H7" s="77"/>
+      <c r="I7" s="77"/>
+      <c r="K7" s="77" t="s">
+        <v>62</v>
+      </c>
+      <c r="L7" s="77"/>
+      <c r="M7" s="77"/>
+      <c r="N7" s="77"/>
+      <c r="O7" s="77"/>
+      <c r="P7" s="77"/>
+      <c r="Q7" s="77"/>
+      <c r="R7" s="77"/>
+    </row>
+    <row r="8" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B8" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I8" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="K8" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="L8" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="M8" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="N8" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="O8" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="P8" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q8" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="R8" s="6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B9" s="49" t="s">
+        <v>58</v>
+      </c>
+      <c r="C9" s="2">
+        <v>16</v>
+      </c>
+      <c r="D9" s="1">
+        <v>0.02</v>
+      </c>
+      <c r="E9" s="1">
+        <v>1.28</v>
+      </c>
+      <c r="F9" s="1">
+        <v>6.1</v>
+      </c>
+      <c r="G9" s="1">
+        <v>0</v>
+      </c>
+      <c r="H9" s="1">
+        <v>1.9</v>
+      </c>
+      <c r="I9" s="76">
+        <v>7.41</v>
+      </c>
+      <c r="K9" s="49" t="s">
+        <v>58</v>
+      </c>
+      <c r="L9" s="2">
+        <v>16</v>
+      </c>
+      <c r="M9" s="5">
+        <v>0.02</v>
+      </c>
+      <c r="N9" s="5">
+        <v>3</v>
+      </c>
+      <c r="O9" s="5">
+        <v>16.920000000000002</v>
+      </c>
+      <c r="P9" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="5">
+        <v>7.35</v>
+      </c>
+      <c r="R9" s="74">
+        <v>19.940000000000001</v>
+      </c>
+    </row>
+    <row r="10" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B10" s="49"/>
+      <c r="C10" s="2">
+        <v>32</v>
+      </c>
+      <c r="D10" s="1">
+        <v>0.04</v>
+      </c>
+      <c r="E10" s="1">
+        <v>0.95</v>
+      </c>
+      <c r="F10" s="1">
+        <v>5.39</v>
+      </c>
+      <c r="G10" s="1">
+        <v>0</v>
+      </c>
+      <c r="H10" s="1">
+        <v>1.29</v>
+      </c>
+      <c r="I10" s="76">
+        <v>6.39</v>
+      </c>
+      <c r="K10" s="49"/>
+      <c r="L10" s="2">
+        <v>32</v>
+      </c>
+      <c r="M10" s="5">
+        <v>0.04</v>
+      </c>
+      <c r="N10" s="5">
+        <v>1.94</v>
+      </c>
+      <c r="O10" s="5">
+        <v>13.32</v>
+      </c>
+      <c r="P10" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q10" s="5">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="R10" s="74">
+        <v>15.3</v>
+      </c>
+    </row>
+    <row r="11" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B11" s="49"/>
+      <c r="C11" s="2">
+        <v>64</v>
+      </c>
+      <c r="D11" s="1">
+        <v>0.05</v>
+      </c>
+      <c r="E11" s="1">
+        <v>1.03</v>
+      </c>
+      <c r="F11" s="1">
+        <v>5.66</v>
+      </c>
+      <c r="G11" s="1">
+        <v>0</v>
+      </c>
+      <c r="H11" s="1">
+        <v>1.07</v>
+      </c>
+      <c r="I11" s="76">
+        <v>6.75</v>
+      </c>
+      <c r="K11" s="49"/>
+      <c r="L11" s="2">
+        <v>64</v>
+      </c>
+      <c r="M11" s="5">
+        <v>0.06</v>
+      </c>
+      <c r="N11" s="5">
+        <v>1.34</v>
+      </c>
+      <c r="O11" s="5">
+        <v>12.37</v>
+      </c>
+      <c r="P11" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q11" s="5">
+        <v>3.63</v>
+      </c>
+      <c r="R11" s="74">
+        <v>13.78</v>
+      </c>
+    </row>
+    <row r="12" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B12" s="49"/>
+      <c r="C12" s="2">
+        <v>128</v>
+      </c>
+      <c r="D12" s="1">
+        <v>0.03</v>
+      </c>
+      <c r="E12" s="1">
+        <v>0.91</v>
+      </c>
+      <c r="F12" s="1">
+        <v>5.4</v>
+      </c>
+      <c r="G12" s="1">
+        <v>0</v>
+      </c>
+      <c r="H12" s="1">
+        <v>0.83</v>
+      </c>
+      <c r="I12" s="76">
+        <v>6.34</v>
+      </c>
+      <c r="K12" s="49"/>
+      <c r="L12" s="2">
+        <v>128</v>
+      </c>
+      <c r="M12" s="5">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="N12" s="5">
+        <v>1.46</v>
+      </c>
+      <c r="O12" s="5">
+        <v>13.01</v>
+      </c>
+      <c r="P12" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q12" s="5">
+        <v>3.08</v>
+      </c>
+      <c r="R12" s="74">
+        <v>14.54</v>
+      </c>
+    </row>
+    <row r="13" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B13" s="49"/>
+      <c r="C13" s="2">
+        <v>256</v>
+      </c>
+      <c r="D13" s="1">
+        <v>0.04</v>
+      </c>
+      <c r="E13" s="1">
+        <v>0.92</v>
+      </c>
+      <c r="F13" s="1">
+        <v>5.37</v>
+      </c>
+      <c r="G13" s="1">
+        <v>0</v>
+      </c>
+      <c r="H13" s="1">
+        <v>0.74</v>
+      </c>
+      <c r="I13" s="76">
+        <v>6.33</v>
+      </c>
+      <c r="K13" s="49"/>
+      <c r="L13" s="2">
+        <v>256</v>
+      </c>
+      <c r="M13" s="5">
+        <v>0.04</v>
+      </c>
+      <c r="N13" s="5">
+        <v>1.2</v>
+      </c>
+      <c r="O13" s="5">
+        <v>13.98</v>
+      </c>
+      <c r="P13" s="5">
+        <v>0.01</v>
+      </c>
+      <c r="Q13" s="5">
+        <v>2.52</v>
+      </c>
+      <c r="R13" s="74">
+        <v>15.23</v>
+      </c>
+    </row>
+    <row r="14" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B14" s="49"/>
+      <c r="C14" s="2">
+        <v>512</v>
+      </c>
+      <c r="D14" s="1">
+        <v>0.03</v>
+      </c>
+      <c r="E14" s="1">
+        <v>0.93</v>
+      </c>
+      <c r="F14" s="1">
+        <v>7.64</v>
+      </c>
+      <c r="G14" s="1">
+        <v>0</v>
+      </c>
+      <c r="H14" s="1">
+        <v>0.65</v>
+      </c>
+      <c r="I14" s="76">
+        <v>8.6</v>
+      </c>
+      <c r="K14" s="49"/>
+      <c r="L14" s="2">
+        <v>512</v>
+      </c>
+      <c r="M14" s="5">
+        <v>0.05</v>
+      </c>
+      <c r="N14" s="5">
+        <v>1.1299999999999999</v>
+      </c>
+      <c r="O14" s="5">
+        <v>16.559999999999999</v>
+      </c>
+      <c r="P14" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="5">
+        <v>2.52</v>
+      </c>
+      <c r="R14" s="74">
+        <v>17.75</v>
+      </c>
+    </row>
+    <row r="15" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B15" s="49" t="s">
+        <v>59</v>
+      </c>
+      <c r="C15" s="2">
+        <v>16</v>
+      </c>
+      <c r="D15" s="1">
+        <v>0.02</v>
+      </c>
+      <c r="E15" s="1">
+        <v>0.72</v>
+      </c>
+      <c r="F15" s="1">
+        <v>5.56</v>
+      </c>
+      <c r="G15" s="1">
+        <v>0</v>
+      </c>
+      <c r="H15" s="1">
+        <v>4.67</v>
+      </c>
+      <c r="I15" s="75">
+        <v>6.24</v>
+      </c>
+      <c r="K15" s="49" t="s">
+        <v>59</v>
+      </c>
+      <c r="L15" s="2">
+        <v>16</v>
+      </c>
+      <c r="M15" s="5">
+        <v>0.03</v>
+      </c>
+      <c r="N15" s="5">
+        <v>1.65</v>
+      </c>
+      <c r="O15" s="5">
+        <v>11</v>
+      </c>
+      <c r="P15" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q15" s="5">
+        <v>10.49</v>
+      </c>
+      <c r="R15" s="73">
+        <v>12.47</v>
+      </c>
+    </row>
+    <row r="16" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B16" s="49"/>
+      <c r="C16" s="2">
+        <v>32</v>
+      </c>
+      <c r="D16" s="1">
+        <v>0.03</v>
+      </c>
+      <c r="E16" s="1">
+        <v>0.79</v>
+      </c>
+      <c r="F16" s="1">
+        <v>3.95</v>
+      </c>
+      <c r="G16" s="1">
+        <v>0</v>
+      </c>
+      <c r="H16" s="1">
+        <v>2.66</v>
+      </c>
+      <c r="I16" s="75">
+        <v>4.7699999999999996</v>
+      </c>
+      <c r="K16" s="49"/>
+      <c r="L16" s="2">
+        <v>32</v>
+      </c>
+      <c r="M16" s="5">
+        <v>0.04</v>
+      </c>
+      <c r="N16" s="5">
+        <v>1.4</v>
+      </c>
+      <c r="O16" s="5">
+        <v>7.42</v>
+      </c>
+      <c r="P16" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q16" s="5">
+        <v>6.73</v>
+      </c>
+      <c r="R16" s="73">
+        <v>8.67</v>
+      </c>
+    </row>
+    <row r="17" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B17" s="49"/>
+      <c r="C17" s="2">
+        <v>64</v>
+      </c>
+      <c r="D17" s="1">
+        <v>0.03</v>
+      </c>
+      <c r="E17" s="1">
+        <v>0.7</v>
+      </c>
+      <c r="F17" s="1">
+        <v>2.3199999999999998</v>
+      </c>
+      <c r="G17" s="1">
+        <v>0</v>
+      </c>
+      <c r="H17" s="1">
+        <v>1.52</v>
+      </c>
+      <c r="I17" s="75">
+        <v>3.06</v>
+      </c>
+      <c r="K17" s="49"/>
+      <c r="L17" s="2">
+        <v>64</v>
+      </c>
+      <c r="M17" s="5">
+        <v>0.03</v>
+      </c>
+      <c r="N17" s="5">
+        <v>0.98</v>
+      </c>
+      <c r="O17" s="5">
+        <v>5.73</v>
+      </c>
+      <c r="P17" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q17" s="5">
+        <v>4.6100000000000003</v>
+      </c>
+      <c r="R17" s="73">
+        <v>6.46</v>
+      </c>
+    </row>
+    <row r="18" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B18" s="49"/>
+      <c r="C18" s="2">
+        <v>128</v>
+      </c>
+      <c r="D18" s="1">
+        <v>0.02</v>
+      </c>
+      <c r="E18" s="1">
+        <v>0.64</v>
+      </c>
+      <c r="F18" s="1">
+        <v>1.47</v>
+      </c>
+      <c r="G18" s="1">
+        <v>0</v>
+      </c>
+      <c r="H18" s="1">
+        <v>0.92</v>
+      </c>
+      <c r="I18" s="75">
+        <v>2.13</v>
+      </c>
+      <c r="K18" s="49"/>
+      <c r="L18" s="2">
+        <v>128</v>
+      </c>
+      <c r="M18" s="5">
+        <v>0.24</v>
+      </c>
+      <c r="N18" s="5">
+        <v>0.97</v>
+      </c>
+      <c r="O18" s="5">
+        <v>3.07</v>
+      </c>
+      <c r="P18" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q18" s="5">
+        <v>2.31</v>
+      </c>
+      <c r="R18" s="73">
+        <v>3.92</v>
+      </c>
+    </row>
+    <row r="19" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B19" s="49"/>
+      <c r="C19" s="2">
+        <v>256</v>
+      </c>
+      <c r="D19" s="1">
+        <v>0.03</v>
+      </c>
+      <c r="E19" s="1">
+        <v>0.61</v>
+      </c>
+      <c r="F19" s="1">
+        <v>1.08</v>
+      </c>
+      <c r="G19" s="1">
+        <v>0</v>
+      </c>
+      <c r="H19" s="1">
+        <v>0.6</v>
+      </c>
+      <c r="I19" s="75">
+        <v>1.71</v>
+      </c>
+      <c r="K19" s="49"/>
+      <c r="L19" s="2">
+        <v>256</v>
+      </c>
+      <c r="M19" s="5">
+        <v>0.04</v>
+      </c>
+      <c r="N19" s="5">
+        <v>0.72</v>
+      </c>
+      <c r="O19" s="5">
+        <v>2.19</v>
+      </c>
+      <c r="P19" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q19" s="5">
+        <v>1.25</v>
+      </c>
+      <c r="R19" s="73">
+        <v>2.76</v>
+      </c>
+    </row>
+    <row r="20" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B20" s="49"/>
+      <c r="C20" s="2">
+        <v>512</v>
+      </c>
+      <c r="D20" s="1">
+        <v>0.22</v>
+      </c>
+      <c r="E20" s="1">
+        <v>0.83</v>
+      </c>
+      <c r="F20" s="1">
+        <v>1.03</v>
+      </c>
+      <c r="G20" s="1">
+        <v>0</v>
+      </c>
+      <c r="H20" s="1">
+        <v>0.46</v>
+      </c>
+      <c r="I20" s="75">
+        <v>1.9</v>
+      </c>
+      <c r="K20" s="49"/>
+      <c r="L20" s="2">
+        <v>512</v>
+      </c>
+      <c r="M20" s="5">
+        <v>0.03</v>
+      </c>
+      <c r="N20" s="5">
+        <v>0.67</v>
+      </c>
+      <c r="O20" s="5">
+        <v>1.32</v>
+      </c>
+      <c r="P20" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q20" s="5">
+        <v>0.72</v>
+      </c>
+      <c r="R20" s="73">
+        <v>1.93</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="B7:I7"/>
+    <mergeCell ref="K7:R7"/>
+    <mergeCell ref="K9:K14"/>
+    <mergeCell ref="K15:K20"/>
+    <mergeCell ref="B9:B14"/>
+    <mergeCell ref="B15:B20"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/cori_timings.xlsx
+++ b/cori_timings.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wkliao/Fermi/Github/pandana_read_case/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25C27F5F-EC3C-5648-BC0B-CADF88427F4D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{330967AB-9729-CA44-A621-D420D6081DA6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="27640" windowHeight="17540" activeTab="2" xr2:uid="{F0CFE945-D4D9-0245-8556-DBF4C0781B9C}"/>
+    <workbookView xWindow="0" yWindow="480" windowWidth="27820" windowHeight="17540" activeTab="2" xr2:uid="{F0CFE945-D4D9-0245-8556-DBF4C0781B9C}"/>
   </bookViews>
   <sheets>
     <sheet name="dset.txt" sheetId="2" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="65">
   <si>
     <t>evt.seq</t>
   </si>
@@ -228,6 +228,9 @@
   <si>
     <t>dset.txt   (15 groups 123 datasets)</t>
   </si>
+  <si>
+    <t>dataset</t>
+  </si>
 </sst>
 </file>
 
@@ -379,7 +382,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="78">
+  <cellXfs count="88">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -457,7 +460,16 @@
     <xf numFmtId="3" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="4" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
@@ -466,29 +478,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -523,19 +514,45 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="4" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="4" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="4" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="4" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="4" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -815,6 +832,70 @@
             </c:ext>
           </c:extLst>
         </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>dataset parallelism</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>parallelism!$R$21:$R$26</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>10.89</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7.53</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.42</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.06</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.44</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-C7AA-9445-8DD9-9E6DC40418EF}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
@@ -835,6 +916,61 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Number of processes</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -1245,6 +1381,70 @@
             </c:ext>
           </c:extLst>
         </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>dataset parallelism</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>parallelism!$I$21:$I$26</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>4.47</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.02</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.23</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.07</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.66</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.28</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-EB06-AC42-8E36-7BEA508BAF17}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
@@ -1265,6 +1465,61 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Number of processes</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -2510,13 +2765,13 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>12700</xdr:colOff>
-      <xdr:row>20</xdr:row>
+      <xdr:row>26</xdr:row>
       <xdr:rowOff>196850</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
       <xdr:colOff>50800</xdr:colOff>
-      <xdr:row>37</xdr:row>
+      <xdr:row>43</xdr:row>
       <xdr:rowOff>12700</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -2546,13 +2801,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>12700</xdr:colOff>
-      <xdr:row>21</xdr:row>
+      <xdr:row>27</xdr:row>
       <xdr:rowOff>25400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>36</xdr:row>
+      <xdr:row>42</xdr:row>
       <xdr:rowOff>190500</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -2880,9 +3135,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4879E79B-B30B-AE49-BD61-A3FC5BE1E80A}">
-  <dimension ref="A1:P95"/>
+  <dimension ref="A1:P96"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="H11" sqref="H11"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -2902,23 +3159,23 @@
       <c r="B1" t="s">
         <v>10</v>
       </c>
-      <c r="C1" s="53" t="s">
+      <c r="C1" s="72" t="s">
         <v>11</v>
       </c>
-      <c r="D1" s="53"/>
+      <c r="D1" s="72"/>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="53" t="s">
+      <c r="C2" s="72" t="s">
         <v>13</v>
       </c>
-      <c r="D2" s="53"/>
-      <c r="E2" s="53" t="s">
+      <c r="D2" s="72"/>
+      <c r="E2" s="72" t="s">
         <v>14</v>
       </c>
-      <c r="F2" s="53"/>
+      <c r="F2" s="72"/>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
@@ -2955,14 +3212,14 @@
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="B6" s="60" t="s">
+      <c r="B6" s="58" t="s">
         <v>16</v>
       </c>
-      <c r="C6" s="61"/>
-      <c r="D6" s="61"/>
-      <c r="E6" s="61"/>
-      <c r="F6" s="61"/>
-      <c r="G6" s="61"/>
+      <c r="C6" s="59"/>
+      <c r="D6" s="59"/>
+      <c r="E6" s="59"/>
+      <c r="F6" s="59"/>
+      <c r="G6" s="59"/>
       <c r="H6" s="15">
         <v>2035.05</v>
       </c>
@@ -2971,14 +3228,14 @@
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="B7" s="60" t="s">
+      <c r="B7" s="58" t="s">
         <v>17</v>
       </c>
-      <c r="C7" s="61"/>
-      <c r="D7" s="61"/>
-      <c r="E7" s="61"/>
-      <c r="F7" s="61"/>
-      <c r="G7" s="61"/>
+      <c r="C7" s="59"/>
+      <c r="D7" s="59"/>
+      <c r="E7" s="59"/>
+      <c r="F7" s="59"/>
+      <c r="G7" s="59"/>
       <c r="H7" s="15">
         <v>7264.16</v>
       </c>
@@ -2987,14 +3244,14 @@
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="B8" s="58" t="s">
+      <c r="B8" s="75" t="s">
         <v>18</v>
       </c>
-      <c r="C8" s="59"/>
-      <c r="D8" s="59"/>
-      <c r="E8" s="59"/>
-      <c r="F8" s="59"/>
-      <c r="G8" s="59"/>
+      <c r="C8" s="76"/>
+      <c r="D8" s="76"/>
+      <c r="E8" s="76"/>
+      <c r="F8" s="76"/>
+      <c r="G8" s="76"/>
       <c r="H8" s="17">
         <v>9299.2099999999991</v>
       </c>
@@ -3010,53 +3267,53 @@
       <c r="H9" s="1"/>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="B10" s="56" t="s">
+      <c r="B10" s="73" t="s">
         <v>27</v>
       </c>
-      <c r="C10" s="57"/>
-      <c r="D10" s="57"/>
-      <c r="E10" s="57"/>
-      <c r="F10" s="57"/>
-      <c r="G10" s="57"/>
+      <c r="C10" s="74"/>
+      <c r="D10" s="74"/>
+      <c r="E10" s="74"/>
+      <c r="F10" s="74"/>
+      <c r="G10" s="74"/>
       <c r="H10" s="8">
         <v>15</v>
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="B11" s="60" t="s">
+      <c r="B11" s="58" t="s">
         <v>28</v>
       </c>
-      <c r="C11" s="61"/>
-      <c r="D11" s="61"/>
-      <c r="E11" s="61"/>
-      <c r="F11" s="61"/>
-      <c r="G11" s="61"/>
-      <c r="H11" s="10">
+      <c r="C11" s="59"/>
+      <c r="D11" s="59"/>
+      <c r="E11" s="59"/>
+      <c r="F11" s="59"/>
+      <c r="G11" s="59"/>
+      <c r="H11" s="87">
         <v>123</v>
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="B12" s="60" t="s">
+      <c r="B12" s="58" t="s">
         <v>22</v>
       </c>
-      <c r="C12" s="61"/>
-      <c r="D12" s="61"/>
-      <c r="E12" s="61"/>
-      <c r="F12" s="61"/>
-      <c r="G12" s="61"/>
+      <c r="C12" s="59"/>
+      <c r="D12" s="59"/>
+      <c r="E12" s="59"/>
+      <c r="F12" s="59"/>
+      <c r="G12" s="59"/>
       <c r="H12" s="10">
         <v>4413034</v>
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="B13" s="58" t="s">
+      <c r="B13" s="75" t="s">
         <v>23</v>
       </c>
-      <c r="C13" s="59"/>
-      <c r="D13" s="59"/>
-      <c r="E13" s="59"/>
-      <c r="F13" s="59"/>
-      <c r="G13" s="59"/>
+      <c r="C13" s="76"/>
+      <c r="D13" s="76"/>
+      <c r="E13" s="76"/>
+      <c r="F13" s="76"/>
+      <c r="G13" s="76"/>
       <c r="H13" s="12">
         <v>9389</v>
       </c>
@@ -3069,14 +3326,14 @@
       <c r="H14" s="4"/>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="B15" s="56" t="s">
+      <c r="B15" s="73" t="s">
         <v>30</v>
       </c>
-      <c r="C15" s="57"/>
-      <c r="D15" s="57"/>
-      <c r="E15" s="57"/>
-      <c r="F15" s="57"/>
-      <c r="G15" s="57"/>
+      <c r="C15" s="74"/>
+      <c r="D15" s="74"/>
+      <c r="E15" s="74"/>
+      <c r="F15" s="74"/>
+      <c r="G15" s="74"/>
       <c r="H15" s="46">
         <v>32</v>
       </c>
@@ -3094,14 +3351,14 @@
       </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="B16" s="60" t="s">
+      <c r="B16" s="58" t="s">
         <v>52</v>
       </c>
-      <c r="C16" s="61"/>
-      <c r="D16" s="61"/>
-      <c r="E16" s="61"/>
-      <c r="F16" s="61"/>
-      <c r="G16" s="61"/>
+      <c r="C16" s="59"/>
+      <c r="D16" s="59"/>
+      <c r="E16" s="59"/>
+      <c r="F16" s="59"/>
+      <c r="G16" s="59"/>
       <c r="H16" s="9">
         <f>$H$13/H15</f>
         <v>293.40625</v>
@@ -3122,21 +3379,21 @@
         <f t="shared" si="0"/>
         <v>18.337890625</v>
       </c>
-      <c r="M16" s="62" t="s">
+      <c r="M16" s="60" t="s">
         <v>53</v>
       </c>
-      <c r="N16" s="63"/>
-      <c r="O16" s="63"/>
+      <c r="N16" s="61"/>
+      <c r="O16" s="61"/>
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="B17" s="60" t="s">
+      <c r="B17" s="58" t="s">
         <v>21</v>
       </c>
-      <c r="C17" s="61"/>
-      <c r="D17" s="61"/>
-      <c r="E17" s="61"/>
-      <c r="F17" s="61"/>
-      <c r="G17" s="61"/>
+      <c r="C17" s="59"/>
+      <c r="D17" s="59"/>
+      <c r="E17" s="59"/>
+      <c r="F17" s="59"/>
+      <c r="G17" s="59"/>
       <c r="H17" s="25">
         <v>12737</v>
       </c>
@@ -3154,14 +3411,14 @@
       </c>
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="B18" s="60" t="s">
+      <c r="B18" s="58" t="s">
         <v>24</v>
       </c>
-      <c r="C18" s="61"/>
-      <c r="D18" s="61"/>
-      <c r="E18" s="61"/>
-      <c r="F18" s="61"/>
-      <c r="G18" s="61"/>
+      <c r="C18" s="59"/>
+      <c r="D18" s="59"/>
+      <c r="E18" s="59"/>
+      <c r="F18" s="59"/>
+      <c r="G18" s="59"/>
       <c r="H18" s="48">
         <v>398.03</v>
       </c>
@@ -3180,19 +3437,19 @@
       <c r="M18" s="71" t="s">
         <v>36</v>
       </c>
-      <c r="N18" s="63"/>
-      <c r="O18" s="63"/>
-      <c r="P18" s="63"/>
+      <c r="N18" s="61"/>
+      <c r="O18" s="61"/>
+      <c r="P18" s="61"/>
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="B19" s="60" t="s">
+      <c r="B19" s="58" t="s">
         <v>25</v>
       </c>
-      <c r="C19" s="61"/>
-      <c r="D19" s="61"/>
-      <c r="E19" s="61"/>
-      <c r="F19" s="61"/>
-      <c r="G19" s="61"/>
+      <c r="C19" s="59"/>
+      <c r="D19" s="59"/>
+      <c r="E19" s="59"/>
+      <c r="F19" s="59"/>
+      <c r="G19" s="59"/>
       <c r="H19" s="25">
         <v>3289</v>
       </c>
@@ -3210,14 +3467,14 @@
       </c>
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="B20" s="58" t="s">
+      <c r="B20" s="75" t="s">
         <v>26</v>
       </c>
-      <c r="C20" s="59"/>
-      <c r="D20" s="59"/>
-      <c r="E20" s="59"/>
-      <c r="F20" s="59"/>
-      <c r="G20" s="59"/>
+      <c r="C20" s="76"/>
+      <c r="D20" s="76"/>
+      <c r="E20" s="76"/>
+      <c r="F20" s="76"/>
+      <c r="G20" s="76"/>
       <c r="H20" s="47">
         <v>3</v>
       </c>
@@ -3247,78 +3504,78 @@
       <c r="K21" s="25"/>
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="B22" s="66" t="s">
+      <c r="B22" s="64" t="s">
         <v>42</v>
       </c>
-      <c r="C22" s="52"/>
+      <c r="C22" s="54"/>
       <c r="D22" s="13">
         <v>0</v>
       </c>
-      <c r="E22" s="54" t="s">
+      <c r="E22" s="69" t="s">
         <v>43</v>
       </c>
-      <c r="F22" s="54"/>
-      <c r="G22" s="54"/>
-      <c r="H22" s="54"/>
-      <c r="I22" s="54"/>
-      <c r="J22" s="54"/>
-      <c r="K22" s="54"/>
-      <c r="L22" s="55"/>
+      <c r="F22" s="69"/>
+      <c r="G22" s="69"/>
+      <c r="H22" s="69"/>
+      <c r="I22" s="69"/>
+      <c r="J22" s="69"/>
+      <c r="K22" s="69"/>
+      <c r="L22" s="70"/>
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="B23" s="67"/>
-      <c r="C23" s="50"/>
+      <c r="B23" s="65"/>
+      <c r="C23" s="55"/>
       <c r="D23" s="21">
         <v>1</v>
       </c>
-      <c r="E23" s="69" t="s">
+      <c r="E23" s="67" t="s">
         <v>46</v>
       </c>
-      <c r="F23" s="69"/>
-      <c r="G23" s="69"/>
-      <c r="H23" s="69"/>
-      <c r="I23" s="69"/>
-      <c r="J23" s="69"/>
-      <c r="K23" s="69"/>
-      <c r="L23" s="70"/>
+      <c r="F23" s="67"/>
+      <c r="G23" s="67"/>
+      <c r="H23" s="67"/>
+      <c r="I23" s="67"/>
+      <c r="J23" s="67"/>
+      <c r="K23" s="67"/>
+      <c r="L23" s="68"/>
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="B24" s="67"/>
-      <c r="C24" s="50"/>
+      <c r="B24" s="65"/>
+      <c r="C24" s="55"/>
       <c r="D24" s="21">
         <v>2</v>
       </c>
-      <c r="E24" s="69" t="s">
+      <c r="E24" s="67" t="s">
         <v>47</v>
       </c>
-      <c r="F24" s="69"/>
-      <c r="G24" s="69"/>
-      <c r="H24" s="69"/>
-      <c r="I24" s="69"/>
-      <c r="J24" s="69"/>
-      <c r="K24" s="69"/>
-      <c r="L24" s="70"/>
+      <c r="F24" s="67"/>
+      <c r="G24" s="67"/>
+      <c r="H24" s="67"/>
+      <c r="I24" s="67"/>
+      <c r="J24" s="67"/>
+      <c r="K24" s="67"/>
+      <c r="L24" s="68"/>
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="B25" s="67"/>
-      <c r="C25" s="50"/>
+      <c r="B25" s="65"/>
+      <c r="C25" s="55"/>
       <c r="D25" s="21">
         <v>3</v>
       </c>
-      <c r="E25" s="69" t="s">
+      <c r="E25" s="67" t="s">
         <v>48</v>
       </c>
-      <c r="F25" s="69"/>
-      <c r="G25" s="69"/>
-      <c r="H25" s="69"/>
-      <c r="I25" s="69"/>
-      <c r="J25" s="69"/>
-      <c r="K25" s="69"/>
-      <c r="L25" s="70"/>
+      <c r="F25" s="67"/>
+      <c r="G25" s="67"/>
+      <c r="H25" s="67"/>
+      <c r="I25" s="67"/>
+      <c r="J25" s="67"/>
+      <c r="K25" s="67"/>
+      <c r="L25" s="68"/>
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="B26" s="68"/>
-      <c r="C26" s="51"/>
+      <c r="B26" s="66"/>
+      <c r="C26" s="56"/>
       <c r="D26" s="22">
         <v>4</v>
       </c>
@@ -3334,57 +3591,57 @@
       <c r="L26" s="38"/>
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="B27" s="66" t="s">
+      <c r="B27" s="64" t="s">
         <v>50</v>
       </c>
-      <c r="C27" s="52"/>
+      <c r="C27" s="54"/>
       <c r="D27" s="13">
         <v>0</v>
       </c>
-      <c r="E27" s="54" t="s">
+      <c r="E27" s="69" t="s">
         <v>44</v>
       </c>
-      <c r="F27" s="54"/>
-      <c r="G27" s="54"/>
-      <c r="H27" s="54"/>
-      <c r="I27" s="54"/>
-      <c r="J27" s="54"/>
-      <c r="K27" s="54"/>
-      <c r="L27" s="55"/>
+      <c r="F27" s="69"/>
+      <c r="G27" s="69"/>
+      <c r="H27" s="69"/>
+      <c r="I27" s="69"/>
+      <c r="J27" s="69"/>
+      <c r="K27" s="69"/>
+      <c r="L27" s="70"/>
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="B28" s="67"/>
-      <c r="C28" s="50"/>
+      <c r="B28" s="65"/>
+      <c r="C28" s="55"/>
       <c r="D28" s="21">
         <v>1</v>
       </c>
-      <c r="E28" s="69" t="s">
+      <c r="E28" s="67" t="s">
         <v>45</v>
       </c>
-      <c r="F28" s="69"/>
-      <c r="G28" s="69"/>
-      <c r="H28" s="69"/>
-      <c r="I28" s="69"/>
-      <c r="J28" s="69"/>
-      <c r="K28" s="69"/>
-      <c r="L28" s="70"/>
+      <c r="F28" s="67"/>
+      <c r="G28" s="67"/>
+      <c r="H28" s="67"/>
+      <c r="I28" s="67"/>
+      <c r="J28" s="67"/>
+      <c r="K28" s="67"/>
+      <c r="L28" s="68"/>
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="B29" s="68"/>
-      <c r="C29" s="51"/>
+      <c r="B29" s="66"/>
+      <c r="C29" s="56"/>
       <c r="D29" s="22">
         <v>2</v>
       </c>
-      <c r="E29" s="64" t="s">
+      <c r="E29" s="62" t="s">
         <v>51</v>
       </c>
-      <c r="F29" s="64"/>
-      <c r="G29" s="64"/>
-      <c r="H29" s="64"/>
-      <c r="I29" s="64"/>
-      <c r="J29" s="64"/>
-      <c r="K29" s="64"/>
-      <c r="L29" s="65"/>
+      <c r="F29" s="62"/>
+      <c r="G29" s="62"/>
+      <c r="H29" s="62"/>
+      <c r="I29" s="62"/>
+      <c r="J29" s="62"/>
+      <c r="K29" s="62"/>
+      <c r="L29" s="63"/>
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B30" s="19"/>
@@ -3400,1631 +3657,1656 @@
       <c r="L30" s="36"/>
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A31" s="2" t="s">
+      <c r="B31" s="49"/>
+      <c r="C31" s="49"/>
+      <c r="D31" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="F31" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="G31" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="H31" s="50"/>
+      <c r="I31" s="50"/>
+      <c r="J31" s="50"/>
+      <c r="K31" s="50"/>
+      <c r="L31" s="50"/>
+    </row>
+    <row r="32" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A32" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="B31" s="2" t="s">
+      <c r="B32" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C31" s="2" t="s">
+      <c r="C32" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D31" s="2" t="s">
+      <c r="D32" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E31" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="F31" s="2" t="s">
+      <c r="E32" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="F32" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="G31" s="2" t="s">
+      <c r="G32" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="H31" s="2" t="s">
+      <c r="H32" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I31" s="6" t="s">
+      <c r="I32" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="J31" s="2"/>
-    </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A32" s="49">
+      <c r="J32" s="2"/>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A33" s="57">
         <v>32</v>
       </c>
-      <c r="B32" s="50">
-        <v>0</v>
-      </c>
-      <c r="C32" s="21">
-        <v>0</v>
-      </c>
-      <c r="D32" s="15">
+      <c r="B33" s="55">
+        <v>0</v>
+      </c>
+      <c r="C33" s="21">
+        <v>0</v>
+      </c>
+      <c r="D33" s="15">
         <v>0.03</v>
       </c>
-      <c r="E32" s="15">
+      <c r="E33" s="15">
         <v>9.18</v>
       </c>
-      <c r="F32" s="15">
+      <c r="F33" s="15">
         <v>9.4700000000000006</v>
       </c>
-      <c r="G32" s="15">
-        <v>0</v>
-      </c>
-      <c r="H32" s="15"/>
-      <c r="I32" s="40">
+      <c r="G33" s="15">
+        <v>0</v>
+      </c>
+      <c r="H33" s="15"/>
+      <c r="I33" s="40">
         <v>18.68</v>
       </c>
-      <c r="J32" s="2"/>
-    </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A33" s="49"/>
-      <c r="B33" s="50"/>
-      <c r="C33" s="21">
+      <c r="J33" s="2"/>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A34" s="57"/>
+      <c r="B34" s="55"/>
+      <c r="C34" s="21">
         <v>1</v>
       </c>
-      <c r="D33" s="15">
+      <c r="D34" s="15">
         <v>0.05</v>
       </c>
-      <c r="E33" s="15">
+      <c r="E34" s="15">
         <v>9.2100000000000009</v>
       </c>
-      <c r="F33" s="15">
+      <c r="F34" s="15">
         <v>6.88</v>
       </c>
-      <c r="G33" s="15">
-        <v>0</v>
-      </c>
-      <c r="H33" s="15">
+      <c r="G34" s="15">
+        <v>0</v>
+      </c>
+      <c r="H34" s="15">
         <v>1.05</v>
       </c>
-      <c r="I33" s="40">
+      <c r="I34" s="40">
         <v>16.14</v>
       </c>
-      <c r="J33" s="2"/>
-    </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A34" s="49"/>
-      <c r="B34" s="51"/>
-      <c r="C34" s="22">
+      <c r="J34" s="2"/>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A35" s="57"/>
+      <c r="B35" s="56"/>
+      <c r="C35" s="22">
         <v>2</v>
       </c>
-      <c r="D34" s="17">
+      <c r="D35" s="17">
         <v>0.03</v>
       </c>
-      <c r="E34" s="17">
+      <c r="E35" s="17">
         <v>9.0399999999999991</v>
       </c>
-      <c r="F34" s="17">
+      <c r="F35" s="17">
         <v>4.8499999999999996</v>
       </c>
-      <c r="G34" s="17">
-        <v>0</v>
-      </c>
-      <c r="H34" s="17">
+      <c r="G35" s="17">
+        <v>0</v>
+      </c>
+      <c r="H35" s="17">
         <v>1.03</v>
       </c>
-      <c r="I34" s="41">
+      <c r="I35" s="41">
         <v>13.92</v>
       </c>
-      <c r="J34" s="2"/>
-    </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A35" s="49"/>
-      <c r="B35" s="52">
+      <c r="J35" s="2"/>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A36" s="57"/>
+      <c r="B36" s="54">
         <v>2</v>
       </c>
-      <c r="C35" s="13">
-        <v>0</v>
-      </c>
-      <c r="D35" s="42">
+      <c r="C36" s="13">
+        <v>0</v>
+      </c>
+      <c r="D36" s="42">
         <v>0.03</v>
       </c>
-      <c r="E35" s="42">
+      <c r="E36" s="42">
         <v>6.51</v>
       </c>
-      <c r="F35" s="42">
+      <c r="F36" s="42">
         <v>7.4</v>
       </c>
-      <c r="G35" s="42">
-        <v>0</v>
-      </c>
-      <c r="H35" s="42"/>
-      <c r="I35" s="43">
+      <c r="G36" s="42">
+        <v>0</v>
+      </c>
+      <c r="H36" s="42"/>
+      <c r="I36" s="43">
         <v>13.94</v>
       </c>
-      <c r="J35" s="2"/>
-    </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A36" s="49"/>
-      <c r="B36" s="50"/>
-      <c r="C36" s="21">
+      <c r="J36" s="2"/>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A37" s="57"/>
+      <c r="B37" s="55"/>
+      <c r="C37" s="21">
         <v>1</v>
       </c>
-      <c r="D36" s="15">
+      <c r="D37" s="15">
         <v>0.04</v>
       </c>
-      <c r="E36" s="15">
+      <c r="E37" s="15">
         <v>6.65</v>
       </c>
-      <c r="F36" s="15">
+      <c r="F37" s="15">
         <v>5.98</v>
       </c>
-      <c r="G36" s="15">
-        <v>0</v>
-      </c>
-      <c r="H36" s="15">
+      <c r="G37" s="15">
+        <v>0</v>
+      </c>
+      <c r="H37" s="15">
         <v>1.05</v>
       </c>
-      <c r="I36" s="40">
+      <c r="I37" s="40">
         <v>12.67</v>
       </c>
-      <c r="J36" s="2"/>
-    </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A37" s="49"/>
-      <c r="B37" s="51"/>
-      <c r="C37" s="22">
+      <c r="J37" s="2"/>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A38" s="57"/>
+      <c r="B38" s="56"/>
+      <c r="C38" s="22">
         <v>2</v>
       </c>
-      <c r="D37" s="17">
+      <c r="D38" s="17">
         <v>0.05</v>
       </c>
-      <c r="E37" s="17">
+      <c r="E38" s="17">
         <v>6.98</v>
       </c>
-      <c r="F37" s="17">
+      <c r="F38" s="17">
         <v>4.92</v>
       </c>
-      <c r="G37" s="17">
-        <v>0</v>
-      </c>
-      <c r="H37" s="17">
+      <c r="G38" s="17">
+        <v>0</v>
+      </c>
+      <c r="H38" s="17">
         <v>1.03</v>
       </c>
-      <c r="I37" s="41">
+      <c r="I38" s="41">
         <v>11.95</v>
       </c>
-      <c r="J37" s="2"/>
-    </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A38" s="49"/>
-      <c r="B38" s="52">
+      <c r="J38" s="2"/>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A39" s="57"/>
+      <c r="B39" s="54">
         <v>3</v>
       </c>
-      <c r="C38" s="13">
-        <v>0</v>
-      </c>
-      <c r="D38" s="42">
+      <c r="C39" s="13">
+        <v>0</v>
+      </c>
+      <c r="D39" s="42">
         <v>0.02</v>
       </c>
-      <c r="E38" s="42">
+      <c r="E39" s="42">
         <v>1.06</v>
       </c>
-      <c r="F38" s="42">
+      <c r="F39" s="42">
         <v>8.4499999999999993</v>
       </c>
-      <c r="G38" s="42">
-        <v>0</v>
-      </c>
-      <c r="H38" s="42">
+      <c r="G39" s="42">
+        <v>0</v>
+      </c>
+      <c r="H39" s="42">
         <v>0.32</v>
       </c>
-      <c r="I38" s="43">
+      <c r="I39" s="43">
         <v>9.5299999999999994</v>
       </c>
-      <c r="J38" s="2"/>
-    </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A39" s="49"/>
-      <c r="B39" s="50"/>
-      <c r="C39" s="21">
+      <c r="J39" s="2"/>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A40" s="57"/>
+      <c r="B40" s="55"/>
+      <c r="C40" s="21">
         <v>1</v>
       </c>
-      <c r="D39" s="15">
+      <c r="D40" s="15">
         <v>0.03</v>
       </c>
-      <c r="E39" s="15">
+      <c r="E40" s="15">
         <v>0.92</v>
       </c>
-      <c r="F39" s="15">
+      <c r="F40" s="15">
         <v>6.07</v>
       </c>
-      <c r="G39" s="15">
-        <v>0</v>
-      </c>
-      <c r="H39" s="15">
+      <c r="G40" s="15">
+        <v>0</v>
+      </c>
+      <c r="H40" s="15">
         <v>1.31</v>
       </c>
-      <c r="I39" s="40">
+      <c r="I40" s="40">
         <v>7.02</v>
       </c>
-      <c r="J39" s="2"/>
-    </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A40" s="49"/>
-      <c r="B40" s="51"/>
-      <c r="C40" s="44">
+      <c r="J40" s="2"/>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A41" s="57"/>
+      <c r="B41" s="56"/>
+      <c r="C41" s="44">
         <v>2</v>
       </c>
-      <c r="D40" s="45">
+      <c r="D41" s="45">
         <v>0.05</v>
       </c>
-      <c r="E40" s="45">
+      <c r="E41" s="45">
         <v>0.97</v>
       </c>
-      <c r="F40" s="45">
+      <c r="F41" s="45">
         <v>4.63</v>
       </c>
-      <c r="G40" s="45">
-        <v>0</v>
-      </c>
-      <c r="H40" s="45">
+      <c r="G41" s="45">
+        <v>0</v>
+      </c>
+      <c r="H41" s="45">
         <v>1.29</v>
       </c>
-      <c r="I40" s="45">
+      <c r="I41" s="45">
         <v>5.65</v>
       </c>
-      <c r="J40" s="2"/>
-    </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A41" s="49"/>
-      <c r="B41" s="52">
+      <c r="J41" s="2"/>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A42" s="57"/>
+      <c r="B42" s="54">
         <v>4</v>
       </c>
-      <c r="C41" s="13">
-        <v>0</v>
-      </c>
-      <c r="D41" s="42">
+      <c r="C42" s="13">
+        <v>0</v>
+      </c>
+      <c r="D42" s="42">
         <v>0.03</v>
       </c>
-      <c r="E41" s="42">
+      <c r="E42" s="42">
         <v>6.16</v>
       </c>
-      <c r="F41" s="42">
+      <c r="F42" s="42">
         <v>10.65</v>
       </c>
-      <c r="G41" s="42">
-        <v>0</v>
-      </c>
-      <c r="H41" s="42">
+      <c r="G42" s="42">
+        <v>0</v>
+      </c>
+      <c r="H42" s="42">
         <v>3.36</v>
       </c>
-      <c r="I41" s="43">
+      <c r="I42" s="43">
         <v>16.84</v>
       </c>
-      <c r="J41" s="2"/>
-    </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A42" s="49"/>
-      <c r="B42" s="50"/>
-      <c r="C42" s="21">
+      <c r="J42" s="2"/>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A43" s="57"/>
+      <c r="B43" s="55"/>
+      <c r="C43" s="21">
         <v>1</v>
       </c>
-      <c r="D42" s="15">
+      <c r="D43" s="15">
         <v>0.02</v>
       </c>
-      <c r="E42" s="15">
+      <c r="E43" s="15">
         <v>6.49</v>
       </c>
-      <c r="F42" s="15">
+      <c r="F43" s="15">
         <v>6.76</v>
       </c>
-      <c r="G42" s="15">
-        <v>0</v>
-      </c>
-      <c r="H42" s="15">
+      <c r="G43" s="15">
+        <v>0</v>
+      </c>
+      <c r="H43" s="15">
         <v>4.21</v>
       </c>
-      <c r="I42" s="40">
+      <c r="I43" s="40">
         <v>13.28</v>
       </c>
-      <c r="J42" s="2"/>
-    </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A43" s="49"/>
-      <c r="B43" s="51"/>
-      <c r="C43" s="22">
+      <c r="J43" s="2"/>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A44" s="57"/>
+      <c r="B44" s="56"/>
+      <c r="C44" s="22">
         <v>2</v>
       </c>
-      <c r="D43" s="17">
+      <c r="D44" s="17">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="E43" s="17">
+      <c r="E44" s="17">
         <v>6.82</v>
       </c>
-      <c r="F43" s="17">
+      <c r="F44" s="17">
         <v>5.2</v>
       </c>
-      <c r="G43" s="17">
-        <v>0</v>
-      </c>
-      <c r="H43" s="17">
+      <c r="G44" s="17">
+        <v>0</v>
+      </c>
+      <c r="H44" s="17">
         <v>4.25</v>
       </c>
-      <c r="I43" s="41">
+      <c r="I44" s="41">
         <v>12.09</v>
       </c>
-      <c r="J43" s="2"/>
-    </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A44" s="2"/>
-      <c r="B44" s="2"/>
-      <c r="C44" s="2"/>
-      <c r="D44" s="2"/>
-      <c r="E44" s="2"/>
-      <c r="F44" s="2"/>
-      <c r="G44" s="2"/>
-      <c r="H44" s="2"/>
-      <c r="I44" s="6"/>
       <c r="J44" s="2"/>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A45" s="49">
+      <c r="A45" s="2"/>
+      <c r="B45" s="2"/>
+      <c r="C45" s="2"/>
+      <c r="D45" s="2"/>
+      <c r="E45" s="2"/>
+      <c r="F45" s="2"/>
+      <c r="G45" s="2"/>
+      <c r="H45" s="2"/>
+      <c r="I45" s="6"/>
+      <c r="J45" s="2"/>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A46" s="57">
         <v>64</v>
       </c>
-      <c r="B45" s="50">
-        <v>0</v>
-      </c>
-      <c r="C45" s="21">
-        <v>0</v>
-      </c>
-      <c r="D45" s="15">
+      <c r="B46" s="55">
+        <v>0</v>
+      </c>
+      <c r="C46" s="21">
+        <v>0</v>
+      </c>
+      <c r="D46" s="15">
         <v>0.03</v>
       </c>
-      <c r="E45" s="15">
+      <c r="E46" s="15">
         <v>9.81</v>
       </c>
-      <c r="F45" s="15">
+      <c r="F46" s="15">
         <v>6.72</v>
       </c>
-      <c r="G45" s="15">
-        <v>0</v>
-      </c>
-      <c r="H45" s="15"/>
-      <c r="I45" s="40">
+      <c r="G46" s="15">
+        <v>0</v>
+      </c>
+      <c r="H46" s="15"/>
+      <c r="I46" s="40">
         <v>16.559999999999999</v>
       </c>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A46" s="49"/>
-      <c r="B46" s="50"/>
-      <c r="C46" s="21">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A47" s="57"/>
+      <c r="B47" s="55"/>
+      <c r="C47" s="21">
         <v>1</v>
       </c>
-      <c r="D46" s="15">
+      <c r="D47" s="15">
         <v>0.04</v>
       </c>
-      <c r="E46" s="15">
+      <c r="E47" s="15">
         <v>9.57</v>
       </c>
-      <c r="F46" s="15">
+      <c r="F47" s="15">
         <v>6.61</v>
       </c>
-      <c r="G46" s="15">
-        <v>0</v>
-      </c>
-      <c r="H46" s="15">
+      <c r="G47" s="15">
+        <v>0</v>
+      </c>
+      <c r="H47" s="15">
         <v>0.78</v>
       </c>
-      <c r="I46" s="40">
+      <c r="I47" s="40">
         <v>16.22</v>
       </c>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A47" s="49"/>
-      <c r="B47" s="51"/>
-      <c r="C47" s="22">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A48" s="57"/>
+      <c r="B48" s="56"/>
+      <c r="C48" s="22">
         <v>2</v>
       </c>
-      <c r="D47" s="17">
+      <c r="D48" s="17">
         <v>0.05</v>
       </c>
-      <c r="E47" s="17">
+      <c r="E48" s="17">
         <v>9.65</v>
       </c>
-      <c r="F47" s="17">
+      <c r="F48" s="17">
         <v>4.8</v>
       </c>
-      <c r="G47" s="17">
-        <v>0</v>
-      </c>
-      <c r="H47" s="17">
+      <c r="G48" s="17">
+        <v>0</v>
+      </c>
+      <c r="H48" s="17">
         <v>0.76</v>
       </c>
-      <c r="I47" s="41">
+      <c r="I48" s="41">
         <v>14.5</v>
       </c>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A48" s="49"/>
-      <c r="B48" s="52">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A49" s="57"/>
+      <c r="B49" s="54">
         <v>2</v>
       </c>
-      <c r="C48" s="13">
-        <v>0</v>
-      </c>
-      <c r="D48" s="42">
+      <c r="C49" s="13">
+        <v>0</v>
+      </c>
+      <c r="D49" s="42">
         <v>0.04</v>
       </c>
-      <c r="E48" s="42">
+      <c r="E49" s="42">
         <v>7.85</v>
       </c>
-      <c r="F48" s="42">
+      <c r="F49" s="42">
         <v>7.14</v>
       </c>
-      <c r="G48" s="42">
-        <v>0</v>
-      </c>
-      <c r="H48" s="42"/>
-      <c r="I48" s="43">
+      <c r="G49" s="42">
+        <v>0</v>
+      </c>
+      <c r="H49" s="42"/>
+      <c r="I49" s="43">
         <v>15.03</v>
       </c>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A49" s="49"/>
-      <c r="B49" s="50"/>
-      <c r="C49" s="21">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A50" s="57"/>
+      <c r="B50" s="55"/>
+      <c r="C50" s="21">
         <v>1</v>
       </c>
-      <c r="D49" s="15">
+      <c r="D50" s="15">
         <v>0.04</v>
       </c>
-      <c r="E49" s="15">
+      <c r="E50" s="15">
         <v>6.88</v>
       </c>
-      <c r="F49" s="15">
+      <c r="F50" s="15">
         <v>7.42</v>
       </c>
-      <c r="G49" s="15">
-        <v>0</v>
-      </c>
-      <c r="H49" s="15">
+      <c r="G50" s="15">
+        <v>0</v>
+      </c>
+      <c r="H50" s="15">
         <v>0.77</v>
       </c>
-      <c r="I49" s="40">
+      <c r="I50" s="40">
         <v>14.34</v>
       </c>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A50" s="49"/>
-      <c r="B50" s="51"/>
-      <c r="C50" s="22">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A51" s="57"/>
+      <c r="B51" s="56"/>
+      <c r="C51" s="22">
         <v>2</v>
       </c>
-      <c r="D50" s="17">
+      <c r="D51" s="17">
         <v>0.03</v>
       </c>
-      <c r="E50" s="17">
+      <c r="E51" s="17">
         <v>6.79</v>
       </c>
-      <c r="F50" s="17">
+      <c r="F51" s="17">
         <v>5.03</v>
       </c>
-      <c r="G50" s="17">
-        <v>0</v>
-      </c>
-      <c r="H50" s="17">
+      <c r="G51" s="17">
+        <v>0</v>
+      </c>
+      <c r="H51" s="17">
         <v>0.76</v>
       </c>
-      <c r="I50" s="41">
+      <c r="I51" s="41">
         <v>11.85</v>
       </c>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A51" s="49"/>
-      <c r="B51" s="52">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A52" s="57"/>
+      <c r="B52" s="54">
         <v>3</v>
       </c>
-      <c r="C51" s="13">
-        <v>0</v>
-      </c>
-      <c r="D51" s="42">
+      <c r="C52" s="13">
+        <v>0</v>
+      </c>
+      <c r="D52" s="42">
         <v>0.02</v>
       </c>
-      <c r="E51" s="42">
+      <c r="E52" s="42">
         <v>1.1499999999999999</v>
       </c>
-      <c r="F51" s="42">
+      <c r="F52" s="42">
         <v>6.7</v>
       </c>
-      <c r="G51" s="42">
-        <v>0</v>
-      </c>
-      <c r="H51" s="42">
+      <c r="G52" s="42">
+        <v>0</v>
+      </c>
+      <c r="H52" s="42">
         <v>0.32</v>
       </c>
-      <c r="I51" s="43">
+      <c r="I52" s="43">
         <v>7.88</v>
       </c>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A52" s="49"/>
-      <c r="B52" s="50"/>
-      <c r="C52" s="21">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A53" s="57"/>
+      <c r="B53" s="55"/>
+      <c r="C53" s="21">
         <v>1</v>
       </c>
-      <c r="D52" s="15">
+      <c r="D53" s="15">
         <v>0.02</v>
       </c>
-      <c r="E52" s="15">
+      <c r="E53" s="15">
         <v>0.94</v>
       </c>
-      <c r="F52" s="15">
+      <c r="F53" s="15">
         <v>6.22</v>
       </c>
-      <c r="G52" s="15">
+      <c r="G53" s="15">
         <v>0.01</v>
       </c>
-      <c r="H52" s="15">
+      <c r="H53" s="15">
         <v>1.08</v>
       </c>
-      <c r="I52" s="40">
+      <c r="I53" s="40">
         <v>7.2</v>
       </c>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A53" s="49"/>
-      <c r="B53" s="51"/>
-      <c r="C53" s="44">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A54" s="57"/>
+      <c r="B54" s="56"/>
+      <c r="C54" s="44">
         <v>2</v>
       </c>
-      <c r="D53" s="45">
+      <c r="D54" s="45">
         <v>0.06</v>
       </c>
-      <c r="E53" s="45">
+      <c r="E54" s="45">
         <v>1.01</v>
       </c>
-      <c r="F53" s="45">
+      <c r="F54" s="45">
         <v>5.15</v>
       </c>
-      <c r="G53" s="45">
-        <v>0</v>
-      </c>
-      <c r="H53" s="45">
+      <c r="G54" s="45">
+        <v>0</v>
+      </c>
+      <c r="H54" s="45">
         <v>1.07</v>
       </c>
-      <c r="I53" s="45">
+      <c r="I54" s="45">
         <v>6.22</v>
       </c>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A54" s="49"/>
-      <c r="B54" s="52">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A55" s="57"/>
+      <c r="B55" s="54">
         <v>4</v>
       </c>
-      <c r="C54" s="13">
-        <v>0</v>
-      </c>
-      <c r="D54" s="42">
+      <c r="C55" s="13">
+        <v>0</v>
+      </c>
+      <c r="D55" s="42">
         <v>0.03</v>
       </c>
-      <c r="E54" s="42">
+      <c r="E55" s="42">
         <v>6.03</v>
       </c>
-      <c r="F54" s="42">
+      <c r="F55" s="42">
         <v>7.07</v>
       </c>
-      <c r="G54" s="42">
-        <v>0</v>
-      </c>
-      <c r="H54" s="42">
+      <c r="G55" s="42">
+        <v>0</v>
+      </c>
+      <c r="H55" s="42">
         <v>3.23</v>
       </c>
-      <c r="I54" s="43">
+      <c r="I55" s="43">
         <v>13.12</v>
       </c>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A55" s="49"/>
-      <c r="B55" s="50"/>
-      <c r="C55" s="21">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A56" s="57"/>
+      <c r="B56" s="55"/>
+      <c r="C56" s="21">
         <v>1</v>
       </c>
-      <c r="D55" s="15">
+      <c r="D56" s="15">
         <v>0.03</v>
       </c>
-      <c r="E55" s="15">
+      <c r="E56" s="15">
         <v>6.15</v>
       </c>
-      <c r="F55" s="15">
+      <c r="F56" s="15">
         <v>6.27</v>
       </c>
-      <c r="G55" s="15">
-        <v>0</v>
-      </c>
-      <c r="H55" s="15">
+      <c r="G56" s="15">
+        <v>0</v>
+      </c>
+      <c r="H56" s="15">
         <v>3.75</v>
       </c>
-      <c r="I55" s="40">
+      <c r="I56" s="40">
         <v>12.45</v>
       </c>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A56" s="49"/>
-      <c r="B56" s="51"/>
-      <c r="C56" s="22">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A57" s="57"/>
+      <c r="B57" s="56"/>
+      <c r="C57" s="22">
         <v>2</v>
       </c>
-      <c r="D56" s="17">
+      <c r="D57" s="17">
         <v>0.03</v>
       </c>
-      <c r="E56" s="17">
+      <c r="E57" s="17">
         <v>6.2</v>
       </c>
-      <c r="F56" s="17">
+      <c r="F57" s="17">
         <v>5.15</v>
       </c>
-      <c r="G56" s="17">
-        <v>0</v>
-      </c>
-      <c r="H56" s="17">
+      <c r="G57" s="17">
+        <v>0</v>
+      </c>
+      <c r="H57" s="17">
         <v>3.75</v>
       </c>
-      <c r="I56" s="41">
+      <c r="I57" s="41">
         <v>11.38</v>
       </c>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="D57" s="5"/>
-      <c r="E57" s="5"/>
-      <c r="F57" s="5"/>
-      <c r="G57" s="5"/>
-      <c r="H57" s="5"/>
-      <c r="I57" s="23"/>
-    </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A58" s="49">
+      <c r="D58" s="5"/>
+      <c r="E58" s="5"/>
+      <c r="F58" s="5"/>
+      <c r="G58" s="5"/>
+      <c r="H58" s="5"/>
+      <c r="I58" s="23"/>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A59" s="57">
         <v>128</v>
       </c>
-      <c r="B58" s="50">
-        <v>0</v>
-      </c>
-      <c r="C58" s="21">
-        <v>0</v>
-      </c>
-      <c r="D58" s="15">
-        <v>0.03</v>
-      </c>
-      <c r="E58" s="15">
-        <v>10.029999999999999</v>
-      </c>
-      <c r="F58" s="15">
-        <v>6.46</v>
-      </c>
-      <c r="G58" s="15">
-        <v>0</v>
-      </c>
-      <c r="H58" s="15"/>
-      <c r="I58" s="40">
-        <v>16.52</v>
-      </c>
-    </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A59" s="49"/>
-      <c r="B59" s="50"/>
+      <c r="B59" s="55">
+        <v>0</v>
+      </c>
       <c r="C59" s="21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D59" s="15">
         <v>0.03</v>
       </c>
       <c r="E59" s="15">
+        <v>10.029999999999999</v>
+      </c>
+      <c r="F59" s="15">
+        <v>6.46</v>
+      </c>
+      <c r="G59" s="15">
+        <v>0</v>
+      </c>
+      <c r="H59" s="15"/>
+      <c r="I59" s="40">
+        <v>16.52</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A60" s="57"/>
+      <c r="B60" s="55"/>
+      <c r="C60" s="21">
+        <v>1</v>
+      </c>
+      <c r="D60" s="15">
+        <v>0.03</v>
+      </c>
+      <c r="E60" s="15">
         <v>10.45</v>
       </c>
-      <c r="F59" s="15">
+      <c r="F60" s="15">
         <v>6.39</v>
       </c>
-      <c r="G59" s="15">
-        <v>0</v>
-      </c>
-      <c r="H59" s="15">
+      <c r="G60" s="15">
+        <v>0</v>
+      </c>
+      <c r="H60" s="15">
         <v>0.55000000000000004</v>
       </c>
-      <c r="I59" s="40">
+      <c r="I60" s="40">
         <v>16.87</v>
       </c>
     </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A60" s="49"/>
-      <c r="B60" s="51"/>
-      <c r="C60" s="22">
+    <row r="61" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A61" s="57"/>
+      <c r="B61" s="56"/>
+      <c r="C61" s="22">
         <v>2</v>
       </c>
-      <c r="D60" s="17">
+      <c r="D61" s="17">
         <v>0.03</v>
       </c>
-      <c r="E60" s="17">
+      <c r="E61" s="17">
         <v>10.54</v>
       </c>
-      <c r="F60" s="17">
+      <c r="F61" s="17">
         <v>4.71</v>
       </c>
-      <c r="G60" s="17">
-        <v>0</v>
-      </c>
-      <c r="H60" s="17">
+      <c r="G61" s="17">
+        <v>0</v>
+      </c>
+      <c r="H61" s="17">
         <v>0.54</v>
       </c>
-      <c r="I60" s="41">
+      <c r="I61" s="41">
         <v>15.29</v>
       </c>
     </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A61" s="49"/>
-      <c r="B61" s="52">
+    <row r="62" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A62" s="57"/>
+      <c r="B62" s="54">
         <v>2</v>
       </c>
-      <c r="C61" s="13">
-        <v>0</v>
-      </c>
-      <c r="D61" s="42">
+      <c r="C62" s="13">
+        <v>0</v>
+      </c>
+      <c r="D62" s="42">
         <v>0.04</v>
       </c>
-      <c r="E61" s="42">
+      <c r="E62" s="42">
         <v>7.19</v>
       </c>
-      <c r="F61" s="42">
+      <c r="F62" s="42">
         <v>6.44</v>
       </c>
-      <c r="G61" s="42">
-        <v>0</v>
-      </c>
-      <c r="H61" s="42"/>
-      <c r="I61" s="43">
+      <c r="G62" s="42">
+        <v>0</v>
+      </c>
+      <c r="H62" s="42"/>
+      <c r="I62" s="43">
         <v>13.67</v>
       </c>
     </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A62" s="49"/>
-      <c r="B62" s="50"/>
-      <c r="C62" s="21">
+    <row r="63" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A63" s="57"/>
+      <c r="B63" s="55"/>
+      <c r="C63" s="21">
         <v>1</v>
       </c>
-      <c r="D62" s="15">
+      <c r="D63" s="15">
         <v>0.03</v>
       </c>
-      <c r="E62" s="15">
+      <c r="E63" s="15">
         <v>6.98</v>
       </c>
-      <c r="F62" s="15">
+      <c r="F63" s="15">
         <v>6.69</v>
       </c>
-      <c r="G62" s="15">
-        <v>0</v>
-      </c>
-      <c r="H62" s="15">
+      <c r="G63" s="15">
+        <v>0</v>
+      </c>
+      <c r="H63" s="15">
         <v>0.55000000000000004</v>
       </c>
-      <c r="I62" s="40">
+      <c r="I63" s="40">
         <v>13.71</v>
       </c>
     </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A63" s="49"/>
-      <c r="B63" s="51"/>
-      <c r="C63" s="22">
+    <row r="64" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A64" s="57"/>
+      <c r="B64" s="56"/>
+      <c r="C64" s="22">
         <v>2</v>
       </c>
-      <c r="D63" s="17">
+      <c r="D64" s="17">
         <v>0.03</v>
       </c>
-      <c r="E63" s="17">
+      <c r="E64" s="17">
         <v>7.59</v>
       </c>
-      <c r="F63" s="17">
+      <c r="F64" s="17">
         <v>5.4</v>
       </c>
-      <c r="G63" s="17">
-        <v>0</v>
-      </c>
-      <c r="H63" s="17">
+      <c r="G64" s="17">
+        <v>0</v>
+      </c>
+      <c r="H64" s="17">
         <v>0.54</v>
       </c>
-      <c r="I63" s="41">
+      <c r="I64" s="41">
         <v>13.02</v>
       </c>
     </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A64" s="49"/>
-      <c r="B64" s="52">
+    <row r="65" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A65" s="57"/>
+      <c r="B65" s="54">
         <v>3</v>
       </c>
-      <c r="C64" s="13">
-        <v>0</v>
-      </c>
-      <c r="D64" s="42">
+      <c r="C65" s="13">
+        <v>0</v>
+      </c>
+      <c r="D65" s="42">
         <v>0.08</v>
       </c>
-      <c r="E64" s="42">
+      <c r="E65" s="42">
         <v>1.1100000000000001</v>
       </c>
-      <c r="F64" s="42">
+      <c r="F65" s="42">
         <v>6.53</v>
       </c>
-      <c r="G64" s="42">
-        <v>0</v>
-      </c>
-      <c r="H64" s="42">
+      <c r="G65" s="42">
+        <v>0</v>
+      </c>
+      <c r="H65" s="42">
         <v>0.33</v>
       </c>
-      <c r="I64" s="43">
+      <c r="I65" s="43">
         <v>7.72</v>
       </c>
     </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A65" s="49"/>
-      <c r="B65" s="50"/>
-      <c r="C65" s="21">
+    <row r="66" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A66" s="57"/>
+      <c r="B66" s="55"/>
+      <c r="C66" s="21">
         <v>1</v>
       </c>
-      <c r="D65" s="15">
+      <c r="D66" s="15">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="E65" s="15">
+      <c r="E66" s="15">
         <v>0.88</v>
       </c>
-      <c r="F65" s="15">
+      <c r="F66" s="15">
         <v>6.22</v>
       </c>
-      <c r="G65" s="15">
-        <v>0</v>
-      </c>
-      <c r="H65" s="15">
+      <c r="G66" s="15">
+        <v>0</v>
+      </c>
+      <c r="H66" s="15">
         <v>0.85</v>
       </c>
-      <c r="I65" s="40">
+      <c r="I66" s="40">
         <v>7.17</v>
       </c>
     </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A66" s="49"/>
-      <c r="B66" s="51"/>
-      <c r="C66" s="44">
+    <row r="67" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A67" s="57"/>
+      <c r="B67" s="56"/>
+      <c r="C67" s="44">
         <v>2</v>
       </c>
-      <c r="D66" s="45">
+      <c r="D67" s="45">
         <v>0.04</v>
       </c>
-      <c r="E66" s="45">
+      <c r="E67" s="45">
         <v>1.04</v>
       </c>
-      <c r="F66" s="45">
+      <c r="F67" s="45">
         <v>4.8600000000000003</v>
       </c>
-      <c r="G66" s="45">
-        <v>0</v>
-      </c>
-      <c r="H66" s="45">
+      <c r="G67" s="45">
+        <v>0</v>
+      </c>
+      <c r="H67" s="45">
         <v>0.84</v>
       </c>
-      <c r="I66" s="45">
+      <c r="I67" s="45">
         <v>5.94</v>
       </c>
     </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A67" s="49"/>
-      <c r="B67" s="52">
+    <row r="68" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A68" s="57"/>
+      <c r="B68" s="54">
         <v>4</v>
       </c>
-      <c r="C67" s="13">
-        <v>0</v>
-      </c>
-      <c r="D67" s="42">
+      <c r="C68" s="13">
+        <v>0</v>
+      </c>
+      <c r="D68" s="42">
         <v>0.04</v>
       </c>
-      <c r="E67" s="42">
+      <c r="E68" s="42">
         <v>6.19</v>
       </c>
-      <c r="F67" s="42">
+      <c r="F68" s="42">
         <v>6.82</v>
       </c>
-      <c r="G67" s="42">
-        <v>0</v>
-      </c>
-      <c r="H67" s="42">
+      <c r="G68" s="42">
+        <v>0</v>
+      </c>
+      <c r="H68" s="42">
         <v>3.51</v>
       </c>
-      <c r="I67" s="43">
+      <c r="I68" s="43">
         <v>13.05</v>
       </c>
     </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A68" s="49"/>
-      <c r="B68" s="50"/>
-      <c r="C68" s="21">
+    <row r="69" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A69" s="57"/>
+      <c r="B69" s="55"/>
+      <c r="C69" s="21">
         <v>1</v>
       </c>
-      <c r="D68" s="15">
+      <c r="D69" s="15">
         <v>0.03</v>
       </c>
-      <c r="E68" s="15">
+      <c r="E69" s="15">
         <v>6.13</v>
       </c>
-      <c r="F68" s="15">
+      <c r="F69" s="15">
         <v>6.58</v>
       </c>
-      <c r="G68" s="15">
-        <v>0</v>
-      </c>
-      <c r="H68" s="15">
+      <c r="G69" s="15">
+        <v>0</v>
+      </c>
+      <c r="H69" s="15">
         <v>3.8</v>
       </c>
-      <c r="I68" s="40">
+      <c r="I69" s="40">
         <v>12.75</v>
       </c>
     </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A69" s="49"/>
-      <c r="B69" s="51"/>
-      <c r="C69" s="22">
+    <row r="70" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A70" s="57"/>
+      <c r="B70" s="56"/>
+      <c r="C70" s="22">
         <v>2</v>
       </c>
-      <c r="D69" s="17">
+      <c r="D70" s="17">
         <v>0.05</v>
       </c>
-      <c r="E69" s="17">
+      <c r="E70" s="17">
         <v>6.66</v>
       </c>
-      <c r="F69" s="17">
+      <c r="F70" s="17">
         <v>5.13</v>
       </c>
-      <c r="G69" s="17">
-        <v>0</v>
-      </c>
-      <c r="H69" s="17">
+      <c r="G70" s="17">
+        <v>0</v>
+      </c>
+      <c r="H70" s="17">
         <v>3.81</v>
       </c>
-      <c r="I69" s="41">
+      <c r="I70" s="41">
         <v>11.85</v>
       </c>
     </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="D70" s="5"/>
-      <c r="E70" s="5"/>
-      <c r="F70" s="5"/>
-      <c r="G70" s="5"/>
-      <c r="H70" s="5"/>
-      <c r="I70" s="23"/>
-    </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A71" s="49">
+      <c r="D71" s="5"/>
+      <c r="E71" s="5"/>
+      <c r="F71" s="5"/>
+      <c r="G71" s="5"/>
+      <c r="H71" s="5"/>
+      <c r="I71" s="23"/>
+    </row>
+    <row r="72" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A72" s="57">
         <v>256</v>
       </c>
-      <c r="B71" s="50">
-        <v>0</v>
-      </c>
-      <c r="C71" s="21">
-        <v>0</v>
-      </c>
-      <c r="D71" s="15">
+      <c r="B72" s="55">
+        <v>0</v>
+      </c>
+      <c r="C72" s="21">
+        <v>0</v>
+      </c>
+      <c r="D72" s="15">
         <v>0.04</v>
       </c>
-      <c r="E71" s="15">
+      <c r="E72" s="15">
         <v>10.55</v>
       </c>
-      <c r="F71" s="15">
+      <c r="F72" s="15">
         <v>7.88</v>
       </c>
-      <c r="G71" s="15">
-        <v>0</v>
-      </c>
-      <c r="H71" s="15"/>
-      <c r="I71" s="40">
+      <c r="G72" s="15">
+        <v>0</v>
+      </c>
+      <c r="H72" s="15"/>
+      <c r="I72" s="40">
         <v>18.47</v>
       </c>
     </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A72" s="49"/>
-      <c r="B72" s="50"/>
-      <c r="C72" s="21">
+    <row r="73" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A73" s="57"/>
+      <c r="B73" s="55"/>
+      <c r="C73" s="21">
         <v>1</v>
       </c>
-      <c r="D72" s="15">
+      <c r="D73" s="15">
         <v>0.03</v>
       </c>
-      <c r="E72" s="15">
+      <c r="E73" s="15">
         <v>10.64</v>
       </c>
-      <c r="F72" s="15">
+      <c r="F73" s="15">
         <v>6.18</v>
       </c>
-      <c r="G72" s="15">
-        <v>0</v>
-      </c>
-      <c r="H72" s="15">
+      <c r="G73" s="15">
+        <v>0</v>
+      </c>
+      <c r="H73" s="15">
         <v>0.52</v>
       </c>
-      <c r="I72" s="40">
+      <c r="I73" s="40">
         <v>16.850000000000001</v>
       </c>
     </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A73" s="49"/>
-      <c r="B73" s="51"/>
-      <c r="C73" s="22">
+    <row r="74" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A74" s="57"/>
+      <c r="B74" s="56"/>
+      <c r="C74" s="22">
         <v>2</v>
       </c>
-      <c r="D73" s="17">
+      <c r="D74" s="17">
         <v>0.04</v>
       </c>
-      <c r="E73" s="17">
+      <c r="E74" s="17">
         <v>10.52</v>
       </c>
-      <c r="F73" s="17">
+      <c r="F74" s="17">
         <v>5.32</v>
       </c>
-      <c r="G73" s="17">
-        <v>0</v>
-      </c>
-      <c r="H73" s="17">
+      <c r="G74" s="17">
+        <v>0</v>
+      </c>
+      <c r="H74" s="17">
         <v>0.5</v>
       </c>
-      <c r="I73" s="41">
+      <c r="I74" s="41">
         <v>15.89</v>
       </c>
     </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A74" s="49"/>
-      <c r="B74" s="52">
+    <row r="75" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A75" s="57"/>
+      <c r="B75" s="54">
         <v>2</v>
       </c>
-      <c r="C74" s="13">
-        <v>0</v>
-      </c>
-      <c r="D74" s="42">
+      <c r="C75" s="13">
+        <v>0</v>
+      </c>
+      <c r="D75" s="42">
         <v>0.03</v>
       </c>
-      <c r="E74" s="42">
+      <c r="E75" s="42">
         <v>6.66</v>
       </c>
-      <c r="F74" s="42">
+      <c r="F75" s="42">
         <v>5.97</v>
       </c>
-      <c r="G74" s="42">
-        <v>0</v>
-      </c>
-      <c r="H74" s="42"/>
-      <c r="I74" s="43">
+      <c r="G75" s="42">
+        <v>0</v>
+      </c>
+      <c r="H75" s="42"/>
+      <c r="I75" s="43">
         <v>12.66</v>
       </c>
     </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A75" s="49"/>
-      <c r="B75" s="50"/>
-      <c r="C75" s="21">
+    <row r="76" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A76" s="57"/>
+      <c r="B76" s="55"/>
+      <c r="C76" s="21">
         <v>1</v>
       </c>
-      <c r="D75" s="15">
+      <c r="D76" s="15">
         <v>0.04</v>
       </c>
-      <c r="E75" s="15">
+      <c r="E76" s="15">
         <v>7.19</v>
       </c>
-      <c r="F75" s="15">
+      <c r="F76" s="15">
         <v>7.26</v>
       </c>
-      <c r="G75" s="15">
-        <v>0</v>
-      </c>
-      <c r="H75" s="15">
+      <c r="G76" s="15">
+        <v>0</v>
+      </c>
+      <c r="H76" s="15">
         <v>0.52</v>
       </c>
-      <c r="I75" s="40">
+      <c r="I76" s="40">
         <v>14.49</v>
       </c>
     </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A76" s="49"/>
-      <c r="B76" s="51"/>
-      <c r="C76" s="22">
+    <row r="77" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A77" s="57"/>
+      <c r="B77" s="56"/>
+      <c r="C77" s="22">
         <v>2</v>
       </c>
-      <c r="D76" s="17">
+      <c r="D77" s="17">
         <v>0.04</v>
       </c>
-      <c r="E76" s="17">
+      <c r="E77" s="17">
         <v>6.78</v>
       </c>
-      <c r="F76" s="17">
+      <c r="F77" s="17">
         <v>5.48</v>
       </c>
-      <c r="G76" s="17">
-        <v>0</v>
-      </c>
-      <c r="H76" s="17">
+      <c r="G77" s="17">
+        <v>0</v>
+      </c>
+      <c r="H77" s="17">
         <v>0.5</v>
       </c>
-      <c r="I76" s="41">
+      <c r="I77" s="41">
         <v>12.3</v>
       </c>
     </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A77" s="49"/>
-      <c r="B77" s="52">
+    <row r="78" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A78" s="57"/>
+      <c r="B78" s="54">
         <v>3</v>
       </c>
-      <c r="C77" s="13">
-        <v>0</v>
-      </c>
-      <c r="D77" s="42">
+      <c r="C78" s="13">
+        <v>0</v>
+      </c>
+      <c r="D78" s="42">
         <v>0.03</v>
       </c>
-      <c r="E77" s="42">
+      <c r="E78" s="42">
         <v>1.21</v>
       </c>
-      <c r="F77" s="42">
+      <c r="F78" s="42">
         <v>7.14</v>
       </c>
-      <c r="G77" s="42">
-        <v>0</v>
-      </c>
-      <c r="H77" s="42">
+      <c r="G78" s="42">
+        <v>0</v>
+      </c>
+      <c r="H78" s="42">
         <v>0.33</v>
       </c>
-      <c r="I77" s="43">
+      <c r="I78" s="43">
         <v>8.3800000000000008</v>
       </c>
     </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A78" s="49"/>
-      <c r="B78" s="50"/>
-      <c r="C78" s="21">
+    <row r="79" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A79" s="57"/>
+      <c r="B79" s="55"/>
+      <c r="C79" s="21">
         <v>1</v>
       </c>
-      <c r="D78" s="15">
+      <c r="D79" s="15">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="E78" s="15">
+      <c r="E79" s="15">
         <v>0.9</v>
       </c>
-      <c r="F78" s="15">
+      <c r="F79" s="15">
         <v>7.24</v>
       </c>
-      <c r="G78" s="15">
-        <v>0</v>
-      </c>
-      <c r="H78" s="15">
+      <c r="G79" s="15">
+        <v>0</v>
+      </c>
+      <c r="H79" s="15">
         <v>0.76</v>
       </c>
-      <c r="I78" s="40">
+      <c r="I79" s="40">
         <v>8.2100000000000009</v>
       </c>
     </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A79" s="49"/>
-      <c r="B79" s="51"/>
-      <c r="C79" s="44">
+    <row r="80" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A80" s="57"/>
+      <c r="B80" s="56"/>
+      <c r="C80" s="44">
         <v>2</v>
       </c>
-      <c r="D79" s="45">
+      <c r="D80" s="45">
         <v>0.04</v>
       </c>
-      <c r="E79" s="45">
+      <c r="E80" s="45">
         <v>0.94</v>
       </c>
-      <c r="F79" s="45">
+      <c r="F80" s="45">
         <v>5.39</v>
       </c>
-      <c r="G79" s="45">
-        <v>0</v>
-      </c>
-      <c r="H79" s="45">
+      <c r="G80" s="45">
+        <v>0</v>
+      </c>
+      <c r="H80" s="45">
         <v>0.74</v>
       </c>
-      <c r="I79" s="45">
+      <c r="I80" s="45">
         <v>6.37</v>
       </c>
     </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A80" s="49"/>
-      <c r="B80" s="52">
+    <row r="81" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A81" s="57"/>
+      <c r="B81" s="54">
         <v>4</v>
       </c>
-      <c r="C80" s="13">
-        <v>0</v>
-      </c>
-      <c r="D80" s="42">
+      <c r="C81" s="13">
+        <v>0</v>
+      </c>
+      <c r="D81" s="42">
         <v>0.03</v>
       </c>
-      <c r="E80" s="42">
+      <c r="E81" s="42">
         <v>6.34</v>
       </c>
-      <c r="F80" s="42">
+      <c r="F81" s="42">
         <v>5.98</v>
       </c>
-      <c r="G80" s="42">
-        <v>0</v>
-      </c>
-      <c r="H80" s="42">
+      <c r="G81" s="42">
+        <v>0</v>
+      </c>
+      <c r="H81" s="42">
         <v>3.28</v>
       </c>
-      <c r="I80" s="43">
+      <c r="I81" s="43">
         <v>12.35</v>
       </c>
     </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A81" s="49"/>
-      <c r="B81" s="50"/>
-      <c r="C81" s="21">
+    <row r="82" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A82" s="57"/>
+      <c r="B82" s="55"/>
+      <c r="C82" s="21">
         <v>1</v>
       </c>
-      <c r="D81" s="15">
+      <c r="D82" s="15">
         <v>0.04</v>
       </c>
-      <c r="E81" s="15">
+      <c r="E82" s="15">
         <v>6.16</v>
       </c>
-      <c r="F81" s="15">
+      <c r="F82" s="15">
         <v>6.76</v>
       </c>
-      <c r="G81" s="15">
-        <v>0</v>
-      </c>
-      <c r="H81" s="15">
+      <c r="G82" s="15">
+        <v>0</v>
+      </c>
+      <c r="H82" s="15">
         <v>3.56</v>
       </c>
-      <c r="I81" s="40">
+      <c r="I82" s="40">
         <v>12.96</v>
       </c>
     </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A82" s="49"/>
-      <c r="B82" s="51"/>
-      <c r="C82" s="22">
+    <row r="83" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A83" s="57"/>
+      <c r="B83" s="56"/>
+      <c r="C83" s="22">
         <v>2</v>
       </c>
-      <c r="D82" s="17">
+      <c r="D83" s="17">
         <v>0.03</v>
       </c>
-      <c r="E82" s="17">
+      <c r="E83" s="17">
         <v>6.05</v>
       </c>
-      <c r="F82" s="17">
+      <c r="F83" s="17">
         <v>7.87</v>
       </c>
-      <c r="G82" s="17">
-        <v>0</v>
-      </c>
-      <c r="H82" s="17">
+      <c r="G83" s="17">
+        <v>0</v>
+      </c>
+      <c r="H83" s="17">
         <v>3.54</v>
       </c>
-      <c r="I82" s="41">
+      <c r="I83" s="41">
         <v>13.96</v>
       </c>
     </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="D83" s="5"/>
-      <c r="E83" s="5"/>
-      <c r="F83" s="5"/>
-      <c r="G83" s="5"/>
-      <c r="H83" s="5"/>
-      <c r="I83" s="5"/>
-    </row>
     <row r="84" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A84" s="49">
+      <c r="D84" s="5"/>
+      <c r="E84" s="5"/>
+      <c r="F84" s="5"/>
+      <c r="G84" s="5"/>
+      <c r="H84" s="5"/>
+      <c r="I84" s="5"/>
+    </row>
+    <row r="85" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A85" s="57">
         <v>512</v>
       </c>
-      <c r="B84" s="50">
-        <v>0</v>
-      </c>
-      <c r="C84" s="21">
-        <v>0</v>
-      </c>
-      <c r="D84" s="15">
+      <c r="B85" s="55">
+        <v>0</v>
+      </c>
+      <c r="C85" s="21">
+        <v>0</v>
+      </c>
+      <c r="D85" s="15">
         <v>0.05</v>
       </c>
-      <c r="E84" s="15">
+      <c r="E85" s="15">
         <v>11.13</v>
       </c>
-      <c r="F84" s="15">
+      <c r="F85" s="15">
         <v>6.22</v>
       </c>
-      <c r="G84" s="15">
-        <v>0</v>
-      </c>
-      <c r="H84" s="15"/>
-      <c r="I84" s="40">
+      <c r="G85" s="15">
+        <v>0</v>
+      </c>
+      <c r="H85" s="15"/>
+      <c r="I85" s="40">
         <v>17.41</v>
       </c>
     </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A85" s="49"/>
-      <c r="B85" s="50"/>
-      <c r="C85" s="21">
+    <row r="86" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A86" s="57"/>
+      <c r="B86" s="55"/>
+      <c r="C86" s="21">
         <v>1</v>
       </c>
-      <c r="D85" s="15">
+      <c r="D86" s="15">
         <v>0.04</v>
       </c>
-      <c r="E85" s="15">
+      <c r="E86" s="15">
         <v>11.48</v>
       </c>
-      <c r="F85" s="15">
+      <c r="F86" s="15">
         <v>8.5</v>
       </c>
-      <c r="G85" s="15">
-        <v>0</v>
-      </c>
-      <c r="H85" s="15">
+      <c r="G86" s="15">
+        <v>0</v>
+      </c>
+      <c r="H86" s="15">
         <v>0.51</v>
       </c>
-      <c r="I85" s="40">
+      <c r="I86" s="40">
         <v>20.03</v>
       </c>
     </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A86" s="49"/>
-      <c r="B86" s="51"/>
-      <c r="C86" s="22">
+    <row r="87" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A87" s="57"/>
+      <c r="B87" s="56"/>
+      <c r="C87" s="22">
         <v>2</v>
       </c>
-      <c r="D86" s="17">
+      <c r="D87" s="17">
         <v>0.05</v>
       </c>
-      <c r="E86" s="17">
+      <c r="E87" s="17">
         <v>11.32</v>
       </c>
-      <c r="F86" s="17">
+      <c r="F87" s="17">
         <v>6.15</v>
       </c>
-      <c r="G86" s="17">
-        <v>0</v>
-      </c>
-      <c r="H86" s="17">
+      <c r="G87" s="17">
+        <v>0</v>
+      </c>
+      <c r="H87" s="17">
         <v>0.49</v>
       </c>
-      <c r="I86" s="41">
+      <c r="I87" s="41">
         <v>17.510000000000002</v>
       </c>
     </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A87" s="49"/>
-      <c r="B87" s="52">
+    <row r="88" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A88" s="57"/>
+      <c r="B88" s="54">
         <v>2</v>
       </c>
-      <c r="C87" s="13">
-        <v>0</v>
-      </c>
-      <c r="D87" s="42">
+      <c r="C88" s="13">
+        <v>0</v>
+      </c>
+      <c r="D88" s="42">
         <v>0.03</v>
       </c>
-      <c r="E87" s="42">
+      <c r="E88" s="42">
         <v>6.51</v>
       </c>
-      <c r="F87" s="42">
+      <c r="F88" s="42">
         <v>5.85</v>
       </c>
-      <c r="G87" s="42">
+      <c r="G88" s="42">
         <v>0.01</v>
       </c>
-      <c r="H87" s="42"/>
-      <c r="I87" s="43">
+      <c r="H88" s="42"/>
+      <c r="I88" s="43">
         <v>12.4</v>
       </c>
     </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A88" s="49"/>
-      <c r="B88" s="50"/>
-      <c r="C88" s="21">
+    <row r="89" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A89" s="57"/>
+      <c r="B89" s="55"/>
+      <c r="C89" s="21">
         <v>1</v>
       </c>
-      <c r="D88" s="15">
+      <c r="D89" s="15">
         <v>0.09</v>
       </c>
-      <c r="E88" s="15">
+      <c r="E89" s="15">
         <v>7.15</v>
       </c>
-      <c r="F88" s="15">
+      <c r="F89" s="15">
         <v>6.75</v>
       </c>
-      <c r="G88" s="15">
-        <v>0</v>
-      </c>
-      <c r="H88" s="15">
+      <c r="G89" s="15">
+        <v>0</v>
+      </c>
+      <c r="H89" s="15">
         <v>0.52</v>
       </c>
-      <c r="I88" s="40">
+      <c r="I89" s="40">
         <v>13.99</v>
       </c>
     </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A89" s="49"/>
-      <c r="B89" s="51"/>
-      <c r="C89" s="22">
+    <row r="90" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A90" s="57"/>
+      <c r="B90" s="56"/>
+      <c r="C90" s="22">
         <v>2</v>
       </c>
-      <c r="D89" s="17">
+      <c r="D90" s="17">
         <v>0.05</v>
       </c>
-      <c r="E89" s="17">
+      <c r="E90" s="17">
         <v>6.68</v>
       </c>
-      <c r="F89" s="17">
+      <c r="F90" s="17">
         <v>5.84</v>
       </c>
-      <c r="G89" s="17">
-        <v>0</v>
-      </c>
-      <c r="H89" s="17">
+      <c r="G90" s="17">
+        <v>0</v>
+      </c>
+      <c r="H90" s="17">
         <v>0.49</v>
       </c>
-      <c r="I89" s="41">
+      <c r="I90" s="41">
         <v>12.57</v>
       </c>
     </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A90" s="49"/>
-      <c r="B90" s="52">
+    <row r="91" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A91" s="57"/>
+      <c r="B91" s="54">
         <v>3</v>
       </c>
-      <c r="C90" s="13">
-        <v>0</v>
-      </c>
-      <c r="D90" s="42">
+      <c r="C91" s="13">
+        <v>0</v>
+      </c>
+      <c r="D91" s="42">
         <v>0.04</v>
       </c>
-      <c r="E90" s="42">
+      <c r="E91" s="42">
         <v>0.91</v>
       </c>
-      <c r="F90" s="42">
+      <c r="F91" s="42">
         <v>6.66</v>
       </c>
-      <c r="G90" s="42">
-        <v>0</v>
-      </c>
-      <c r="H90" s="42">
+      <c r="G91" s="42">
+        <v>0</v>
+      </c>
+      <c r="H91" s="42">
         <v>0.32</v>
       </c>
-      <c r="I90" s="43">
+      <c r="I91" s="43">
         <v>7.6</v>
       </c>
     </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A91" s="49"/>
-      <c r="B91" s="50"/>
-      <c r="C91" s="21">
+    <row r="92" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A92" s="57"/>
+      <c r="B92" s="55"/>
+      <c r="C92" s="21">
         <v>1</v>
       </c>
-      <c r="D91" s="15">
+      <c r="D92" s="15">
         <v>0.04</v>
       </c>
-      <c r="E91" s="15">
+      <c r="E92" s="15">
         <v>0.81</v>
       </c>
-      <c r="F91" s="15">
+      <c r="F92" s="15">
         <v>6.79</v>
       </c>
-      <c r="G91" s="15">
-        <v>0</v>
-      </c>
-      <c r="H91" s="15">
+      <c r="G92" s="15">
+        <v>0</v>
+      </c>
+      <c r="H92" s="15">
         <v>0.68</v>
       </c>
-      <c r="I91" s="40">
+      <c r="I92" s="40">
         <v>7.64</v>
       </c>
     </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A92" s="49"/>
-      <c r="B92" s="51"/>
-      <c r="C92" s="44">
+    <row r="93" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A93" s="57"/>
+      <c r="B93" s="56"/>
+      <c r="C93" s="44">
         <v>2</v>
       </c>
-      <c r="D92" s="45">
+      <c r="D93" s="45">
         <v>0.04</v>
       </c>
-      <c r="E92" s="45">
+      <c r="E93" s="45">
         <v>1.1499999999999999</v>
       </c>
-      <c r="F92" s="45">
+      <c r="F93" s="45">
         <v>6.34</v>
       </c>
-      <c r="G92" s="45">
-        <v>0</v>
-      </c>
-      <c r="H92" s="45">
+      <c r="G93" s="45">
+        <v>0</v>
+      </c>
+      <c r="H93" s="45">
         <v>0.65</v>
       </c>
-      <c r="I92" s="45">
+      <c r="I93" s="45">
         <v>7.54</v>
       </c>
     </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A93" s="49"/>
-      <c r="B93" s="52">
+    <row r="94" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A94" s="57"/>
+      <c r="B94" s="54">
         <v>4</v>
       </c>
-      <c r="C93" s="13">
-        <v>0</v>
-      </c>
-      <c r="D93" s="42">
+      <c r="C94" s="13">
+        <v>0</v>
+      </c>
+      <c r="D94" s="42">
         <v>0.04</v>
       </c>
-      <c r="E93" s="42">
+      <c r="E94" s="42">
         <v>6.02</v>
       </c>
-      <c r="F93" s="42">
+      <c r="F94" s="42">
         <v>6.19</v>
       </c>
-      <c r="G93" s="42">
-        <v>0</v>
-      </c>
-      <c r="H93" s="42">
+      <c r="G94" s="42">
+        <v>0</v>
+      </c>
+      <c r="H94" s="42">
         <v>3.3</v>
       </c>
-      <c r="I93" s="43">
+      <c r="I94" s="43">
         <v>12.25</v>
       </c>
     </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A94" s="49"/>
-      <c r="B94" s="50"/>
-      <c r="C94" s="21">
+    <row r="95" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A95" s="57"/>
+      <c r="B95" s="55"/>
+      <c r="C95" s="21">
         <v>1</v>
       </c>
-      <c r="D94" s="15">
+      <c r="D95" s="15">
         <v>0.04</v>
       </c>
-      <c r="E94" s="15">
+      <c r="E95" s="15">
         <v>6.63</v>
       </c>
-      <c r="F94" s="15">
+      <c r="F95" s="15">
         <v>6.88</v>
       </c>
-      <c r="G94" s="15">
-        <v>0</v>
-      </c>
-      <c r="H94" s="15">
+      <c r="G95" s="15">
+        <v>0</v>
+      </c>
+      <c r="H95" s="15">
         <v>3.57</v>
       </c>
-      <c r="I94" s="40">
+      <c r="I95" s="40">
         <v>13.54</v>
       </c>
     </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A95" s="49"/>
-      <c r="B95" s="51"/>
-      <c r="C95" s="22">
+    <row r="96" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A96" s="57"/>
+      <c r="B96" s="56"/>
+      <c r="C96" s="22">
         <v>2</v>
       </c>
-      <c r="D95" s="17">
+      <c r="D96" s="17">
         <v>0.04</v>
       </c>
-      <c r="E95" s="17">
+      <c r="E96" s="17">
         <v>6.05</v>
       </c>
-      <c r="F95" s="17">
+      <c r="F96" s="17">
         <v>6.12</v>
       </c>
-      <c r="G95" s="17">
-        <v>0</v>
-      </c>
-      <c r="H95" s="17">
+      <c r="G96" s="17">
+        <v>0</v>
+      </c>
+      <c r="H96" s="17">
         <v>3.56</v>
       </c>
-      <c r="I95" s="41">
+      <c r="I96" s="41">
         <v>12.22</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="52">
-    <mergeCell ref="B35:B37"/>
-    <mergeCell ref="B38:B40"/>
-    <mergeCell ref="B41:B43"/>
-    <mergeCell ref="A32:A43"/>
-    <mergeCell ref="B32:B34"/>
-    <mergeCell ref="B16:G16"/>
-    <mergeCell ref="M16:O16"/>
-    <mergeCell ref="E29:L29"/>
-    <mergeCell ref="B22:C26"/>
-    <mergeCell ref="B27:C29"/>
-    <mergeCell ref="E23:L23"/>
-    <mergeCell ref="E24:L24"/>
-    <mergeCell ref="E25:L25"/>
-    <mergeCell ref="E27:L27"/>
-    <mergeCell ref="E28:L28"/>
-    <mergeCell ref="M18:P18"/>
+    <mergeCell ref="A59:A70"/>
+    <mergeCell ref="B59:B61"/>
+    <mergeCell ref="B62:B64"/>
+    <mergeCell ref="B65:B67"/>
+    <mergeCell ref="B68:B70"/>
+    <mergeCell ref="A46:A57"/>
+    <mergeCell ref="B46:B48"/>
+    <mergeCell ref="B49:B51"/>
+    <mergeCell ref="B52:B54"/>
+    <mergeCell ref="B55:B57"/>
+    <mergeCell ref="A72:A83"/>
+    <mergeCell ref="B72:B74"/>
+    <mergeCell ref="B75:B77"/>
+    <mergeCell ref="B78:B80"/>
+    <mergeCell ref="B81:B83"/>
+    <mergeCell ref="A85:A96"/>
+    <mergeCell ref="B85:B87"/>
+    <mergeCell ref="B88:B90"/>
+    <mergeCell ref="B91:B93"/>
+    <mergeCell ref="B94:B96"/>
     <mergeCell ref="C2:D2"/>
     <mergeCell ref="E2:F2"/>
     <mergeCell ref="C1:D1"/>
@@ -5041,26 +5323,22 @@
     <mergeCell ref="B12:G12"/>
     <mergeCell ref="B11:G11"/>
     <mergeCell ref="B15:G15"/>
-    <mergeCell ref="A84:A95"/>
-    <mergeCell ref="B84:B86"/>
-    <mergeCell ref="B87:B89"/>
-    <mergeCell ref="B90:B92"/>
-    <mergeCell ref="B93:B95"/>
-    <mergeCell ref="A71:A82"/>
-    <mergeCell ref="B71:B73"/>
-    <mergeCell ref="B74:B76"/>
-    <mergeCell ref="B77:B79"/>
-    <mergeCell ref="B80:B82"/>
-    <mergeCell ref="A45:A56"/>
-    <mergeCell ref="B45:B47"/>
-    <mergeCell ref="B48:B50"/>
-    <mergeCell ref="B51:B53"/>
-    <mergeCell ref="B54:B56"/>
-    <mergeCell ref="A58:A69"/>
-    <mergeCell ref="B58:B60"/>
-    <mergeCell ref="B61:B63"/>
-    <mergeCell ref="B64:B66"/>
-    <mergeCell ref="B67:B69"/>
+    <mergeCell ref="B16:G16"/>
+    <mergeCell ref="M16:O16"/>
+    <mergeCell ref="E29:L29"/>
+    <mergeCell ref="B22:C26"/>
+    <mergeCell ref="B27:C29"/>
+    <mergeCell ref="E23:L23"/>
+    <mergeCell ref="E24:L24"/>
+    <mergeCell ref="E25:L25"/>
+    <mergeCell ref="E27:L27"/>
+    <mergeCell ref="E28:L28"/>
+    <mergeCell ref="M18:P18"/>
+    <mergeCell ref="B36:B38"/>
+    <mergeCell ref="B39:B41"/>
+    <mergeCell ref="B42:B44"/>
+    <mergeCell ref="A33:A44"/>
+    <mergeCell ref="B33:B35"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5070,8 +5348,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EEB59053-13F2-094D-82C0-890629C295AC}">
   <dimension ref="A1:Y96"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A97" sqref="A97"/>
+    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5092,23 +5370,23 @@
       <c r="B1" t="s">
         <v>10</v>
       </c>
-      <c r="C1" s="53" t="s">
+      <c r="C1" s="72" t="s">
         <v>11</v>
       </c>
-      <c r="D1" s="53"/>
+      <c r="D1" s="72"/>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="53" t="s">
+      <c r="C2" s="72" t="s">
         <v>13</v>
       </c>
-      <c r="D2" s="53"/>
-      <c r="E2" s="53" t="s">
+      <c r="D2" s="72"/>
+      <c r="E2" s="72" t="s">
         <v>14</v>
       </c>
-      <c r="F2" s="53"/>
+      <c r="F2" s="72"/>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
@@ -5125,13 +5403,13 @@
       <c r="C4" s="39" t="s">
         <v>32</v>
       </c>
-      <c r="D4" s="72" t="s">
+      <c r="D4" s="77" t="s">
         <v>35</v>
       </c>
-      <c r="E4" s="72"/>
-      <c r="F4" s="72"/>
-      <c r="G4" s="72"/>
-      <c r="H4" s="72"/>
+      <c r="E4" s="77"/>
+      <c r="F4" s="77"/>
+      <c r="G4" s="77"/>
+      <c r="H4" s="77"/>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B5" s="33"/>
@@ -5150,14 +5428,14 @@
       <c r="K5" s="31"/>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="B6" s="60" t="s">
+      <c r="B6" s="58" t="s">
         <v>16</v>
       </c>
-      <c r="C6" s="61"/>
-      <c r="D6" s="61"/>
-      <c r="E6" s="61"/>
-      <c r="F6" s="61"/>
-      <c r="G6" s="61"/>
+      <c r="C6" s="59"/>
+      <c r="D6" s="59"/>
+      <c r="E6" s="59"/>
+      <c r="F6" s="59"/>
+      <c r="G6" s="59"/>
       <c r="H6" s="15">
         <v>5625.48</v>
       </c>
@@ -5168,14 +5446,14 @@
       <c r="K6" s="31"/>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="B7" s="60" t="s">
+      <c r="B7" s="58" t="s">
         <v>17</v>
       </c>
-      <c r="C7" s="61"/>
-      <c r="D7" s="61"/>
-      <c r="E7" s="61"/>
-      <c r="F7" s="61"/>
-      <c r="G7" s="61"/>
+      <c r="C7" s="59"/>
+      <c r="D7" s="59"/>
+      <c r="E7" s="59"/>
+      <c r="F7" s="59"/>
+      <c r="G7" s="59"/>
       <c r="H7" s="15">
         <v>29141.61</v>
       </c>
@@ -5186,14 +5464,14 @@
       <c r="K7" s="31"/>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="B8" s="58" t="s">
+      <c r="B8" s="75" t="s">
         <v>18</v>
       </c>
-      <c r="C8" s="59"/>
-      <c r="D8" s="59"/>
-      <c r="E8" s="59"/>
-      <c r="F8" s="59"/>
-      <c r="G8" s="59"/>
+      <c r="C8" s="76"/>
+      <c r="D8" s="76"/>
+      <c r="E8" s="76"/>
+      <c r="F8" s="76"/>
+      <c r="G8" s="76"/>
       <c r="H8" s="17">
         <v>34767.089999999997</v>
       </c>
@@ -5216,14 +5494,14 @@
       <c r="K9" s="31"/>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="B10" s="56" t="s">
+      <c r="B10" s="73" t="s">
         <v>27</v>
       </c>
-      <c r="C10" s="57"/>
-      <c r="D10" s="57"/>
-      <c r="E10" s="57"/>
-      <c r="F10" s="57"/>
-      <c r="G10" s="57"/>
+      <c r="C10" s="74"/>
+      <c r="D10" s="74"/>
+      <c r="E10" s="74"/>
+      <c r="F10" s="74"/>
+      <c r="G10" s="74"/>
       <c r="H10" s="8">
         <v>45</v>
       </c>
@@ -5232,15 +5510,15 @@
       <c r="K10" s="31"/>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="B11" s="60" t="s">
+      <c r="B11" s="58" t="s">
         <v>28</v>
       </c>
-      <c r="C11" s="61"/>
-      <c r="D11" s="61"/>
-      <c r="E11" s="61"/>
-      <c r="F11" s="61"/>
-      <c r="G11" s="61"/>
-      <c r="H11" s="10">
+      <c r="C11" s="59"/>
+      <c r="D11" s="59"/>
+      <c r="E11" s="59"/>
+      <c r="F11" s="59"/>
+      <c r="G11" s="59"/>
+      <c r="H11" s="87">
         <v>638</v>
       </c>
       <c r="I11" s="31"/>
@@ -5248,14 +5526,14 @@
       <c r="K11" s="31"/>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="B12" s="60" t="s">
+      <c r="B12" s="58" t="s">
         <v>22</v>
       </c>
-      <c r="C12" s="61"/>
-      <c r="D12" s="61"/>
-      <c r="E12" s="61"/>
-      <c r="F12" s="61"/>
-      <c r="G12" s="61"/>
+      <c r="C12" s="59"/>
+      <c r="D12" s="59"/>
+      <c r="E12" s="59"/>
+      <c r="F12" s="59"/>
+      <c r="G12" s="59"/>
       <c r="H12" s="10">
         <v>4413034</v>
       </c>
@@ -5264,14 +5542,14 @@
       <c r="K12" s="31"/>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="B13" s="58" t="s">
+      <c r="B13" s="75" t="s">
         <v>23</v>
       </c>
-      <c r="C13" s="59"/>
-      <c r="D13" s="59"/>
-      <c r="E13" s="59"/>
-      <c r="F13" s="59"/>
-      <c r="G13" s="59"/>
+      <c r="C13" s="76"/>
+      <c r="D13" s="76"/>
+      <c r="E13" s="76"/>
+      <c r="F13" s="76"/>
+      <c r="G13" s="76"/>
       <c r="H13" s="12">
         <v>35209</v>
       </c>
@@ -5292,14 +5570,14 @@
       <c r="K14" s="31"/>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="B15" s="56" t="s">
+      <c r="B15" s="73" t="s">
         <v>30</v>
       </c>
-      <c r="C15" s="57"/>
-      <c r="D15" s="57"/>
-      <c r="E15" s="57"/>
-      <c r="F15" s="57"/>
-      <c r="G15" s="57"/>
+      <c r="C15" s="74"/>
+      <c r="D15" s="74"/>
+      <c r="E15" s="74"/>
+      <c r="F15" s="74"/>
+      <c r="G15" s="74"/>
       <c r="H15" s="46">
         <v>32</v>
       </c>
@@ -5317,14 +5595,14 @@
       </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="B16" s="60" t="s">
+      <c r="B16" s="58" t="s">
         <v>52</v>
       </c>
-      <c r="C16" s="61"/>
-      <c r="D16" s="61"/>
-      <c r="E16" s="61"/>
-      <c r="F16" s="61"/>
-      <c r="G16" s="61"/>
+      <c r="C16" s="59"/>
+      <c r="D16" s="59"/>
+      <c r="E16" s="59"/>
+      <c r="F16" s="59"/>
+      <c r="G16" s="59"/>
       <c r="H16" s="9">
         <f>$H$13/H15</f>
         <v>1100.28125</v>
@@ -5345,21 +5623,21 @@
         <f t="shared" si="0"/>
         <v>68.767578125</v>
       </c>
-      <c r="M16" s="62" t="s">
+      <c r="M16" s="60" t="s">
         <v>53</v>
       </c>
-      <c r="N16" s="63"/>
-      <c r="O16" s="63"/>
+      <c r="N16" s="61"/>
+      <c r="O16" s="61"/>
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="B17" s="60" t="s">
+      <c r="B17" s="58" t="s">
         <v>21</v>
       </c>
-      <c r="C17" s="61"/>
-      <c r="D17" s="61"/>
-      <c r="E17" s="61"/>
-      <c r="F17" s="61"/>
-      <c r="G17" s="61"/>
+      <c r="C17" s="59"/>
+      <c r="D17" s="59"/>
+      <c r="E17" s="59"/>
+      <c r="F17" s="59"/>
+      <c r="G17" s="59"/>
       <c r="H17" s="25">
         <v>53592</v>
       </c>
@@ -5377,14 +5655,14 @@
       </c>
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="B18" s="60" t="s">
+      <c r="B18" s="58" t="s">
         <v>24</v>
       </c>
-      <c r="C18" s="61"/>
-      <c r="D18" s="61"/>
-      <c r="E18" s="61"/>
-      <c r="F18" s="61"/>
-      <c r="G18" s="61"/>
+      <c r="C18" s="59"/>
+      <c r="D18" s="59"/>
+      <c r="E18" s="59"/>
+      <c r="F18" s="59"/>
+      <c r="G18" s="59"/>
       <c r="H18" s="48">
         <v>1674.75</v>
       </c>
@@ -5403,19 +5681,19 @@
       <c r="M18" s="71" t="s">
         <v>37</v>
       </c>
-      <c r="N18" s="63"/>
-      <c r="O18" s="63"/>
-      <c r="P18" s="63"/>
+      <c r="N18" s="61"/>
+      <c r="O18" s="61"/>
+      <c r="P18" s="61"/>
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="B19" s="60" t="s">
+      <c r="B19" s="58" t="s">
         <v>25</v>
       </c>
-      <c r="C19" s="61"/>
-      <c r="D19" s="61"/>
-      <c r="E19" s="61"/>
-      <c r="F19" s="61"/>
-      <c r="G19" s="61"/>
+      <c r="C19" s="59"/>
+      <c r="D19" s="59"/>
+      <c r="E19" s="59"/>
+      <c r="F19" s="59"/>
+      <c r="G19" s="59"/>
       <c r="H19" s="25">
         <v>14477</v>
       </c>
@@ -5433,14 +5711,14 @@
       </c>
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="B20" s="58" t="s">
+      <c r="B20" s="75" t="s">
         <v>26</v>
       </c>
-      <c r="C20" s="59"/>
-      <c r="D20" s="59"/>
-      <c r="E20" s="59"/>
-      <c r="F20" s="59"/>
-      <c r="G20" s="59"/>
+      <c r="C20" s="76"/>
+      <c r="D20" s="76"/>
+      <c r="E20" s="76"/>
+      <c r="F20" s="76"/>
+      <c r="G20" s="76"/>
       <c r="H20" s="47">
         <v>11</v>
       </c>
@@ -5470,78 +5748,78 @@
       <c r="K21" s="25"/>
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="B22" s="66" t="s">
+      <c r="B22" s="64" t="s">
         <v>42</v>
       </c>
-      <c r="C22" s="52"/>
+      <c r="C22" s="54"/>
       <c r="D22" s="13">
         <v>0</v>
       </c>
-      <c r="E22" s="54" t="s">
+      <c r="E22" s="69" t="s">
         <v>43</v>
       </c>
-      <c r="F22" s="54"/>
-      <c r="G22" s="54"/>
-      <c r="H22" s="54"/>
-      <c r="I22" s="54"/>
-      <c r="J22" s="54"/>
-      <c r="K22" s="54"/>
-      <c r="L22" s="55"/>
+      <c r="F22" s="69"/>
+      <c r="G22" s="69"/>
+      <c r="H22" s="69"/>
+      <c r="I22" s="69"/>
+      <c r="J22" s="69"/>
+      <c r="K22" s="69"/>
+      <c r="L22" s="70"/>
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="B23" s="67"/>
-      <c r="C23" s="50"/>
+      <c r="B23" s="65"/>
+      <c r="C23" s="55"/>
       <c r="D23" s="21">
         <v>1</v>
       </c>
-      <c r="E23" s="69" t="s">
+      <c r="E23" s="67" t="s">
         <v>46</v>
       </c>
-      <c r="F23" s="69"/>
-      <c r="G23" s="69"/>
-      <c r="H23" s="69"/>
-      <c r="I23" s="69"/>
-      <c r="J23" s="69"/>
-      <c r="K23" s="69"/>
-      <c r="L23" s="70"/>
+      <c r="F23" s="67"/>
+      <c r="G23" s="67"/>
+      <c r="H23" s="67"/>
+      <c r="I23" s="67"/>
+      <c r="J23" s="67"/>
+      <c r="K23" s="67"/>
+      <c r="L23" s="68"/>
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="B24" s="67"/>
-      <c r="C24" s="50"/>
+      <c r="B24" s="65"/>
+      <c r="C24" s="55"/>
       <c r="D24" s="21">
         <v>2</v>
       </c>
-      <c r="E24" s="69" t="s">
+      <c r="E24" s="67" t="s">
         <v>47</v>
       </c>
-      <c r="F24" s="69"/>
-      <c r="G24" s="69"/>
-      <c r="H24" s="69"/>
-      <c r="I24" s="69"/>
-      <c r="J24" s="69"/>
-      <c r="K24" s="69"/>
-      <c r="L24" s="70"/>
+      <c r="F24" s="67"/>
+      <c r="G24" s="67"/>
+      <c r="H24" s="67"/>
+      <c r="I24" s="67"/>
+      <c r="J24" s="67"/>
+      <c r="K24" s="67"/>
+      <c r="L24" s="68"/>
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="B25" s="67"/>
-      <c r="C25" s="50"/>
+      <c r="B25" s="65"/>
+      <c r="C25" s="55"/>
       <c r="D25" s="21">
         <v>3</v>
       </c>
-      <c r="E25" s="69" t="s">
+      <c r="E25" s="67" t="s">
         <v>48</v>
       </c>
-      <c r="F25" s="69"/>
-      <c r="G25" s="69"/>
-      <c r="H25" s="69"/>
-      <c r="I25" s="69"/>
-      <c r="J25" s="69"/>
-      <c r="K25" s="69"/>
-      <c r="L25" s="70"/>
+      <c r="F25" s="67"/>
+      <c r="G25" s="67"/>
+      <c r="H25" s="67"/>
+      <c r="I25" s="67"/>
+      <c r="J25" s="67"/>
+      <c r="K25" s="67"/>
+      <c r="L25" s="68"/>
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="B26" s="68"/>
-      <c r="C26" s="51"/>
+      <c r="B26" s="66"/>
+      <c r="C26" s="56"/>
       <c r="D26" s="22">
         <v>4</v>
       </c>
@@ -5557,57 +5835,57 @@
       <c r="L26" s="38"/>
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="B27" s="66" t="s">
+      <c r="B27" s="64" t="s">
         <v>50</v>
       </c>
-      <c r="C27" s="52"/>
+      <c r="C27" s="54"/>
       <c r="D27" s="13">
         <v>0</v>
       </c>
-      <c r="E27" s="54" t="s">
+      <c r="E27" s="69" t="s">
         <v>44</v>
       </c>
-      <c r="F27" s="54"/>
-      <c r="G27" s="54"/>
-      <c r="H27" s="54"/>
-      <c r="I27" s="54"/>
-      <c r="J27" s="54"/>
-      <c r="K27" s="54"/>
-      <c r="L27" s="55"/>
+      <c r="F27" s="69"/>
+      <c r="G27" s="69"/>
+      <c r="H27" s="69"/>
+      <c r="I27" s="69"/>
+      <c r="J27" s="69"/>
+      <c r="K27" s="69"/>
+      <c r="L27" s="70"/>
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="B28" s="67"/>
-      <c r="C28" s="50"/>
+      <c r="B28" s="65"/>
+      <c r="C28" s="55"/>
       <c r="D28" s="21">
         <v>1</v>
       </c>
-      <c r="E28" s="69" t="s">
+      <c r="E28" s="67" t="s">
         <v>45</v>
       </c>
-      <c r="F28" s="69"/>
-      <c r="G28" s="69"/>
-      <c r="H28" s="69"/>
-      <c r="I28" s="69"/>
-      <c r="J28" s="69"/>
-      <c r="K28" s="69"/>
-      <c r="L28" s="70"/>
+      <c r="F28" s="67"/>
+      <c r="G28" s="67"/>
+      <c r="H28" s="67"/>
+      <c r="I28" s="67"/>
+      <c r="J28" s="67"/>
+      <c r="K28" s="67"/>
+      <c r="L28" s="68"/>
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="B29" s="68"/>
-      <c r="C29" s="51"/>
+      <c r="B29" s="66"/>
+      <c r="C29" s="56"/>
       <c r="D29" s="22">
         <v>2</v>
       </c>
-      <c r="E29" s="64" t="s">
+      <c r="E29" s="62" t="s">
         <v>51</v>
       </c>
-      <c r="F29" s="64"/>
-      <c r="G29" s="64"/>
-      <c r="H29" s="64"/>
-      <c r="I29" s="64"/>
-      <c r="J29" s="64"/>
-      <c r="K29" s="64"/>
-      <c r="L29" s="65"/>
+      <c r="F29" s="62"/>
+      <c r="G29" s="62"/>
+      <c r="H29" s="62"/>
+      <c r="I29" s="62"/>
+      <c r="J29" s="62"/>
+      <c r="K29" s="62"/>
+      <c r="L29" s="63"/>
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B30" s="19"/>
@@ -5665,10 +5943,10 @@
       </c>
     </row>
     <row r="33" spans="1:25" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="49">
+      <c r="A33" s="57">
         <v>32</v>
       </c>
-      <c r="B33" s="50">
+      <c r="B33" s="55">
         <v>0</v>
       </c>
       <c r="C33" s="21">
@@ -5692,8 +5970,8 @@
       </c>
     </row>
     <row r="34" spans="1:25" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="49"/>
-      <c r="B34" s="50"/>
+      <c r="A34" s="57"/>
+      <c r="B34" s="55"/>
       <c r="C34" s="21">
         <v>1</v>
       </c>
@@ -5717,8 +5995,8 @@
       </c>
     </row>
     <row r="35" spans="1:25" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="49"/>
-      <c r="B35" s="51"/>
+      <c r="A35" s="57"/>
+      <c r="B35" s="56"/>
       <c r="C35" s="22">
         <v>2</v>
       </c>
@@ -5742,8 +6020,8 @@
       </c>
     </row>
     <row r="36" spans="1:25" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="49"/>
-      <c r="B36" s="52">
+      <c r="A36" s="57"/>
+      <c r="B36" s="54">
         <v>2</v>
       </c>
       <c r="C36" s="13">
@@ -5767,8 +6045,8 @@
       </c>
     </row>
     <row r="37" spans="1:25" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="49"/>
-      <c r="B37" s="50"/>
+      <c r="A37" s="57"/>
+      <c r="B37" s="55"/>
       <c r="C37" s="21">
         <v>1</v>
       </c>
@@ -5792,8 +6070,8 @@
       </c>
     </row>
     <row r="38" spans="1:25" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="49"/>
-      <c r="B38" s="51"/>
+      <c r="A38" s="57"/>
+      <c r="B38" s="56"/>
       <c r="C38" s="22">
         <v>2</v>
       </c>
@@ -5817,8 +6095,8 @@
       </c>
     </row>
     <row r="39" spans="1:25" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="49"/>
-      <c r="B39" s="52">
+      <c r="A39" s="57"/>
+      <c r="B39" s="54">
         <v>3</v>
       </c>
       <c r="C39" s="13">
@@ -5844,8 +6122,8 @@
       </c>
     </row>
     <row r="40" spans="1:25" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="49"/>
-      <c r="B40" s="50"/>
+      <c r="A40" s="57"/>
+      <c r="B40" s="55"/>
       <c r="C40" s="21">
         <v>1</v>
       </c>
@@ -5869,8 +6147,8 @@
       </c>
     </row>
     <row r="41" spans="1:25" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="49"/>
-      <c r="B41" s="51"/>
+      <c r="A41" s="57"/>
+      <c r="B41" s="56"/>
       <c r="C41" s="44">
         <v>2</v>
       </c>
@@ -5894,8 +6172,8 @@
       </c>
     </row>
     <row r="42" spans="1:25" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="49"/>
-      <c r="B42" s="52">
+      <c r="A42" s="57"/>
+      <c r="B42" s="54">
         <v>4</v>
       </c>
       <c r="C42" s="13">
@@ -5921,8 +6199,8 @@
       </c>
     </row>
     <row r="43" spans="1:25" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="49"/>
-      <c r="B43" s="50"/>
+      <c r="A43" s="57"/>
+      <c r="B43" s="55"/>
       <c r="C43" s="21">
         <v>1</v>
       </c>
@@ -5946,8 +6224,8 @@
       </c>
     </row>
     <row r="44" spans="1:25" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="49"/>
-      <c r="B44" s="51"/>
+      <c r="A44" s="57"/>
+      <c r="B44" s="56"/>
       <c r="C44" s="22">
         <v>2</v>
       </c>
@@ -5988,10 +6266,10 @@
       <c r="Y45"/>
     </row>
     <row r="46" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A46" s="49">
+      <c r="A46" s="57">
         <v>64</v>
       </c>
-      <c r="B46" s="50">
+      <c r="B46" s="55">
         <v>0</v>
       </c>
       <c r="C46" s="21">
@@ -6017,8 +6295,8 @@
       </c>
     </row>
     <row r="47" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A47" s="49"/>
-      <c r="B47" s="50"/>
+      <c r="A47" s="57"/>
+      <c r="B47" s="55"/>
       <c r="C47" s="21">
         <v>1</v>
       </c>
@@ -6042,8 +6320,8 @@
       </c>
     </row>
     <row r="48" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A48" s="49"/>
-      <c r="B48" s="51"/>
+      <c r="A48" s="57"/>
+      <c r="B48" s="56"/>
       <c r="C48" s="22">
         <v>2</v>
       </c>
@@ -6067,8 +6345,8 @@
       </c>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A49" s="49"/>
-      <c r="B49" s="52">
+      <c r="A49" s="57"/>
+      <c r="B49" s="54">
         <v>2</v>
       </c>
       <c r="C49" s="13">
@@ -6094,8 +6372,8 @@
       </c>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A50" s="49"/>
-      <c r="B50" s="50"/>
+      <c r="A50" s="57"/>
+      <c r="B50" s="55"/>
       <c r="C50" s="21">
         <v>1</v>
       </c>
@@ -6119,8 +6397,8 @@
       </c>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A51" s="49"/>
-      <c r="B51" s="51"/>
+      <c r="A51" s="57"/>
+      <c r="B51" s="56"/>
       <c r="C51" s="22">
         <v>2</v>
       </c>
@@ -6144,8 +6422,8 @@
       </c>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A52" s="49"/>
-      <c r="B52" s="52">
+      <c r="A52" s="57"/>
+      <c r="B52" s="54">
         <v>3</v>
       </c>
       <c r="C52" s="13">
@@ -6171,8 +6449,8 @@
       </c>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A53" s="49"/>
-      <c r="B53" s="50"/>
+      <c r="A53" s="57"/>
+      <c r="B53" s="55"/>
       <c r="C53" s="21">
         <v>1</v>
       </c>
@@ -6196,8 +6474,8 @@
       </c>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A54" s="49"/>
-      <c r="B54" s="51"/>
+      <c r="A54" s="57"/>
+      <c r="B54" s="56"/>
       <c r="C54" s="44">
         <v>2</v>
       </c>
@@ -6221,8 +6499,8 @@
       </c>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A55" s="49"/>
-      <c r="B55" s="52">
+      <c r="A55" s="57"/>
+      <c r="B55" s="54">
         <v>4</v>
       </c>
       <c r="C55" s="13">
@@ -6248,8 +6526,8 @@
       </c>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A56" s="49"/>
-      <c r="B56" s="50"/>
+      <c r="A56" s="57"/>
+      <c r="B56" s="55"/>
       <c r="C56" s="21">
         <v>1</v>
       </c>
@@ -6273,8 +6551,8 @@
       </c>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A57" s="49"/>
-      <c r="B57" s="51"/>
+      <c r="A57" s="57"/>
+      <c r="B57" s="56"/>
       <c r="C57" s="22">
         <v>2</v>
       </c>
@@ -6306,10 +6584,10 @@
       <c r="I58" s="23"/>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A59" s="49">
+      <c r="A59" s="57">
         <v>128</v>
       </c>
-      <c r="B59" s="50">
+      <c r="B59" s="55">
         <v>0</v>
       </c>
       <c r="C59" s="21">
@@ -6333,8 +6611,8 @@
       </c>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A60" s="49"/>
-      <c r="B60" s="50"/>
+      <c r="A60" s="57"/>
+      <c r="B60" s="55"/>
       <c r="C60" s="21">
         <v>1</v>
       </c>
@@ -6358,8 +6636,8 @@
       </c>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A61" s="49"/>
-      <c r="B61" s="51"/>
+      <c r="A61" s="57"/>
+      <c r="B61" s="56"/>
       <c r="C61" s="22">
         <v>2</v>
       </c>
@@ -6383,8 +6661,8 @@
       </c>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A62" s="49"/>
-      <c r="B62" s="52">
+      <c r="A62" s="57"/>
+      <c r="B62" s="54">
         <v>2</v>
       </c>
       <c r="C62" s="13">
@@ -6408,8 +6686,8 @@
       </c>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A63" s="49"/>
-      <c r="B63" s="50"/>
+      <c r="A63" s="57"/>
+      <c r="B63" s="55"/>
       <c r="C63" s="21">
         <v>1</v>
       </c>
@@ -6433,8 +6711,8 @@
       </c>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A64" s="49"/>
-      <c r="B64" s="51"/>
+      <c r="A64" s="57"/>
+      <c r="B64" s="56"/>
       <c r="C64" s="22">
         <v>2</v>
       </c>
@@ -6458,8 +6736,8 @@
       </c>
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A65" s="49"/>
-      <c r="B65" s="52">
+      <c r="A65" s="57"/>
+      <c r="B65" s="54">
         <v>3</v>
       </c>
       <c r="C65" s="13">
@@ -6485,8 +6763,8 @@
       </c>
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A66" s="49"/>
-      <c r="B66" s="50"/>
+      <c r="A66" s="57"/>
+      <c r="B66" s="55"/>
       <c r="C66" s="21">
         <v>1</v>
       </c>
@@ -6510,8 +6788,8 @@
       </c>
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A67" s="49"/>
-      <c r="B67" s="51"/>
+      <c r="A67" s="57"/>
+      <c r="B67" s="56"/>
       <c r="C67" s="44">
         <v>2</v>
       </c>
@@ -6535,8 +6813,8 @@
       </c>
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A68" s="49"/>
-      <c r="B68" s="52">
+      <c r="A68" s="57"/>
+      <c r="B68" s="54">
         <v>4</v>
       </c>
       <c r="C68" s="13">
@@ -6562,8 +6840,8 @@
       </c>
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A69" s="49"/>
-      <c r="B69" s="50"/>
+      <c r="A69" s="57"/>
+      <c r="B69" s="55"/>
       <c r="C69" s="21">
         <v>1</v>
       </c>
@@ -6587,8 +6865,8 @@
       </c>
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A70" s="49"/>
-      <c r="B70" s="51"/>
+      <c r="A70" s="57"/>
+      <c r="B70" s="56"/>
       <c r="C70" s="22">
         <v>2</v>
       </c>
@@ -6620,10 +6898,10 @@
       <c r="I71" s="23"/>
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A72" s="49">
+      <c r="A72" s="57">
         <v>256</v>
       </c>
-      <c r="B72" s="50">
+      <c r="B72" s="55">
         <v>0</v>
       </c>
       <c r="C72" s="21">
@@ -6647,8 +6925,8 @@
       </c>
     </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A73" s="49"/>
-      <c r="B73" s="50"/>
+      <c r="A73" s="57"/>
+      <c r="B73" s="55"/>
       <c r="C73" s="21">
         <v>1</v>
       </c>
@@ -6672,8 +6950,8 @@
       </c>
     </row>
     <row r="74" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A74" s="49"/>
-      <c r="B74" s="51"/>
+      <c r="A74" s="57"/>
+      <c r="B74" s="56"/>
       <c r="C74" s="22">
         <v>2</v>
       </c>
@@ -6697,8 +6975,8 @@
       </c>
     </row>
     <row r="75" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A75" s="49"/>
-      <c r="B75" s="52">
+      <c r="A75" s="57"/>
+      <c r="B75" s="54">
         <v>2</v>
       </c>
       <c r="C75" s="13">
@@ -6722,8 +7000,8 @@
       </c>
     </row>
     <row r="76" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A76" s="49"/>
-      <c r="B76" s="50"/>
+      <c r="A76" s="57"/>
+      <c r="B76" s="55"/>
       <c r="C76" s="21">
         <v>1</v>
       </c>
@@ -6747,8 +7025,8 @@
       </c>
     </row>
     <row r="77" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A77" s="49"/>
-      <c r="B77" s="51"/>
+      <c r="A77" s="57"/>
+      <c r="B77" s="56"/>
       <c r="C77" s="22">
         <v>2</v>
       </c>
@@ -6772,8 +7050,8 @@
       </c>
     </row>
     <row r="78" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A78" s="49"/>
-      <c r="B78" s="52">
+      <c r="A78" s="57"/>
+      <c r="B78" s="54">
         <v>3</v>
       </c>
       <c r="C78" s="13">
@@ -6799,8 +7077,8 @@
       </c>
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A79" s="49"/>
-      <c r="B79" s="50"/>
+      <c r="A79" s="57"/>
+      <c r="B79" s="55"/>
       <c r="C79" s="21">
         <v>1</v>
       </c>
@@ -6824,8 +7102,8 @@
       </c>
     </row>
     <row r="80" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A80" s="49"/>
-      <c r="B80" s="51"/>
+      <c r="A80" s="57"/>
+      <c r="B80" s="56"/>
       <c r="C80" s="44">
         <v>2</v>
       </c>
@@ -6849,8 +7127,8 @@
       </c>
     </row>
     <row r="81" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A81" s="49"/>
-      <c r="B81" s="52">
+      <c r="A81" s="57"/>
+      <c r="B81" s="54">
         <v>4</v>
       </c>
       <c r="C81" s="13">
@@ -6876,8 +7154,8 @@
       </c>
     </row>
     <row r="82" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A82" s="49"/>
-      <c r="B82" s="50"/>
+      <c r="A82" s="57"/>
+      <c r="B82" s="55"/>
       <c r="C82" s="21">
         <v>1</v>
       </c>
@@ -6901,8 +7179,8 @@
       </c>
     </row>
     <row r="83" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A83" s="49"/>
-      <c r="B83" s="51"/>
+      <c r="A83" s="57"/>
+      <c r="B83" s="56"/>
       <c r="C83" s="22">
         <v>2</v>
       </c>
@@ -6934,10 +7212,10 @@
       <c r="I84" s="23"/>
     </row>
     <row r="85" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A85" s="49">
+      <c r="A85" s="57">
         <v>512</v>
       </c>
-      <c r="B85" s="50">
+      <c r="B85" s="55">
         <v>0</v>
       </c>
       <c r="C85" s="21">
@@ -6961,8 +7239,8 @@
       </c>
     </row>
     <row r="86" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A86" s="49"/>
-      <c r="B86" s="50"/>
+      <c r="A86" s="57"/>
+      <c r="B86" s="55"/>
       <c r="C86" s="21">
         <v>1</v>
       </c>
@@ -6986,8 +7264,8 @@
       </c>
     </row>
     <row r="87" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A87" s="49"/>
-      <c r="B87" s="51"/>
+      <c r="A87" s="57"/>
+      <c r="B87" s="56"/>
       <c r="C87" s="22">
         <v>2</v>
       </c>
@@ -7011,8 +7289,8 @@
       </c>
     </row>
     <row r="88" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A88" s="49"/>
-      <c r="B88" s="52">
+      <c r="A88" s="57"/>
+      <c r="B88" s="54">
         <v>2</v>
       </c>
       <c r="C88" s="13">
@@ -7036,8 +7314,8 @@
       </c>
     </row>
     <row r="89" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A89" s="49"/>
-      <c r="B89" s="50"/>
+      <c r="A89" s="57"/>
+      <c r="B89" s="55"/>
       <c r="C89" s="21">
         <v>1</v>
       </c>
@@ -7061,8 +7339,8 @@
       </c>
     </row>
     <row r="90" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A90" s="49"/>
-      <c r="B90" s="51"/>
+      <c r="A90" s="57"/>
+      <c r="B90" s="56"/>
       <c r="C90" s="22">
         <v>2</v>
       </c>
@@ -7086,8 +7364,8 @@
       </c>
     </row>
     <row r="91" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A91" s="49"/>
-      <c r="B91" s="52">
+      <c r="A91" s="57"/>
+      <c r="B91" s="54">
         <v>3</v>
       </c>
       <c r="C91" s="13">
@@ -7113,8 +7391,8 @@
       </c>
     </row>
     <row r="92" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A92" s="49"/>
-      <c r="B92" s="50"/>
+      <c r="A92" s="57"/>
+      <c r="B92" s="55"/>
       <c r="C92" s="21">
         <v>1</v>
       </c>
@@ -7138,8 +7416,8 @@
       </c>
     </row>
     <row r="93" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A93" s="49"/>
-      <c r="B93" s="51"/>
+      <c r="A93" s="57"/>
+      <c r="B93" s="56"/>
       <c r="C93" s="44">
         <v>2</v>
       </c>
@@ -7163,8 +7441,8 @@
       </c>
     </row>
     <row r="94" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A94" s="49"/>
-      <c r="B94" s="52">
+      <c r="A94" s="57"/>
+      <c r="B94" s="54">
         <v>4</v>
       </c>
       <c r="C94" s="13">
@@ -7190,8 +7468,8 @@
       </c>
     </row>
     <row r="95" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A95" s="49"/>
-      <c r="B95" s="50"/>
+      <c r="A95" s="57"/>
+      <c r="B95" s="55"/>
       <c r="C95" s="21">
         <v>1</v>
       </c>
@@ -7215,8 +7493,8 @@
       </c>
     </row>
     <row r="96" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A96" s="49"/>
-      <c r="B96" s="51"/>
+      <c r="A96" s="57"/>
+      <c r="B96" s="56"/>
       <c r="C96" s="22">
         <v>2</v>
       </c>
@@ -7242,43 +7520,6 @@
   </sheetData>
   <dataConsolidate/>
   <mergeCells count="53">
-    <mergeCell ref="M16:O16"/>
-    <mergeCell ref="A33:A44"/>
-    <mergeCell ref="B33:B35"/>
-    <mergeCell ref="B36:B38"/>
-    <mergeCell ref="B39:B41"/>
-    <mergeCell ref="B42:B44"/>
-    <mergeCell ref="M18:P18"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="B6:G6"/>
-    <mergeCell ref="B7:G7"/>
-    <mergeCell ref="D4:H4"/>
-    <mergeCell ref="A85:A96"/>
-    <mergeCell ref="B85:B87"/>
-    <mergeCell ref="B88:B90"/>
-    <mergeCell ref="B91:B93"/>
-    <mergeCell ref="B94:B96"/>
-    <mergeCell ref="B8:G8"/>
-    <mergeCell ref="B11:G11"/>
-    <mergeCell ref="B10:G10"/>
-    <mergeCell ref="B12:G12"/>
-    <mergeCell ref="B13:G13"/>
-    <mergeCell ref="B15:G15"/>
-    <mergeCell ref="B17:G17"/>
-    <mergeCell ref="B62:B64"/>
-    <mergeCell ref="B65:B67"/>
-    <mergeCell ref="B68:B70"/>
-    <mergeCell ref="E24:L24"/>
-    <mergeCell ref="E25:L25"/>
-    <mergeCell ref="B16:G16"/>
-    <mergeCell ref="A59:A70"/>
-    <mergeCell ref="A72:A83"/>
-    <mergeCell ref="B72:B74"/>
-    <mergeCell ref="B75:B77"/>
-    <mergeCell ref="B78:B80"/>
-    <mergeCell ref="B81:B83"/>
     <mergeCell ref="A46:A57"/>
     <mergeCell ref="B59:B61"/>
     <mergeCell ref="B18:G18"/>
@@ -7295,6 +7536,43 @@
     <mergeCell ref="E27:L27"/>
     <mergeCell ref="E22:L22"/>
     <mergeCell ref="E23:L23"/>
+    <mergeCell ref="A59:A70"/>
+    <mergeCell ref="A72:A83"/>
+    <mergeCell ref="B72:B74"/>
+    <mergeCell ref="B75:B77"/>
+    <mergeCell ref="B78:B80"/>
+    <mergeCell ref="B81:B83"/>
+    <mergeCell ref="B15:G15"/>
+    <mergeCell ref="B17:G17"/>
+    <mergeCell ref="B62:B64"/>
+    <mergeCell ref="B65:B67"/>
+    <mergeCell ref="B68:B70"/>
+    <mergeCell ref="E24:L24"/>
+    <mergeCell ref="E25:L25"/>
+    <mergeCell ref="B16:G16"/>
+    <mergeCell ref="B8:G8"/>
+    <mergeCell ref="B11:G11"/>
+    <mergeCell ref="B10:G10"/>
+    <mergeCell ref="B12:G12"/>
+    <mergeCell ref="B13:G13"/>
+    <mergeCell ref="A85:A96"/>
+    <mergeCell ref="B85:B87"/>
+    <mergeCell ref="B88:B90"/>
+    <mergeCell ref="B91:B93"/>
+    <mergeCell ref="B94:B96"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="B6:G6"/>
+    <mergeCell ref="B7:G7"/>
+    <mergeCell ref="D4:H4"/>
+    <mergeCell ref="M16:O16"/>
+    <mergeCell ref="A33:A44"/>
+    <mergeCell ref="B33:B35"/>
+    <mergeCell ref="B36:B38"/>
+    <mergeCell ref="B39:B41"/>
+    <mergeCell ref="B42:B44"/>
+    <mergeCell ref="M18:P18"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -7302,10 +7580,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{522BF9F7-F0C9-DC4D-83C2-D01FE72552A7}">
-  <dimension ref="B2:R20"/>
+  <dimension ref="B2:R26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -7349,26 +7627,26 @@
       </c>
     </row>
     <row r="7" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B7" s="77" t="s">
+      <c r="B7" s="78" t="s">
         <v>63</v>
       </c>
-      <c r="C7" s="77"/>
-      <c r="D7" s="77"/>
-      <c r="E7" s="77"/>
-      <c r="F7" s="77"/>
-      <c r="G7" s="77"/>
-      <c r="H7" s="77"/>
-      <c r="I7" s="77"/>
-      <c r="K7" s="77" t="s">
+      <c r="C7" s="78"/>
+      <c r="D7" s="78"/>
+      <c r="E7" s="78"/>
+      <c r="F7" s="78"/>
+      <c r="G7" s="78"/>
+      <c r="H7" s="78"/>
+      <c r="I7" s="78"/>
+      <c r="K7" s="78" t="s">
         <v>62</v>
       </c>
-      <c r="L7" s="77"/>
-      <c r="M7" s="77"/>
-      <c r="N7" s="77"/>
-      <c r="O7" s="77"/>
-      <c r="P7" s="77"/>
-      <c r="Q7" s="77"/>
-      <c r="R7" s="77"/>
+      <c r="L7" s="78"/>
+      <c r="M7" s="78"/>
+      <c r="N7" s="78"/>
+      <c r="O7" s="78"/>
+      <c r="P7" s="78"/>
+      <c r="Q7" s="78"/>
+      <c r="R7" s="78"/>
     </row>
     <row r="8" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B8" s="2" t="s">
@@ -7421,7 +7699,7 @@
       </c>
     </row>
     <row r="9" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B9" s="49" t="s">
+      <c r="B9" s="57" t="s">
         <v>58</v>
       </c>
       <c r="C9" s="2">
@@ -7442,10 +7720,10 @@
       <c r="H9" s="1">
         <v>1.9</v>
       </c>
-      <c r="I9" s="76">
+      <c r="I9" s="53">
         <v>7.41</v>
       </c>
-      <c r="K9" s="49" t="s">
+      <c r="K9" s="57" t="s">
         <v>58</v>
       </c>
       <c r="L9" s="2">
@@ -7466,12 +7744,12 @@
       <c r="Q9" s="5">
         <v>7.35</v>
       </c>
-      <c r="R9" s="74">
+      <c r="R9" s="51">
         <v>19.940000000000001</v>
       </c>
     </row>
     <row r="10" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B10" s="49"/>
+      <c r="B10" s="57"/>
       <c r="C10" s="2">
         <v>32</v>
       </c>
@@ -7490,10 +7768,10 @@
       <c r="H10" s="1">
         <v>1.29</v>
       </c>
-      <c r="I10" s="76">
+      <c r="I10" s="53">
         <v>6.39</v>
       </c>
-      <c r="K10" s="49"/>
+      <c r="K10" s="57"/>
       <c r="L10" s="2">
         <v>32</v>
       </c>
@@ -7512,12 +7790,12 @@
       <c r="Q10" s="5">
         <v>4.9000000000000004</v>
       </c>
-      <c r="R10" s="74">
+      <c r="R10" s="51">
         <v>15.3</v>
       </c>
     </row>
     <row r="11" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B11" s="49"/>
+      <c r="B11" s="57"/>
       <c r="C11" s="2">
         <v>64</v>
       </c>
@@ -7536,10 +7814,10 @@
       <c r="H11" s="1">
         <v>1.07</v>
       </c>
-      <c r="I11" s="76">
+      <c r="I11" s="53">
         <v>6.75</v>
       </c>
-      <c r="K11" s="49"/>
+      <c r="K11" s="57"/>
       <c r="L11" s="2">
         <v>64</v>
       </c>
@@ -7558,12 +7836,12 @@
       <c r="Q11" s="5">
         <v>3.63</v>
       </c>
-      <c r="R11" s="74">
+      <c r="R11" s="51">
         <v>13.78</v>
       </c>
     </row>
     <row r="12" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B12" s="49"/>
+      <c r="B12" s="57"/>
       <c r="C12" s="2">
         <v>128</v>
       </c>
@@ -7582,10 +7860,10 @@
       <c r="H12" s="1">
         <v>0.83</v>
       </c>
-      <c r="I12" s="76">
+      <c r="I12" s="53">
         <v>6.34</v>
       </c>
-      <c r="K12" s="49"/>
+      <c r="K12" s="57"/>
       <c r="L12" s="2">
         <v>128</v>
       </c>
@@ -7604,12 +7882,12 @@
       <c r="Q12" s="5">
         <v>3.08</v>
       </c>
-      <c r="R12" s="74">
+      <c r="R12" s="51">
         <v>14.54</v>
       </c>
     </row>
     <row r="13" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B13" s="49"/>
+      <c r="B13" s="57"/>
       <c r="C13" s="2">
         <v>256</v>
       </c>
@@ -7628,10 +7906,10 @@
       <c r="H13" s="1">
         <v>0.74</v>
       </c>
-      <c r="I13" s="76">
+      <c r="I13" s="53">
         <v>6.33</v>
       </c>
-      <c r="K13" s="49"/>
+      <c r="K13" s="57"/>
       <c r="L13" s="2">
         <v>256</v>
       </c>
@@ -7650,12 +7928,12 @@
       <c r="Q13" s="5">
         <v>2.52</v>
       </c>
-      <c r="R13" s="74">
+      <c r="R13" s="51">
         <v>15.23</v>
       </c>
     </row>
     <row r="14" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B14" s="49"/>
+      <c r="B14" s="57"/>
       <c r="C14" s="2">
         <v>512</v>
       </c>
@@ -7674,10 +7952,10 @@
       <c r="H14" s="1">
         <v>0.65</v>
       </c>
-      <c r="I14" s="76">
+      <c r="I14" s="53">
         <v>8.6</v>
       </c>
-      <c r="K14" s="49"/>
+      <c r="K14" s="57"/>
       <c r="L14" s="2">
         <v>512</v>
       </c>
@@ -7696,292 +7974,526 @@
       <c r="Q14" s="5">
         <v>2.52</v>
       </c>
-      <c r="R14" s="74">
+      <c r="R14" s="51">
         <v>17.75</v>
       </c>
     </row>
     <row r="15" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B15" s="49" t="s">
+      <c r="B15" s="54" t="s">
         <v>59</v>
       </c>
-      <c r="C15" s="2">
+      <c r="C15" s="13">
         <v>16</v>
       </c>
-      <c r="D15" s="1">
+      <c r="D15" s="79">
         <v>0.02</v>
       </c>
-      <c r="E15" s="1">
+      <c r="E15" s="79">
         <v>0.72</v>
       </c>
-      <c r="F15" s="1">
+      <c r="F15" s="79">
         <v>5.56</v>
       </c>
-      <c r="G15" s="1">
-        <v>0</v>
-      </c>
-      <c r="H15" s="1">
+      <c r="G15" s="79">
+        <v>0</v>
+      </c>
+      <c r="H15" s="79">
         <v>4.67</v>
       </c>
-      <c r="I15" s="75">
+      <c r="I15" s="80">
         <v>6.24</v>
       </c>
-      <c r="K15" s="49" t="s">
+      <c r="K15" s="54" t="s">
         <v>59</v>
       </c>
-      <c r="L15" s="2">
+      <c r="L15" s="13">
         <v>16</v>
       </c>
-      <c r="M15" s="5">
+      <c r="M15" s="42">
         <v>0.03</v>
       </c>
-      <c r="N15" s="5">
+      <c r="N15" s="42">
         <v>1.65</v>
       </c>
-      <c r="O15" s="5">
+      <c r="O15" s="42">
         <v>11</v>
       </c>
-      <c r="P15" s="5">
-        <v>0</v>
-      </c>
-      <c r="Q15" s="5">
+      <c r="P15" s="42">
+        <v>0</v>
+      </c>
+      <c r="Q15" s="42">
         <v>10.49</v>
       </c>
-      <c r="R15" s="73">
+      <c r="R15" s="86">
         <v>12.47</v>
       </c>
     </row>
     <row r="16" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B16" s="49"/>
-      <c r="C16" s="2">
+      <c r="B16" s="55"/>
+      <c r="C16" s="21">
         <v>32</v>
       </c>
-      <c r="D16" s="1">
+      <c r="D16" s="35">
         <v>0.03</v>
       </c>
-      <c r="E16" s="1">
+      <c r="E16" s="35">
         <v>0.79</v>
       </c>
-      <c r="F16" s="1">
+      <c r="F16" s="35">
         <v>3.95</v>
       </c>
-      <c r="G16" s="1">
-        <v>0</v>
-      </c>
-      <c r="H16" s="1">
+      <c r="G16" s="35">
+        <v>0</v>
+      </c>
+      <c r="H16" s="35">
         <v>2.66</v>
       </c>
-      <c r="I16" s="75">
+      <c r="I16" s="81">
         <v>4.7699999999999996</v>
       </c>
-      <c r="K16" s="49"/>
-      <c r="L16" s="2">
+      <c r="K16" s="55"/>
+      <c r="L16" s="21">
         <v>32</v>
       </c>
-      <c r="M16" s="5">
+      <c r="M16" s="15">
         <v>0.04</v>
       </c>
-      <c r="N16" s="5">
+      <c r="N16" s="15">
         <v>1.4</v>
       </c>
-      <c r="O16" s="5">
+      <c r="O16" s="15">
         <v>7.42</v>
       </c>
-      <c r="P16" s="5">
-        <v>0</v>
-      </c>
-      <c r="Q16" s="5">
+      <c r="P16" s="15">
+        <v>0</v>
+      </c>
+      <c r="Q16" s="15">
         <v>6.73</v>
       </c>
-      <c r="R16" s="73">
+      <c r="R16" s="84">
         <v>8.67</v>
       </c>
     </row>
     <row r="17" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B17" s="49"/>
-      <c r="C17" s="2">
+      <c r="B17" s="55"/>
+      <c r="C17" s="21">
         <v>64</v>
       </c>
-      <c r="D17" s="1">
+      <c r="D17" s="35">
         <v>0.03</v>
       </c>
-      <c r="E17" s="1">
+      <c r="E17" s="35">
         <v>0.7</v>
       </c>
-      <c r="F17" s="1">
+      <c r="F17" s="35">
         <v>2.3199999999999998</v>
       </c>
-      <c r="G17" s="1">
-        <v>0</v>
-      </c>
-      <c r="H17" s="1">
+      <c r="G17" s="35">
+        <v>0</v>
+      </c>
+      <c r="H17" s="35">
         <v>1.52</v>
       </c>
-      <c r="I17" s="75">
+      <c r="I17" s="81">
         <v>3.06</v>
       </c>
-      <c r="K17" s="49"/>
-      <c r="L17" s="2">
+      <c r="K17" s="55"/>
+      <c r="L17" s="21">
         <v>64</v>
       </c>
-      <c r="M17" s="5">
+      <c r="M17" s="15">
         <v>0.03</v>
       </c>
-      <c r="N17" s="5">
+      <c r="N17" s="15">
         <v>0.98</v>
       </c>
-      <c r="O17" s="5">
+      <c r="O17" s="15">
         <v>5.73</v>
       </c>
-      <c r="P17" s="5">
-        <v>0</v>
-      </c>
-      <c r="Q17" s="5">
+      <c r="P17" s="15">
+        <v>0</v>
+      </c>
+      <c r="Q17" s="15">
         <v>4.6100000000000003</v>
       </c>
-      <c r="R17" s="73">
+      <c r="R17" s="84">
         <v>6.46</v>
       </c>
     </row>
     <row r="18" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B18" s="49"/>
-      <c r="C18" s="2">
+      <c r="B18" s="55"/>
+      <c r="C18" s="21">
         <v>128</v>
       </c>
-      <c r="D18" s="1">
+      <c r="D18" s="35">
         <v>0.02</v>
       </c>
-      <c r="E18" s="1">
+      <c r="E18" s="35">
         <v>0.64</v>
       </c>
-      <c r="F18" s="1">
+      <c r="F18" s="35">
         <v>1.47</v>
       </c>
-      <c r="G18" s="1">
-        <v>0</v>
-      </c>
-      <c r="H18" s="1">
+      <c r="G18" s="35">
+        <v>0</v>
+      </c>
+      <c r="H18" s="35">
         <v>0.92</v>
       </c>
-      <c r="I18" s="75">
+      <c r="I18" s="81">
         <v>2.13</v>
       </c>
-      <c r="K18" s="49"/>
-      <c r="L18" s="2">
+      <c r="K18" s="55"/>
+      <c r="L18" s="21">
         <v>128</v>
       </c>
-      <c r="M18" s="5">
+      <c r="M18" s="15">
         <v>0.24</v>
       </c>
-      <c r="N18" s="5">
+      <c r="N18" s="15">
         <v>0.97</v>
       </c>
-      <c r="O18" s="5">
+      <c r="O18" s="15">
         <v>3.07</v>
       </c>
-      <c r="P18" s="5">
-        <v>0</v>
-      </c>
-      <c r="Q18" s="5">
+      <c r="P18" s="15">
+        <v>0</v>
+      </c>
+      <c r="Q18" s="15">
         <v>2.31</v>
       </c>
-      <c r="R18" s="73">
+      <c r="R18" s="84">
         <v>3.92</v>
       </c>
     </row>
     <row r="19" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B19" s="49"/>
-      <c r="C19" s="2">
+      <c r="B19" s="55"/>
+      <c r="C19" s="21">
         <v>256</v>
       </c>
-      <c r="D19" s="1">
+      <c r="D19" s="35">
         <v>0.03</v>
       </c>
-      <c r="E19" s="1">
+      <c r="E19" s="35">
         <v>0.61</v>
       </c>
-      <c r="F19" s="1">
+      <c r="F19" s="35">
         <v>1.08</v>
       </c>
-      <c r="G19" s="1">
-        <v>0</v>
-      </c>
-      <c r="H19" s="1">
+      <c r="G19" s="35">
+        <v>0</v>
+      </c>
+      <c r="H19" s="35">
         <v>0.6</v>
       </c>
-      <c r="I19" s="75">
+      <c r="I19" s="81">
         <v>1.71</v>
       </c>
-      <c r="K19" s="49"/>
-      <c r="L19" s="2">
+      <c r="K19" s="55"/>
+      <c r="L19" s="21">
         <v>256</v>
       </c>
-      <c r="M19" s="5">
+      <c r="M19" s="15">
         <v>0.04</v>
       </c>
-      <c r="N19" s="5">
+      <c r="N19" s="15">
         <v>0.72</v>
       </c>
-      <c r="O19" s="5">
+      <c r="O19" s="15">
         <v>2.19</v>
       </c>
-      <c r="P19" s="5">
-        <v>0</v>
-      </c>
-      <c r="Q19" s="5">
+      <c r="P19" s="15">
+        <v>0</v>
+      </c>
+      <c r="Q19" s="15">
         <v>1.25</v>
       </c>
-      <c r="R19" s="73">
+      <c r="R19" s="84">
         <v>2.76</v>
       </c>
     </row>
     <row r="20" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B20" s="49"/>
-      <c r="C20" s="2">
+      <c r="B20" s="56"/>
+      <c r="C20" s="22">
         <v>512</v>
       </c>
-      <c r="D20" s="1">
+      <c r="D20" s="82">
         <v>0.22</v>
       </c>
-      <c r="E20" s="1">
+      <c r="E20" s="82">
         <v>0.83</v>
       </c>
-      <c r="F20" s="1">
+      <c r="F20" s="82">
         <v>1.03</v>
       </c>
-      <c r="G20" s="1">
-        <v>0</v>
-      </c>
-      <c r="H20" s="1">
+      <c r="G20" s="82">
+        <v>0</v>
+      </c>
+      <c r="H20" s="82">
         <v>0.46</v>
       </c>
-      <c r="I20" s="75">
+      <c r="I20" s="83">
         <v>1.9</v>
       </c>
-      <c r="K20" s="49"/>
-      <c r="L20" s="2">
+      <c r="K20" s="56"/>
+      <c r="L20" s="22">
         <v>512</v>
       </c>
-      <c r="M20" s="5">
+      <c r="M20" s="17">
         <v>0.03</v>
       </c>
-      <c r="N20" s="5">
+      <c r="N20" s="17">
         <v>0.67</v>
       </c>
-      <c r="O20" s="5">
+      <c r="O20" s="17">
         <v>1.32</v>
       </c>
-      <c r="P20" s="5">
-        <v>0</v>
-      </c>
-      <c r="Q20" s="5">
+      <c r="P20" s="17">
+        <v>0</v>
+      </c>
+      <c r="Q20" s="17">
         <v>0.72</v>
       </c>
-      <c r="R20" s="73">
+      <c r="R20" s="85">
         <v>1.93</v>
       </c>
     </row>
+    <row r="21" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B21" s="57" t="s">
+        <v>64</v>
+      </c>
+      <c r="C21" s="2">
+        <v>16</v>
+      </c>
+      <c r="D21" s="1">
+        <v>0.03</v>
+      </c>
+      <c r="E21" s="1"/>
+      <c r="F21" s="1">
+        <v>4.45</v>
+      </c>
+      <c r="G21" s="1">
+        <v>0</v>
+      </c>
+      <c r="H21" s="1"/>
+      <c r="I21" s="52">
+        <v>4.47</v>
+      </c>
+      <c r="K21" s="57" t="s">
+        <v>64</v>
+      </c>
+      <c r="L21" s="2">
+        <v>16</v>
+      </c>
+      <c r="M21" s="1">
+        <v>0.02</v>
+      </c>
+      <c r="N21" s="1"/>
+      <c r="O21" s="1">
+        <v>10.87</v>
+      </c>
+      <c r="P21" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q21" s="1"/>
+      <c r="R21" s="52">
+        <v>10.89</v>
+      </c>
+    </row>
+    <row r="22" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B22" s="57"/>
+      <c r="C22" s="2">
+        <v>32</v>
+      </c>
+      <c r="D22" s="1">
+        <v>0.02</v>
+      </c>
+      <c r="E22" s="1"/>
+      <c r="F22" s="1">
+        <v>2.96</v>
+      </c>
+      <c r="G22" s="1">
+        <v>0.04</v>
+      </c>
+      <c r="H22" s="1"/>
+      <c r="I22" s="52">
+        <v>3.02</v>
+      </c>
+      <c r="K22" s="57"/>
+      <c r="L22" s="2">
+        <v>32</v>
+      </c>
+      <c r="M22" s="1">
+        <v>0.02</v>
+      </c>
+      <c r="N22" s="1"/>
+      <c r="O22" s="1">
+        <v>7.51</v>
+      </c>
+      <c r="P22" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q22" s="1"/>
+      <c r="R22" s="52">
+        <v>7.53</v>
+      </c>
+    </row>
+    <row r="23" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B23" s="57"/>
+      <c r="C23" s="2">
+        <v>64</v>
+      </c>
+      <c r="D23" s="1">
+        <v>0.09</v>
+      </c>
+      <c r="E23" s="1"/>
+      <c r="F23" s="1">
+        <v>2.13</v>
+      </c>
+      <c r="G23" s="1">
+        <v>0.01</v>
+      </c>
+      <c r="H23" s="1"/>
+      <c r="I23" s="52">
+        <v>2.23</v>
+      </c>
+      <c r="K23" s="57"/>
+      <c r="L23" s="2">
+        <v>64</v>
+      </c>
+      <c r="M23" s="1">
+        <v>0.02</v>
+      </c>
+      <c r="N23" s="1"/>
+      <c r="O23" s="1">
+        <v>4.38</v>
+      </c>
+      <c r="P23" s="1">
+        <v>0.02</v>
+      </c>
+      <c r="Q23" s="1"/>
+      <c r="R23" s="52">
+        <v>4.42</v>
+      </c>
+    </row>
+    <row r="24" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B24" s="57"/>
+      <c r="C24" s="2">
+        <v>128</v>
+      </c>
+      <c r="D24" s="1">
+        <v>0.03</v>
+      </c>
+      <c r="E24" s="1"/>
+      <c r="F24" s="1">
+        <v>1.04</v>
+      </c>
+      <c r="G24" s="1">
+        <v>0</v>
+      </c>
+      <c r="H24" s="1"/>
+      <c r="I24" s="52">
+        <v>1.07</v>
+      </c>
+      <c r="K24" s="57"/>
+      <c r="L24" s="2">
+        <v>128</v>
+      </c>
+      <c r="M24" s="1">
+        <v>0.16</v>
+      </c>
+      <c r="N24" s="1"/>
+      <c r="O24" s="1">
+        <v>4.34</v>
+      </c>
+      <c r="P24" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q24" s="1"/>
+      <c r="R24" s="52">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="25" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B25" s="57"/>
+      <c r="C25" s="2">
+        <v>256</v>
+      </c>
+      <c r="D25" s="1">
+        <v>0.03</v>
+      </c>
+      <c r="E25" s="1"/>
+      <c r="F25" s="1">
+        <v>1.62</v>
+      </c>
+      <c r="G25" s="1">
+        <v>0</v>
+      </c>
+      <c r="H25" s="1"/>
+      <c r="I25" s="52">
+        <v>1.66</v>
+      </c>
+      <c r="K25" s="57"/>
+      <c r="L25" s="2">
+        <v>256</v>
+      </c>
+      <c r="M25" s="1">
+        <v>0.03</v>
+      </c>
+      <c r="N25" s="1"/>
+      <c r="O25" s="1">
+        <v>2.0299999999999998</v>
+      </c>
+      <c r="P25" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q25" s="1"/>
+      <c r="R25" s="52">
+        <v>2.06</v>
+      </c>
+    </row>
+    <row r="26" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B26" s="57"/>
+      <c r="C26" s="2">
+        <v>512</v>
+      </c>
+      <c r="D26" s="1">
+        <v>0.05</v>
+      </c>
+      <c r="E26" s="1"/>
+      <c r="F26" s="1">
+        <v>1.23</v>
+      </c>
+      <c r="G26" s="1">
+        <v>0.01</v>
+      </c>
+      <c r="H26" s="1"/>
+      <c r="I26" s="52">
+        <v>1.28</v>
+      </c>
+      <c r="K26" s="57"/>
+      <c r="L26" s="2">
+        <v>512</v>
+      </c>
+      <c r="M26" s="1">
+        <v>0.03</v>
+      </c>
+      <c r="N26" s="1"/>
+      <c r="O26" s="1">
+        <v>1.4</v>
+      </c>
+      <c r="P26" s="1">
+        <v>0.01</v>
+      </c>
+      <c r="Q26" s="1"/>
+      <c r="R26" s="52">
+        <v>1.44</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="8">
+    <mergeCell ref="B21:B26"/>
+    <mergeCell ref="K21:K26"/>
     <mergeCell ref="B7:I7"/>
     <mergeCell ref="K7:R7"/>
     <mergeCell ref="K9:K14"/>
